--- a/ABNB.xlsx
+++ b/ABNB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F7BEC5-17EE-6941-ABFD-62863A176251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FFB191-E78F-714E-9B96-DC7C7801F4F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="460" windowWidth="19100" windowHeight="20340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28540" yWindow="460" windowWidth="32660" windowHeight="26720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
   <si>
     <t>Q117</t>
   </si>
@@ -247,73 +247,13 @@
     <t>Tax anomaly</t>
   </si>
   <si>
-    <t>30/11/2018</t>
-  </si>
-  <si>
-    <t>1/3/2019</t>
-  </si>
-  <si>
-    <t>2/3/2018</t>
-  </si>
-  <si>
     <t>Operating Expenses y/y</t>
-  </si>
-  <si>
-    <t>1/12/2017</t>
-  </si>
-  <si>
-    <t>31/8/2018</t>
-  </si>
-  <si>
-    <t>1/9/2017</t>
-  </si>
-  <si>
-    <t>1/6/2018</t>
-  </si>
-  <si>
-    <t>2/6/2017</t>
-  </si>
-  <si>
-    <t>3/3/2017</t>
-  </si>
-  <si>
-    <t>2/12/2016</t>
-  </si>
-  <si>
-    <t>27/11/2015</t>
-  </si>
-  <si>
-    <t>2/9/2016</t>
-  </si>
-  <si>
-    <t>28/8/2015</t>
-  </si>
-  <si>
-    <t>3/6/2016</t>
-  </si>
-  <si>
-    <t>29/5/2015</t>
-  </si>
-  <si>
-    <t>4/3/2016</t>
-  </si>
-  <si>
-    <t>27/2/2015</t>
-  </si>
-  <si>
-    <t>31/5/2019</t>
   </si>
   <si>
     <t>Q120</t>
   </si>
   <si>
     <t>Q420</t>
-  </si>
-  <si>
-    <t>30/8/2019</t>
-  </si>
-  <si>
-    <t>29/11/2019</t>
   </si>
   <si>
     <t>Trademarks</t>
@@ -1035,7 +975,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1049,7 +989,7 @@
         <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:117" x14ac:dyDescent="0.15">
@@ -1075,11 +1015,11 @@
         <v>17</v>
       </c>
       <c r="C3" s="8">
-        <f>Reports!X21</f>
-        <v>485</v>
+        <f>F28</f>
+        <v>260.55599999999998</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>30</v>
@@ -1094,7 +1034,7 @@
     </row>
     <row r="4" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A4" s="70" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>49</v>
@@ -1112,11 +1052,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="I4" s="19"/>
       <c r="L4" s="9" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:117" x14ac:dyDescent="0.15">
@@ -1125,20 +1065,20 @@
       </c>
       <c r="C5" s="8">
         <f>Reports!X33</f>
-        <v>1148</v>
+        <v>0</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="11">
         <f>NPV(F4,G26:GR26)</f>
-        <v>72847.766363709001</v>
+        <v>72836.701873816011</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="I5" s="19"/>
     </row>
@@ -1151,7 +1091,7 @@
       </c>
       <c r="C6" s="10">
         <f>C4-C5</f>
-        <v>-1148</v>
+        <v>0</v>
       </c>
       <c r="D6" s="68"/>
       <c r="E6" s="12" t="s">
@@ -1159,20 +1099,20 @@
       </c>
       <c r="F6" s="13">
         <f>F5+C5</f>
-        <v>73995.766363709001</v>
+        <v>72836.701873816011</v>
       </c>
       <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A7" s="70" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="43">
         <f>C6/C3</f>
-        <v>-2.3670103092783505</v>
+        <v>0</v>
       </c>
       <c r="D7" s="68"/>
       <c r="E7" s="14" t="s">
@@ -1180,7 +1120,7 @@
       </c>
       <c r="F7" s="42">
         <f>F6/C3</f>
-        <v>152.56859044063711</v>
+        <v>279.543368311672</v>
       </c>
       <c r="G7" s="19" t="e">
         <f>F7/C2-1</f>
@@ -1189,7 +1129,7 @@
     </row>
     <row r="8" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A8" s="70" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="15"/>
@@ -1371,7 +1311,7 @@
     </row>
     <row r="10" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B10" s="37">
         <v>919</v>
@@ -1621,7 +1561,7 @@
     </row>
     <row r="12" spans="1:117" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B12" s="16">
         <v>72.400000000000006</v>
@@ -1661,7 +1601,7 @@
     </row>
     <row r="13" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B13" s="56">
         <f>B10/B12</f>
@@ -1881,7 +1821,7 @@
         <v>26075.301747547353</v>
       </c>
       <c r="Q15" s="46">
-        <f t="shared" ref="M15:U15" si="4">P15*1.05</f>
+        <f t="shared" ref="Q15:U15" si="4">P15*1.05</f>
         <v>27379.066834924721</v>
       </c>
       <c r="R15" s="46">
@@ -2595,7 +2535,7 @@
         <v>3123.0224526527991</v>
       </c>
       <c r="Q19" s="23">
-        <f t="shared" ref="L19:U19" si="14">P19*0.98</f>
+        <f t="shared" ref="Q19:U19" si="14">P19*0.98</f>
         <v>3060.5620035997431</v>
       </c>
       <c r="R19" s="23">
@@ -3274,64 +3214,64 @@
         <v>90</v>
       </c>
       <c r="G23" s="23">
-        <f>F40*$F$3</f>
-        <v>0.77418000000001486</v>
+        <f t="shared" ref="G23:U23" si="23">F40*$F$3</f>
+        <v>0</v>
       </c>
       <c r="H23" s="23">
-        <f>G40*$F$3</f>
-        <v>-9.7948997099999779</v>
+        <f t="shared" si="23"/>
+        <v>-10.583014949999992</v>
       </c>
       <c r="I23" s="23">
-        <f>H40*$F$3</f>
-        <v>-22.785321966029969</v>
+        <f t="shared" si="23"/>
+        <v>-23.58762328034998</v>
       </c>
       <c r="J23" s="23">
-        <f>I40*$F$3</f>
-        <v>-39.333887189512254</v>
+        <f t="shared" si="23"/>
+        <v>-40.15062992749003</v>
       </c>
       <c r="K23" s="23">
-        <f>J40*$F$3</f>
-        <v>-61.24062947974295</v>
+        <f t="shared" si="23"/>
+        <v>-62.072073587004326</v>
       </c>
       <c r="L23" s="23">
-        <f>K40*$F$3</f>
-        <v>-91.324425879423146</v>
+        <f t="shared" si="23"/>
+        <v>-92.170835980615237</v>
       </c>
       <c r="M23" s="23">
-        <f>L40*$F$3</f>
-        <v>-91.287967258802098</v>
+        <f t="shared" si="23"/>
+        <v>-92.149612741815631</v>
       </c>
       <c r="N23" s="23">
-        <f>M40*$F$3</f>
-        <v>-60.034339005692772</v>
+        <f t="shared" si="23"/>
+        <v>-60.911494107400557</v>
       </c>
       <c r="O23" s="23">
-        <f>N40*$F$3</f>
-        <v>3.8264982723038248</v>
+        <f t="shared" si="23"/>
+        <v>2.9335543787653022</v>
       </c>
       <c r="P23" s="23">
-        <f>O40*$F$3</f>
-        <v>101.99001454153371</v>
+        <f t="shared" si="23"/>
+        <v>101.08099765791151</v>
       </c>
       <c r="Q23" s="23">
-        <f>P40*$F$3</f>
-        <v>236.4723009374772</v>
+        <f t="shared" si="23"/>
+        <v>235.5469217499498</v>
       </c>
       <c r="R23" s="23">
-        <f>Q40*$F$3</f>
-        <v>385.9179313243713</v>
+        <f t="shared" si="23"/>
+        <v>384.97589531146849</v>
       </c>
       <c r="S23" s="23">
-        <f>R40*$F$3</f>
-        <v>551.10517224526211</v>
+        <f t="shared" si="23"/>
+        <v>550.14617958412714</v>
       </c>
       <c r="T23" s="23">
-        <f>S40*$F$3</f>
-        <v>732.85410949434254</v>
+        <f t="shared" si="23"/>
+        <v>731.87785496530705</v>
       </c>
       <c r="U23" s="23">
-        <f>T40*$F$3</f>
-        <v>932.02874410342554</v>
+        <f t="shared" si="23"/>
+        <v>931.03491699286735</v>
       </c>
       <c r="V23" s="38"/>
       <c r="W23" s="38"/>
@@ -3455,64 +3395,64 @@
         <v>-411.76100000000042</v>
       </c>
       <c r="G24" s="23">
-        <f t="shared" ref="G24:H24" si="23">G22+G23</f>
-        <v>-587.17109499999958</v>
+        <f t="shared" ref="G24:H24" si="24">G22+G23</f>
+        <v>-587.94527499999958</v>
       </c>
       <c r="H24" s="23">
-        <f t="shared" si="23"/>
-        <v>-721.69012533499949</v>
+        <f t="shared" si="24"/>
+        <v>-722.47824057499952</v>
       </c>
       <c r="I24" s="23">
-        <f t="shared" ref="I24" si="24">I22+I23</f>
-        <v>-919.36473463790469</v>
+        <f t="shared" ref="I24" si="25">I22+I23</f>
+        <v>-920.16703595222464</v>
       </c>
       <c r="J24" s="23">
-        <f t="shared" ref="J24" si="25">J22+J23</f>
-        <v>-1217.0412383461501</v>
+        <f t="shared" ref="J24" si="26">J22+J23</f>
+        <v>-1217.8579810841277</v>
       </c>
       <c r="K24" s="23">
-        <f t="shared" ref="K24" si="26">K22+K23</f>
-        <v>-1671.3220222044556</v>
+        <f t="shared" ref="K24" si="27">K22+K23</f>
+        <v>-1672.153466311717</v>
       </c>
       <c r="L24" s="23">
-        <f t="shared" ref="L24" si="27">L22+L23</f>
-        <v>2.0254789233920718</v>
+        <f t="shared" ref="L24" si="28">L22+L23</f>
+        <v>1.1790688221999801</v>
       </c>
       <c r="M24" s="23">
-        <f t="shared" ref="M24" si="28">M22+M23</f>
-        <v>1736.3126807282954</v>
+        <f t="shared" ref="M24" si="29">M22+M23</f>
+        <v>1735.4510352452819</v>
       </c>
       <c r="N24" s="23">
-        <f t="shared" ref="N24" si="29">N22+N23</f>
-        <v>3547.8242932220332</v>
+        <f t="shared" ref="N24" si="30">N22+N23</f>
+        <v>3546.9471381203257</v>
       </c>
       <c r="O24" s="23">
-        <f t="shared" ref="O24" si="30">O22+O23</f>
-        <v>5453.5286816238831</v>
+        <f t="shared" ref="O24" si="31">O22+O23</f>
+        <v>5452.6357377303448</v>
       </c>
       <c r="P24" s="23">
-        <f t="shared" ref="P24:Q24" si="31">P22+P23</f>
-        <v>7471.2381331079723</v>
+        <f t="shared" ref="P24:Q24" si="32">P22+P23</f>
+        <v>7470.3291162243495</v>
       </c>
       <c r="Q24" s="23">
-        <f t="shared" si="31"/>
-        <v>8302.5350214941191</v>
+        <f t="shared" si="32"/>
+        <v>8301.6096423065919</v>
       </c>
       <c r="R24" s="23">
-        <f t="shared" ref="R24:U24" si="32">R22+R23</f>
-        <v>9177.0689400494903</v>
+        <f t="shared" ref="R24:U24" si="33">R22+R23</f>
+        <v>9176.1269040365878</v>
       </c>
       <c r="S24" s="23">
-        <f t="shared" si="32"/>
-        <v>10097.163180504467</v>
+        <f t="shared" si="33"/>
+        <v>10096.204187843334</v>
       </c>
       <c r="T24" s="23">
-        <f t="shared" si="32"/>
-        <v>11065.257478282387</v>
+        <f t="shared" si="33"/>
+        <v>11064.281223753351</v>
       </c>
       <c r="U24" s="23">
-        <f t="shared" si="32"/>
-        <v>12083.913892244427</v>
+        <f t="shared" si="33"/>
+        <v>12082.920065133869</v>
       </c>
       <c r="V24" s="38"/>
       <c r="W24" s="38"/>
@@ -3632,63 +3572,63 @@
       </c>
       <c r="G25" s="23">
         <f>G24*0.1</f>
-        <v>-58.717109499999964</v>
+        <v>-58.794527499999958</v>
       </c>
       <c r="H25" s="23">
-        <f t="shared" ref="H25:P25" si="33">H24*0.1</f>
-        <v>-72.169012533499952</v>
+        <f t="shared" ref="H25:P25" si="34">H24*0.1</f>
+        <v>-72.247824057499955</v>
       </c>
       <c r="I25" s="23">
-        <f t="shared" si="33"/>
-        <v>-91.936473463790477</v>
+        <f t="shared" si="34"/>
+        <v>-92.016703595222467</v>
       </c>
       <c r="J25" s="23">
-        <f t="shared" si="33"/>
-        <v>-121.70412383461502</v>
+        <f t="shared" si="34"/>
+        <v>-121.78579810841278</v>
       </c>
       <c r="K25" s="23">
-        <f t="shared" si="33"/>
-        <v>-167.13220222044558</v>
+        <f t="shared" si="34"/>
+        <v>-167.21534663117171</v>
       </c>
       <c r="L25" s="23">
-        <f t="shared" si="33"/>
-        <v>0.2025478923392072</v>
+        <f t="shared" si="34"/>
+        <v>0.11790688221999801</v>
       </c>
       <c r="M25" s="23">
-        <f t="shared" si="33"/>
-        <v>173.63126807282956</v>
+        <f t="shared" si="34"/>
+        <v>173.5451035245282</v>
       </c>
       <c r="N25" s="23">
-        <f t="shared" si="33"/>
-        <v>354.78242932220337</v>
+        <f t="shared" si="34"/>
+        <v>354.6947138120326</v>
       </c>
       <c r="O25" s="23">
-        <f t="shared" si="33"/>
-        <v>545.35286816238829</v>
+        <f t="shared" si="34"/>
+        <v>545.26357377303452</v>
       </c>
       <c r="P25" s="23">
-        <f t="shared" si="33"/>
-        <v>747.12381331079723</v>
+        <f t="shared" si="34"/>
+        <v>747.03291162243499</v>
       </c>
       <c r="Q25" s="23">
-        <f t="shared" ref="Q25:U25" si="34">Q24*0.1</f>
-        <v>830.25350214941193</v>
+        <f t="shared" ref="Q25:U25" si="35">Q24*0.1</f>
+        <v>830.16096423065926</v>
       </c>
       <c r="R25" s="23">
-        <f t="shared" si="34"/>
-        <v>917.70689400494905</v>
+        <f t="shared" si="35"/>
+        <v>917.6126904036588</v>
       </c>
       <c r="S25" s="23">
-        <f t="shared" si="34"/>
-        <v>1009.7163180504467</v>
+        <f t="shared" si="35"/>
+        <v>1009.6204187843334</v>
       </c>
       <c r="T25" s="23">
-        <f t="shared" si="34"/>
-        <v>1106.5257478282388</v>
+        <f t="shared" si="35"/>
+        <v>1106.4281223753351</v>
       </c>
       <c r="U25" s="23">
-        <f t="shared" si="34"/>
-        <v>1208.3913892244427</v>
+        <f t="shared" si="35"/>
+        <v>1208.2920065133869</v>
       </c>
       <c r="V25" s="38"/>
       <c r="W25" s="38"/>
@@ -3808,784 +3748,784 @@
         <v>-15.014999999999873</v>
       </c>
       <c r="F26" s="24">
-        <f t="shared" ref="F26:H26" si="35">F24-F25</f>
+        <f t="shared" ref="F26:H26" si="36">F24-F25</f>
         <v>-674.76100000000042</v>
       </c>
       <c r="G26" s="24">
         <f>G24-G25</f>
-        <v>-528.45398549999959</v>
+        <v>-529.15074749999962</v>
       </c>
       <c r="H26" s="24">
-        <f t="shared" si="35"/>
-        <v>-649.5211128014995</v>
+        <f t="shared" si="36"/>
+        <v>-650.23041651749952</v>
       </c>
       <c r="I26" s="24">
-        <f t="shared" ref="I26:P26" si="36">I24-I25</f>
-        <v>-827.42826117411425</v>
+        <f t="shared" ref="I26:P26" si="37">I24-I25</f>
+        <v>-828.15033235700218</v>
       </c>
       <c r="J26" s="24">
-        <f t="shared" si="36"/>
-        <v>-1095.337114511535</v>
+        <f t="shared" si="37"/>
+        <v>-1096.0721829757149</v>
       </c>
       <c r="K26" s="24">
-        <f t="shared" si="36"/>
-        <v>-1504.18981998401</v>
+        <f t="shared" si="37"/>
+        <v>-1504.9381196805452</v>
       </c>
       <c r="L26" s="24">
-        <f t="shared" si="36"/>
-        <v>1.8229310310528646</v>
+        <f t="shared" si="37"/>
+        <v>1.0611619399799821</v>
       </c>
       <c r="M26" s="24">
-        <f t="shared" si="36"/>
-        <v>1562.6814126554659</v>
+        <f t="shared" si="37"/>
+        <v>1561.9059317207536</v>
       </c>
       <c r="N26" s="24">
-        <f t="shared" si="36"/>
-        <v>3193.0418638998299</v>
+        <f t="shared" si="37"/>
+        <v>3192.252424308293</v>
       </c>
       <c r="O26" s="24">
-        <f t="shared" si="36"/>
-        <v>4908.1758134614947</v>
+        <f t="shared" si="37"/>
+        <v>4907.3721639573105</v>
       </c>
       <c r="P26" s="24">
-        <f t="shared" si="36"/>
-        <v>6724.1143197971751</v>
+        <f t="shared" si="37"/>
+        <v>6723.2962046019147</v>
       </c>
       <c r="Q26" s="24">
-        <f t="shared" ref="Q26:U26" si="37">Q24-Q25</f>
-        <v>7472.2815193447068</v>
+        <f t="shared" ref="Q26:U26" si="38">Q24-Q25</f>
+        <v>7471.4486780759325</v>
       </c>
       <c r="R26" s="24">
-        <f t="shared" si="37"/>
-        <v>8259.3620460445418</v>
+        <f t="shared" si="38"/>
+        <v>8258.5142136329287</v>
       </c>
       <c r="S26" s="24">
-        <f t="shared" si="37"/>
-        <v>9087.4468624540204</v>
+        <f t="shared" si="38"/>
+        <v>9086.5837690589997</v>
       </c>
       <c r="T26" s="24">
-        <f t="shared" si="37"/>
-        <v>9958.7317304541484</v>
+        <f t="shared" si="38"/>
+        <v>9957.8531013780157</v>
       </c>
       <c r="U26" s="24">
-        <f t="shared" si="37"/>
-        <v>10875.522503019984</v>
+        <f t="shared" si="38"/>
+        <v>10874.628058620481</v>
       </c>
       <c r="V26" s="24">
-        <f>U26*($F$2+1)</f>
-        <v>10766.767277989784</v>
+        <f t="shared" ref="V26:BA26" si="39">U26*($F$2+1)</f>
+        <v>10765.881778034276</v>
       </c>
       <c r="W26" s="24">
-        <f>V26*($F$2+1)</f>
-        <v>10659.099605209885</v>
+        <f t="shared" si="39"/>
+        <v>10658.222960253934</v>
       </c>
       <c r="X26" s="24">
-        <f>W26*($F$2+1)</f>
-        <v>10552.508609157787</v>
+        <f t="shared" si="39"/>
+        <v>10551.640730651394</v>
       </c>
       <c r="Y26" s="24">
-        <f>X26*($F$2+1)</f>
-        <v>10446.983523066208</v>
+        <f t="shared" si="39"/>
+        <v>10446.12432334488</v>
       </c>
       <c r="Z26" s="24">
-        <f>Y26*($F$2+1)</f>
-        <v>10342.513687835546</v>
+        <f t="shared" si="39"/>
+        <v>10341.663080111432</v>
       </c>
       <c r="AA26" s="24">
-        <f>Z26*($F$2+1)</f>
-        <v>10239.088550957191</v>
+        <f t="shared" si="39"/>
+        <v>10238.246449310318</v>
       </c>
       <c r="AB26" s="24">
-        <f>AA26*($F$2+1)</f>
-        <v>10136.697665447618</v>
+        <f t="shared" si="39"/>
+        <v>10135.863984817215</v>
       </c>
       <c r="AC26" s="24">
-        <f>AB26*($F$2+1)</f>
-        <v>10035.330688793143</v>
+        <f t="shared" si="39"/>
+        <v>10034.505344969042</v>
       </c>
       <c r="AD26" s="24">
-        <f>AC26*($F$2+1)</f>
-        <v>9934.9773819052116</v>
+        <f t="shared" si="39"/>
+        <v>9934.1602915193525</v>
       </c>
       <c r="AE26" s="24">
-        <f>AD26*($F$2+1)</f>
-        <v>9835.6276080861589</v>
+        <f t="shared" si="39"/>
+        <v>9834.8186886041585</v>
       </c>
       <c r="AF26" s="24">
-        <f>AE26*($F$2+1)</f>
-        <v>9737.2713320052972</v>
+        <f t="shared" si="39"/>
+        <v>9736.4705017181168</v>
       </c>
       <c r="AG26" s="24">
-        <f>AF26*($F$2+1)</f>
-        <v>9639.8986186852435</v>
+        <f t="shared" si="39"/>
+        <v>9639.1057967009347</v>
       </c>
       <c r="AH26" s="24">
-        <f>AG26*($F$2+1)</f>
-        <v>9543.4996324983913</v>
+        <f t="shared" si="39"/>
+        <v>9542.7147387339246</v>
       </c>
       <c r="AI26" s="24">
-        <f>AH26*($F$2+1)</f>
-        <v>9448.0646361734071</v>
+        <f t="shared" si="39"/>
+        <v>9447.287591346585</v>
       </c>
       <c r="AJ26" s="24">
-        <f>AI26*($F$2+1)</f>
-        <v>9353.5839898116737</v>
+        <f t="shared" si="39"/>
+        <v>9352.81471543312</v>
       </c>
       <c r="AK26" s="24">
-        <f>AJ26*($F$2+1)</f>
-        <v>9260.0481499135567</v>
+        <f t="shared" si="39"/>
+        <v>9259.2865682787888</v>
       </c>
       <c r="AL26" s="24">
-        <f>AK26*($F$2+1)</f>
-        <v>9167.4476684144211</v>
+        <f t="shared" si="39"/>
+        <v>9166.6937025960015</v>
       </c>
       <c r="AM26" s="24">
-        <f>AL26*($F$2+1)</f>
-        <v>9075.7731917302772</v>
+        <f t="shared" si="39"/>
+        <v>9075.0267655700409</v>
       </c>
       <c r="AN26" s="24">
-        <f>AM26*($F$2+1)</f>
-        <v>8985.0154598129739</v>
+        <f t="shared" si="39"/>
+        <v>8984.2764979143412</v>
       </c>
       <c r="AO26" s="24">
-        <f>AN26*($F$2+1)</f>
-        <v>8895.1653052148449</v>
+        <f t="shared" si="39"/>
+        <v>8894.4337329351983</v>
       </c>
       <c r="AP26" s="24">
-        <f>AO26*($F$2+1)</f>
-        <v>8806.2136521626962</v>
+        <f t="shared" si="39"/>
+        <v>8805.4893956058459</v>
       </c>
       <c r="AQ26" s="24">
-        <f>AP26*($F$2+1)</f>
-        <v>8718.1515156410696</v>
+        <f t="shared" si="39"/>
+        <v>8717.4345016497882</v>
       </c>
       <c r="AR26" s="24">
-        <f>AQ26*($F$2+1)</f>
-        <v>8630.9700004846582</v>
+        <f t="shared" si="39"/>
+        <v>8630.2601566332905</v>
       </c>
       <c r="AS26" s="24">
-        <f>AR26*($F$2+1)</f>
-        <v>8544.6603004798108</v>
+        <f t="shared" si="39"/>
+        <v>8543.9575550669579</v>
       </c>
       <c r="AT26" s="24">
-        <f>AS26*($F$2+1)</f>
-        <v>8459.2136974750119</v>
+        <f t="shared" si="39"/>
+        <v>8458.5179795162876</v>
       </c>
       <c r="AU26" s="24">
-        <f>AT26*($F$2+1)</f>
-        <v>8374.6215605002617</v>
+        <f t="shared" si="39"/>
+        <v>8373.932799721124</v>
       </c>
       <c r="AV26" s="24">
-        <f>AU26*($F$2+1)</f>
-        <v>8290.8753448952593</v>
+        <f t="shared" si="39"/>
+        <v>8290.1934717239128</v>
       </c>
       <c r="AW26" s="24">
-        <f>AV26*($F$2+1)</f>
-        <v>8207.9665914463058</v>
+        <f t="shared" si="39"/>
+        <v>8207.291537006673</v>
       </c>
       <c r="AX26" s="24">
-        <f>AW26*($F$2+1)</f>
-        <v>8125.8869255318423</v>
+        <f t="shared" si="39"/>
+        <v>8125.2186216366063</v>
       </c>
       <c r="AY26" s="24">
-        <f>AX26*($F$2+1)</f>
-        <v>8044.6280562765241</v>
+        <f t="shared" si="39"/>
+        <v>8043.9664354202405</v>
       </c>
       <c r="AZ26" s="24">
-        <f>AY26*($F$2+1)</f>
-        <v>7964.1817757137587</v>
+        <f t="shared" si="39"/>
+        <v>7963.5267710660382</v>
       </c>
       <c r="BA26" s="24">
-        <f>AZ26*($F$2+1)</f>
-        <v>7884.539957956621</v>
+        <f t="shared" si="39"/>
+        <v>7883.8915033553776</v>
       </c>
       <c r="BB26" s="24">
-        <f>BA26*($F$2+1)</f>
-        <v>7805.6945583770548</v>
+        <f t="shared" ref="BB26:CG26" si="40">BA26*($F$2+1)</f>
+        <v>7805.0525883218234</v>
       </c>
       <c r="BC26" s="24">
-        <f>BB26*($F$2+1)</f>
-        <v>7727.6376127932845</v>
+        <f t="shared" si="40"/>
+        <v>7727.0020624386052</v>
       </c>
       <c r="BD26" s="24">
-        <f>BC26*($F$2+1)</f>
-        <v>7650.3612366653515</v>
+        <f t="shared" si="40"/>
+        <v>7649.732041814219</v>
       </c>
       <c r="BE26" s="24">
-        <f>BD26*($F$2+1)</f>
-        <v>7573.8576242986983</v>
+        <f t="shared" si="40"/>
+        <v>7573.2347213960766</v>
       </c>
       <c r="BF26" s="24">
-        <f>BE26*($F$2+1)</f>
-        <v>7498.1190480557116</v>
+        <f t="shared" si="40"/>
+        <v>7497.502374182116</v>
       </c>
       <c r="BG26" s="24">
-        <f>BF26*($F$2+1)</f>
-        <v>7423.1378575751542</v>
+        <f t="shared" si="40"/>
+        <v>7422.5273504402949</v>
       </c>
       <c r="BH26" s="24">
-        <f>BG26*($F$2+1)</f>
-        <v>7348.9064789994027</v>
+        <f t="shared" si="40"/>
+        <v>7348.3020769358918</v>
       </c>
       <c r="BI26" s="24">
-        <f>BH26*($F$2+1)</f>
-        <v>7275.4174142094089</v>
+        <f t="shared" si="40"/>
+        <v>7274.8190561665324</v>
       </c>
       <c r="BJ26" s="24">
-        <f>BI26*($F$2+1)</f>
-        <v>7202.6632400673143</v>
+        <f t="shared" si="40"/>
+        <v>7202.0708656048673</v>
       </c>
       <c r="BK26" s="24">
-        <f>BJ26*($F$2+1)</f>
-        <v>7130.6366076666409</v>
+        <f t="shared" si="40"/>
+        <v>7130.0501569488188</v>
       </c>
       <c r="BL26" s="24">
-        <f>BK26*($F$2+1)</f>
-        <v>7059.3302415899743</v>
+        <f t="shared" si="40"/>
+        <v>7058.7496553793308</v>
       </c>
       <c r="BM26" s="24">
-        <f>BL26*($F$2+1)</f>
-        <v>6988.7369391740749</v>
+        <f t="shared" si="40"/>
+        <v>6988.1621588255375</v>
       </c>
       <c r="BN26" s="24">
-        <f>BM26*($F$2+1)</f>
-        <v>6918.8495697823337</v>
+        <f t="shared" si="40"/>
+        <v>6918.2805372372823</v>
       </c>
       <c r="BO26" s="24">
-        <f>BN26*($F$2+1)</f>
-        <v>6849.6610740845099</v>
+        <f t="shared" si="40"/>
+        <v>6849.0977318649093</v>
       </c>
       <c r="BP26" s="24">
-        <f>BO26*($F$2+1)</f>
-        <v>6781.1644633436645</v>
+        <f t="shared" si="40"/>
+        <v>6780.6067545462602</v>
       </c>
       <c r="BQ26" s="24">
-        <f>BP26*($F$2+1)</f>
-        <v>6713.3528187102274</v>
+        <f t="shared" si="40"/>
+        <v>6712.8006870007976</v>
       </c>
       <c r="BR26" s="24">
-        <f>BQ26*($F$2+1)</f>
-        <v>6646.219290523125</v>
+        <f t="shared" si="40"/>
+        <v>6645.6726801307896</v>
       </c>
       <c r="BS26" s="24">
-        <f>BR26*($F$2+1)</f>
-        <v>6579.757097617894</v>
+        <f t="shared" si="40"/>
+        <v>6579.2159533294816</v>
       </c>
       <c r="BT26" s="24">
-        <f>BS26*($F$2+1)</f>
-        <v>6513.9595266417155</v>
+        <f t="shared" si="40"/>
+        <v>6513.4237937961871</v>
       </c>
       <c r="BU26" s="24">
-        <f>BT26*($F$2+1)</f>
-        <v>6448.8199313752984</v>
+        <f t="shared" si="40"/>
+        <v>6448.289555858225</v>
       </c>
       <c r="BV26" s="24">
-        <f>BU26*($F$2+1)</f>
-        <v>6384.3317320615452</v>
+        <f t="shared" si="40"/>
+        <v>6383.8066602996423</v>
       </c>
       <c r="BW26" s="24">
-        <f>BV26*($F$2+1)</f>
-        <v>6320.4884147409293</v>
+        <f t="shared" si="40"/>
+        <v>6319.9685936966462</v>
       </c>
       <c r="BX26" s="24">
-        <f>BW26*($F$2+1)</f>
-        <v>6257.2835305935196</v>
+        <f t="shared" si="40"/>
+        <v>6256.7689077596797</v>
       </c>
       <c r="BY26" s="24">
-        <f>BX26*($F$2+1)</f>
-        <v>6194.7106952875847</v>
+        <f t="shared" si="40"/>
+        <v>6194.201218682083</v>
       </c>
       <c r="BZ26" s="24">
-        <f>BY26*($F$2+1)</f>
-        <v>6132.7635883347084</v>
+        <f t="shared" si="40"/>
+        <v>6132.2592064952623</v>
       </c>
       <c r="CA26" s="24">
-        <f>BZ26*($F$2+1)</f>
-        <v>6071.4359524513611</v>
+        <f t="shared" si="40"/>
+        <v>6070.9366144303094</v>
       </c>
       <c r="CB26" s="24">
-        <f>CA26*($F$2+1)</f>
-        <v>6010.7215929268477</v>
+        <f t="shared" si="40"/>
+        <v>6010.2272482860062</v>
       </c>
       <c r="CC26" s="24">
-        <f>CB26*($F$2+1)</f>
-        <v>5950.6143769975788</v>
+        <f t="shared" si="40"/>
+        <v>5950.1249758031463</v>
       </c>
       <c r="CD26" s="24">
-        <f>CC26*($F$2+1)</f>
-        <v>5891.1082332276028</v>
+        <f t="shared" si="40"/>
+        <v>5890.6237260451144</v>
       </c>
       <c r="CE26" s="24">
-        <f>CD26*($F$2+1)</f>
-        <v>5832.1971508953266</v>
+        <f t="shared" si="40"/>
+        <v>5831.7174887846631</v>
       </c>
       <c r="CF26" s="24">
-        <f>CE26*($F$2+1)</f>
-        <v>5773.875179386373</v>
+        <f t="shared" si="40"/>
+        <v>5773.4003138968164</v>
       </c>
       <c r="CG26" s="24">
-        <f>CF26*($F$2+1)</f>
-        <v>5716.1364275925089</v>
+        <f t="shared" si="40"/>
+        <v>5715.6663107578479</v>
       </c>
       <c r="CH26" s="24">
-        <f>CG26*($F$2+1)</f>
-        <v>5658.9750633165841</v>
+        <f t="shared" ref="CH26:DM26" si="41">CG26*($F$2+1)</f>
+        <v>5658.5096476502695</v>
       </c>
       <c r="CI26" s="24">
-        <f>CH26*($F$2+1)</f>
-        <v>5602.3853126834183</v>
+        <f t="shared" si="41"/>
+        <v>5601.9245511737663</v>
       </c>
       <c r="CJ26" s="24">
-        <f>CI26*($F$2+1)</f>
-        <v>5546.3614595565841</v>
+        <f t="shared" si="41"/>
+        <v>5545.9053056620287</v>
       </c>
       <c r="CK26" s="24">
-        <f>CJ26*($F$2+1)</f>
-        <v>5490.8978449610186</v>
+        <f t="shared" si="41"/>
+        <v>5490.4462526054085</v>
       </c>
       <c r="CL26" s="24">
-        <f>CK26*($F$2+1)</f>
-        <v>5435.9888665114086</v>
+        <f t="shared" si="41"/>
+        <v>5435.5417900793545</v>
       </c>
       <c r="CM26" s="24">
-        <f>CL26*($F$2+1)</f>
-        <v>5381.6289778462942</v>
+        <f t="shared" si="41"/>
+        <v>5381.1863721785612</v>
       </c>
       <c r="CN26" s="24">
-        <f>CM26*($F$2+1)</f>
-        <v>5327.812688067831</v>
+        <f t="shared" si="41"/>
+        <v>5327.3745084567754</v>
       </c>
       <c r="CO26" s="24">
-        <f>CN26*($F$2+1)</f>
-        <v>5274.5345611871526</v>
+        <f t="shared" si="41"/>
+        <v>5274.1007633722074</v>
       </c>
       <c r="CP26" s="24">
-        <f>CO26*($F$2+1)</f>
-        <v>5221.7892155752807</v>
+        <f t="shared" si="41"/>
+        <v>5221.3597557384855</v>
       </c>
       <c r="CQ26" s="24">
-        <f>CP26*($F$2+1)</f>
-        <v>5169.5713234195282</v>
+        <f t="shared" si="41"/>
+        <v>5169.1461581811009</v>
       </c>
       <c r="CR26" s="24">
-        <f>CQ26*($F$2+1)</f>
-        <v>5117.8756101853332</v>
+        <f t="shared" si="41"/>
+        <v>5117.4546965992895</v>
       </c>
       <c r="CS26" s="24">
-        <f>CR26*($F$2+1)</f>
-        <v>5066.6968540834796</v>
+        <f t="shared" si="41"/>
+        <v>5066.2801496332968</v>
       </c>
       <c r="CT26" s="24">
-        <f>CS26*($F$2+1)</f>
-        <v>5016.0298855426445</v>
+        <f t="shared" si="41"/>
+        <v>5015.6173481369642</v>
       </c>
       <c r="CU26" s="24">
-        <f>CT26*($F$2+1)</f>
-        <v>4965.8695866872176</v>
+        <f t="shared" si="41"/>
+        <v>4965.4611746555947</v>
       </c>
       <c r="CV26" s="24">
-        <f>CU26*($F$2+1)</f>
-        <v>4916.2108908203454</v>
+        <f t="shared" si="41"/>
+        <v>4915.8065629090388</v>
       </c>
       <c r="CW26" s="24">
-        <f>CV26*($F$2+1)</f>
-        <v>4867.0487819121417</v>
+        <f t="shared" si="41"/>
+        <v>4866.6484972799481</v>
       </c>
       <c r="CX26" s="24">
-        <f>CW26*($F$2+1)</f>
-        <v>4818.3782940930205</v>
+        <f t="shared" si="41"/>
+        <v>4817.9820123071486</v>
       </c>
       <c r="CY26" s="24">
-        <f>CX26*($F$2+1)</f>
-        <v>4770.1945111520899</v>
+        <f t="shared" si="41"/>
+        <v>4769.8021921840773</v>
       </c>
       <c r="CZ26" s="24">
-        <f>CY26*($F$2+1)</f>
-        <v>4722.4925660405688</v>
+        <f t="shared" si="41"/>
+        <v>4722.104170262236</v>
       </c>
       <c r="DA26" s="24">
-        <f>CZ26*($F$2+1)</f>
-        <v>4675.2676403801634</v>
+        <f t="shared" si="41"/>
+        <v>4674.8831285596134</v>
       </c>
       <c r="DB26" s="24">
-        <f>DA26*($F$2+1)</f>
-        <v>4628.5149639763613</v>
+        <f t="shared" si="41"/>
+        <v>4628.1342972740176</v>
       </c>
       <c r="DC26" s="24">
-        <f>DB26*($F$2+1)</f>
-        <v>4582.2298143365979</v>
+        <f t="shared" si="41"/>
+        <v>4581.8529543012774</v>
       </c>
       <c r="DD26" s="24">
-        <f>DC26*($F$2+1)</f>
-        <v>4536.4075161932315</v>
+        <f t="shared" si="41"/>
+        <v>4536.0344247582643</v>
       </c>
       <c r="DE26" s="24">
-        <f>DD26*($F$2+1)</f>
-        <v>4491.0434410312992</v>
+        <f t="shared" si="41"/>
+        <v>4490.674080510682</v>
       </c>
       <c r="DF26" s="24">
-        <f>DE26*($F$2+1)</f>
-        <v>4446.1330066209857</v>
+        <f t="shared" si="41"/>
+        <v>4445.7673397055751</v>
       </c>
       <c r="DG26" s="24">
-        <f>DF26*($F$2+1)</f>
-        <v>4401.6716765547762</v>
+        <f t="shared" si="41"/>
+        <v>4401.3096663085189</v>
       </c>
       <c r="DH26" s="24">
-        <f>DG26*($F$2+1)</f>
-        <v>4357.6549597892281</v>
+        <f t="shared" si="41"/>
+        <v>4357.2965696454339</v>
       </c>
       <c r="DI26" s="24">
-        <f>DH26*($F$2+1)</f>
-        <v>4314.0784101913359</v>
+        <f t="shared" si="41"/>
+        <v>4313.7236039489799</v>
       </c>
       <c r="DJ26" s="24">
-        <f>DI26*($F$2+1)</f>
-        <v>4270.9376260894223</v>
+        <f t="shared" si="41"/>
+        <v>4270.58636790949</v>
       </c>
       <c r="DK26" s="24">
-        <f>DJ26*($F$2+1)</f>
-        <v>4228.2282498285276</v>
+        <f t="shared" si="41"/>
+        <v>4227.8805042303948</v>
       </c>
       <c r="DL26" s="24">
-        <f>DK26*($F$2+1)</f>
-        <v>4185.9459673302426</v>
+        <f t="shared" si="41"/>
+        <v>4185.6016991880906</v>
       </c>
       <c r="DM26" s="24">
-        <f>DL26*($F$2+1)</f>
-        <v>4144.0865076569398</v>
+        <f t="shared" si="41"/>
+        <v>4143.7456821962096</v>
       </c>
       <c r="DN26" s="24">
-        <f>DM26*($F$2+1)</f>
-        <v>4102.6456425803708</v>
+        <f t="shared" ref="DN26:ES26" si="42">DM26*($F$2+1)</f>
+        <v>4102.3082253742477</v>
       </c>
       <c r="DO26" s="24">
-        <f>DN26*($F$2+1)</f>
-        <v>4061.6191861545672</v>
+        <f t="shared" si="42"/>
+        <v>4061.2851431205054</v>
       </c>
       <c r="DP26" s="24">
-        <f>DO26*($F$2+1)</f>
-        <v>4021.0029942930214</v>
+        <f t="shared" si="42"/>
+        <v>4020.6722916893004</v>
       </c>
       <c r="DQ26" s="24">
-        <f>DP26*($F$2+1)</f>
-        <v>3980.7929643500911</v>
+        <f t="shared" si="42"/>
+        <v>3980.4655687724076</v>
       </c>
       <c r="DR26" s="24">
-        <f>DQ26*($F$2+1)</f>
-        <v>3940.9850347065903</v>
+        <f t="shared" si="42"/>
+        <v>3940.6609130846832</v>
       </c>
       <c r="DS26" s="24">
-        <f>DR26*($F$2+1)</f>
-        <v>3901.5751843595244</v>
+        <f t="shared" si="42"/>
+        <v>3901.2543039538364</v>
       </c>
       <c r="DT26" s="24">
-        <f>DS26*($F$2+1)</f>
-        <v>3862.5594325159291</v>
+        <f t="shared" si="42"/>
+        <v>3862.2417609142981</v>
       </c>
       <c r="DU26" s="24">
-        <f>DT26*($F$2+1)</f>
-        <v>3823.9338381907696</v>
+        <f t="shared" si="42"/>
+        <v>3823.6193433051549</v>
       </c>
       <c r="DV26" s="24">
-        <f>DU26*($F$2+1)</f>
-        <v>3785.694499808862</v>
+        <f t="shared" si="42"/>
+        <v>3785.3831498721033</v>
       </c>
       <c r="DW26" s="24">
-        <f>DV26*($F$2+1)</f>
-        <v>3747.8375548107733</v>
+        <f t="shared" si="42"/>
+        <v>3747.5293183733825</v>
       </c>
       <c r="DX26" s="24">
-        <f>DW26*($F$2+1)</f>
-        <v>3710.3591792626657</v>
+        <f t="shared" si="42"/>
+        <v>3710.0540251896487</v>
       </c>
       <c r="DY26" s="24">
-        <f>DX26*($F$2+1)</f>
-        <v>3673.2555874700392</v>
+        <f t="shared" si="42"/>
+        <v>3672.9534849377519</v>
       </c>
       <c r="DZ26" s="24">
-        <f>DY26*($F$2+1)</f>
-        <v>3636.523031595339</v>
+        <f t="shared" si="42"/>
+        <v>3636.2239500883743</v>
       </c>
       <c r="EA26" s="24">
-        <f>DZ26*($F$2+1)</f>
-        <v>3600.1578012793857</v>
+        <f t="shared" si="42"/>
+        <v>3599.8617105874905</v>
       </c>
       <c r="EB26" s="24">
-        <f>EA26*($F$2+1)</f>
-        <v>3564.156223266592</v>
+        <f t="shared" si="42"/>
+        <v>3563.8630934816156</v>
       </c>
       <c r="EC26" s="24">
-        <f>EB26*($F$2+1)</f>
-        <v>3528.5146610339261</v>
+        <f t="shared" si="42"/>
+        <v>3528.2244625467993</v>
       </c>
       <c r="ED26" s="24">
-        <f>EC26*($F$2+1)</f>
-        <v>3493.2295144235868</v>
+        <f t="shared" si="42"/>
+        <v>3492.9422179213311</v>
       </c>
       <c r="EE26" s="24">
-        <f>ED26*($F$2+1)</f>
-        <v>3458.2972192793509</v>
+        <f t="shared" si="42"/>
+        <v>3458.0127957421178</v>
       </c>
       <c r="EF26" s="24">
-        <f>EE26*($F$2+1)</f>
-        <v>3423.7142470865574</v>
+        <f t="shared" si="42"/>
+        <v>3423.4326677846966</v>
       </c>
       <c r="EG26" s="24">
-        <f>EF26*($F$2+1)</f>
-        <v>3389.4771046156916</v>
+        <f t="shared" si="42"/>
+        <v>3389.1983411068495</v>
       </c>
       <c r="EH26" s="24">
-        <f>EG26*($F$2+1)</f>
-        <v>3355.5823335695345</v>
+        <f t="shared" si="42"/>
+        <v>3355.3063576957811</v>
       </c>
       <c r="EI26" s="24">
-        <f>EH26*($F$2+1)</f>
-        <v>3322.026510233839</v>
+        <f t="shared" si="42"/>
+        <v>3321.7532941188233</v>
       </c>
       <c r="EJ26" s="24">
-        <f>EI26*($F$2+1)</f>
-        <v>3288.8062451315004</v>
+        <f t="shared" si="42"/>
+        <v>3288.5357611776349</v>
       </c>
       <c r="EK26" s="24">
-        <f>EJ26*($F$2+1)</f>
-        <v>3255.9181826801855</v>
+        <f t="shared" si="42"/>
+        <v>3255.6504035658586</v>
       </c>
       <c r="EL26" s="24">
-        <f>EK26*($F$2+1)</f>
-        <v>3223.3590008533838</v>
+        <f t="shared" si="42"/>
+        <v>3223.0938995301999</v>
       </c>
       <c r="EM26" s="24">
-        <f>EL26*($F$2+1)</f>
-        <v>3191.1254108448497</v>
+        <f t="shared" si="42"/>
+        <v>3190.8629605348979</v>
       </c>
       <c r="EN26" s="24">
-        <f>EM26*($F$2+1)</f>
-        <v>3159.214156736401</v>
+        <f t="shared" si="42"/>
+        <v>3158.9543309295486</v>
       </c>
       <c r="EO26" s="24">
-        <f>EN26*($F$2+1)</f>
-        <v>3127.6220151690368</v>
+        <f t="shared" si="42"/>
+        <v>3127.3647876202531</v>
       </c>
       <c r="EP26" s="24">
-        <f>EO26*($F$2+1)</f>
-        <v>3096.3457950173465</v>
+        <f t="shared" si="42"/>
+        <v>3096.0911397440505</v>
       </c>
       <c r="EQ26" s="24">
-        <f>EP26*($F$2+1)</f>
-        <v>3065.382337067173</v>
+        <f t="shared" si="42"/>
+        <v>3065.1302283466098</v>
       </c>
       <c r="ER26" s="24">
-        <f>EQ26*($F$2+1)</f>
-        <v>3034.7285136965011</v>
+        <f t="shared" si="42"/>
+        <v>3034.4789260631437</v>
       </c>
       <c r="ES26" s="24">
-        <f>ER26*($F$2+1)</f>
-        <v>3004.3812285595359</v>
+        <f t="shared" si="42"/>
+        <v>3004.1341368025123</v>
       </c>
       <c r="ET26" s="24">
-        <f>ES26*($F$2+1)</f>
-        <v>2974.3374162739406</v>
+        <f t="shared" ref="ET26:FY26" si="43">ES26*($F$2+1)</f>
+        <v>2974.092795434487</v>
       </c>
       <c r="EU26" s="24">
-        <f>ET26*($F$2+1)</f>
-        <v>2944.5940421112009</v>
+        <f t="shared" si="43"/>
+        <v>2944.3518674801421</v>
       </c>
       <c r="EV26" s="24">
-        <f>EU26*($F$2+1)</f>
-        <v>2915.1481016900889</v>
+        <f t="shared" si="43"/>
+        <v>2914.9083488053407</v>
       </c>
       <c r="EW26" s="24">
-        <f>EV26*($F$2+1)</f>
-        <v>2885.9966206731879</v>
+        <f t="shared" si="43"/>
+        <v>2885.7592653172874</v>
       </c>
       <c r="EX26" s="24">
-        <f>EW26*($F$2+1)</f>
-        <v>2857.1366544664561</v>
+        <f t="shared" si="43"/>
+        <v>2856.9016726641144</v>
       </c>
       <c r="EY26" s="24">
-        <f>EX26*($F$2+1)</f>
-        <v>2828.5652879217914</v>
+        <f t="shared" si="43"/>
+        <v>2828.3326559374732</v>
       </c>
       <c r="EZ26" s="24">
-        <f>EY26*($F$2+1)</f>
-        <v>2800.2796350425733</v>
+        <f t="shared" si="43"/>
+        <v>2800.0493293780983</v>
       </c>
       <c r="FA26" s="24">
-        <f>EZ26*($F$2+1)</f>
-        <v>2772.2768386921475</v>
+        <f t="shared" si="43"/>
+        <v>2772.0488360843174</v>
       </c>
       <c r="FB26" s="24">
-        <f>FA26*($F$2+1)</f>
-        <v>2744.5540703052261</v>
+        <f t="shared" si="43"/>
+        <v>2744.3283477234741</v>
       </c>
       <c r="FC26" s="24">
-        <f>FB26*($F$2+1)</f>
-        <v>2717.1085296021738</v>
+        <f t="shared" si="43"/>
+        <v>2716.8850642462394</v>
       </c>
       <c r="FD26" s="24">
-        <f>FC26*($F$2+1)</f>
-        <v>2689.937444306152</v>
+        <f t="shared" si="43"/>
+        <v>2689.7162136037769</v>
       </c>
       <c r="FE26" s="24">
-        <f>FD26*($F$2+1)</f>
-        <v>2663.0380698630906</v>
+        <f t="shared" si="43"/>
+        <v>2662.819051467739</v>
       </c>
       <c r="FF26" s="24">
-        <f>FE26*($F$2+1)</f>
-        <v>2636.4076891644595</v>
+        <f t="shared" si="43"/>
+        <v>2636.1908609530615</v>
       </c>
       <c r="FG26" s="24">
-        <f>FF26*($F$2+1)</f>
-        <v>2610.0436122728147</v>
+        <f t="shared" si="43"/>
+        <v>2609.828952343531</v>
       </c>
       <c r="FH26" s="24">
-        <f>FG26*($F$2+1)</f>
-        <v>2583.9431761500864</v>
+        <f t="shared" si="43"/>
+        <v>2583.7306628200959</v>
       </c>
       <c r="FI26" s="24">
-        <f>FH26*($F$2+1)</f>
-        <v>2558.1037443885857</v>
+        <f t="shared" si="43"/>
+        <v>2557.8933561918948</v>
       </c>
       <c r="FJ26" s="24">
-        <f>FI26*($F$2+1)</f>
-        <v>2532.5227069446996</v>
+        <f t="shared" si="43"/>
+        <v>2532.314422629976</v>
       </c>
       <c r="FK26" s="24">
-        <f>FJ26*($F$2+1)</f>
-        <v>2507.1974798752526</v>
+        <f t="shared" si="43"/>
+        <v>2506.991278403676</v>
       </c>
       <c r="FL26" s="24">
-        <f>FK26*($F$2+1)</f>
-        <v>2482.1255050764998</v>
+        <f t="shared" si="43"/>
+        <v>2481.9213656196393</v>
       </c>
       <c r="FM26" s="24">
-        <f>FL26*($F$2+1)</f>
-        <v>2457.3042500257347</v>
+        <f t="shared" si="43"/>
+        <v>2457.1021519634428</v>
       </c>
       <c r="FN26" s="24">
-        <f>FM26*($F$2+1)</f>
-        <v>2432.7312075254772</v>
+        <f t="shared" si="43"/>
+        <v>2432.5311304438083</v>
       </c>
       <c r="FO26" s="24">
-        <f>FN26*($F$2+1)</f>
-        <v>2408.4038954502225</v>
+        <f t="shared" si="43"/>
+        <v>2408.2058191393703</v>
       </c>
       <c r="FP26" s="24">
-        <f>FO26*($F$2+1)</f>
-        <v>2384.3198564957202</v>
+        <f t="shared" si="43"/>
+        <v>2384.1237609479767</v>
       </c>
       <c r="FQ26" s="24">
-        <f>FP26*($F$2+1)</f>
-        <v>2360.4766579307629</v>
+        <f t="shared" si="43"/>
+        <v>2360.282523338497</v>
       </c>
       <c r="FR26" s="24">
-        <f>FQ26*($F$2+1)</f>
-        <v>2336.8718913514554</v>
+        <f t="shared" si="43"/>
+        <v>2336.679698105112</v>
       </c>
       <c r="FS26" s="24">
-        <f>FR26*($F$2+1)</f>
-        <v>2313.503172437941</v>
+        <f t="shared" si="43"/>
+        <v>2313.3129011240608</v>
       </c>
       <c r="FT26" s="24">
-        <f>FS26*($F$2+1)</f>
-        <v>2290.3681407135614</v>
+        <f t="shared" si="43"/>
+        <v>2290.17977211282</v>
       </c>
       <c r="FU26" s="24">
-        <f>FT26*($F$2+1)</f>
-        <v>2267.4644593064259</v>
+        <f t="shared" si="43"/>
+        <v>2267.2779743916917</v>
       </c>
       <c r="FV26" s="24">
-        <f>FU26*($F$2+1)</f>
-        <v>2244.7898147133615</v>
+        <f t="shared" si="43"/>
+        <v>2244.6051946477746</v>
       </c>
       <c r="FW26" s="24">
-        <f>FV26*($F$2+1)</f>
-        <v>2222.3419165662276</v>
+        <f t="shared" si="43"/>
+        <v>2222.1591427012968</v>
       </c>
       <c r="FX26" s="24">
-        <f>FW26*($F$2+1)</f>
-        <v>2200.1184974005655</v>
+        <f t="shared" si="43"/>
+        <v>2199.9375512742836</v>
       </c>
       <c r="FY26" s="24">
-        <f>FX26*($F$2+1)</f>
-        <v>2178.1173124265597</v>
+        <f t="shared" si="43"/>
+        <v>2177.9381757615406</v>
       </c>
       <c r="FZ26" s="24">
-        <f>FY26*($F$2+1)</f>
-        <v>2156.3361393022942</v>
+        <f t="shared" ref="FZ26:GR26" si="44">FY26*($F$2+1)</f>
+        <v>2156.1587940039253</v>
       </c>
       <c r="GA26" s="24">
-        <f>FZ26*($F$2+1)</f>
-        <v>2134.7727779092711</v>
+        <f t="shared" si="44"/>
+        <v>2134.597206063886</v>
       </c>
       <c r="GB26" s="24">
-        <f>GA26*($F$2+1)</f>
-        <v>2113.4250501301785</v>
+        <f t="shared" si="44"/>
+        <v>2113.2512340032472</v>
       </c>
       <c r="GC26" s="24">
-        <f>GB26*($F$2+1)</f>
-        <v>2092.2907996288768</v>
+        <f t="shared" si="44"/>
+        <v>2092.1187216632147</v>
       </c>
       <c r="GD26" s="24">
-        <f>GC26*($F$2+1)</f>
-        <v>2071.367891632588</v>
+        <f t="shared" si="44"/>
+        <v>2071.1975344465827</v>
       </c>
       <c r="GE26" s="24">
-        <f>GD26*($F$2+1)</f>
-        <v>2050.654212716262</v>
+        <f t="shared" si="44"/>
+        <v>2050.4855591021169</v>
       </c>
       <c r="GF26" s="24">
-        <f>GE26*($F$2+1)</f>
-        <v>2030.1476705890993</v>
+        <f t="shared" si="44"/>
+        <v>2029.9807035110957</v>
       </c>
       <c r="GG26" s="24">
-        <f>GF26*($F$2+1)</f>
-        <v>2009.8461938832083</v>
+        <f t="shared" si="44"/>
+        <v>2009.6808964759848</v>
       </c>
       <c r="GH26" s="24">
-        <f>GG26*($F$2+1)</f>
-        <v>1989.7477319443763</v>
+        <f t="shared" si="44"/>
+        <v>1989.5840875112249</v>
       </c>
       <c r="GI26" s="24">
-        <f>GH26*($F$2+1)</f>
-        <v>1969.8502546249324</v>
+        <f t="shared" si="44"/>
+        <v>1969.6882466361126</v>
       </c>
       <c r="GJ26" s="24">
-        <f>GI26*($F$2+1)</f>
-        <v>1950.1517520786831</v>
+        <f t="shared" si="44"/>
+        <v>1949.9913641697515</v>
       </c>
       <c r="GK26" s="24">
-        <f>GJ26*($F$2+1)</f>
-        <v>1930.6502345578963</v>
+        <f t="shared" si="44"/>
+        <v>1930.491450528054</v>
       </c>
       <c r="GL26" s="24">
-        <f>GK26*($F$2+1)</f>
-        <v>1911.3437322123173</v>
+        <f t="shared" si="44"/>
+        <v>1911.1865360227735</v>
       </c>
       <c r="GM26" s="24">
-        <f>GL26*($F$2+1)</f>
-        <v>1892.230294890194</v>
+        <f t="shared" si="44"/>
+        <v>1892.0746706625457</v>
       </c>
       <c r="GN26" s="24">
-        <f>GM26*($F$2+1)</f>
-        <v>1873.3079919412921</v>
+        <f t="shared" si="44"/>
+        <v>1873.1539239559202</v>
       </c>
       <c r="GO26" s="24">
-        <f>GN26*($F$2+1)</f>
-        <v>1854.5749120218793</v>
+        <f t="shared" si="44"/>
+        <v>1854.422384716361</v>
       </c>
       <c r="GP26" s="24">
-        <f>GO26*($F$2+1)</f>
-        <v>1836.0291629016606</v>
+        <f t="shared" si="44"/>
+        <v>1835.8781608691972</v>
       </c>
       <c r="GQ26" s="24">
-        <f>GP26*($F$2+1)</f>
-        <v>1817.6688712726439</v>
+        <f t="shared" si="44"/>
+        <v>1817.5193792605053</v>
       </c>
       <c r="GR26" s="24">
-        <f>GQ26*($F$2+1)</f>
-        <v>1799.4921825599174</v>
+        <f t="shared" si="44"/>
+        <v>1799.3441854679002</v>
       </c>
     </row>
     <row r="27" spans="1:200" x14ac:dyDescent="0.15">
@@ -4593,84 +4533,84 @@
         <v>16</v>
       </c>
       <c r="B27" s="28">
-        <f t="shared" ref="B27:C27" si="38">B26/B28</f>
+        <f t="shared" ref="B27:C27" si="45">B26/B28</f>
         <v>-0.54319835189596344</v>
       </c>
       <c r="C27" s="28">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>-0.58256413520911576</v>
       </c>
       <c r="D27" s="28">
-        <f t="shared" ref="D27:G27" si="39">D26/D28</f>
+        <f t="shared" ref="D27:G27" si="46">D26/D28</f>
         <v>-0.27559743692305277</v>
       </c>
       <c r="E27" s="28">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>-5.8577748648205301E-2</v>
       </c>
       <c r="F27" s="28">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>-2.5896966487050785</v>
       </c>
       <c r="G27" s="49">
-        <f t="shared" si="39"/>
-        <v>-2.0281781478837546</v>
+        <f t="shared" si="46"/>
+        <v>-2.0308522831943985</v>
       </c>
       <c r="H27" s="49">
-        <f t="shared" ref="H27" si="40">H26/H28</f>
-        <v>-2.4928273108333698</v>
+        <f t="shared" ref="H27" si="47">H26/H28</f>
+        <v>-2.4955495805796049</v>
       </c>
       <c r="I27" s="49">
-        <f t="shared" ref="I27:P27" si="41">I26/I28</f>
-        <v>-3.1756254362751744</v>
+        <f t="shared" ref="I27:P27" si="48">I26/I28</f>
+        <v>-3.1783967068768413</v>
       </c>
       <c r="J27" s="49">
-        <f t="shared" si="41"/>
-        <v>-4.203845294338012</v>
+        <f t="shared" si="48"/>
+        <v>-4.2066664478105089</v>
       </c>
       <c r="K27" s="49">
-        <f t="shared" si="41"/>
-        <v>-5.7730001227529213</v>
+        <f t="shared" si="48"/>
+        <v>-5.7758720569879234</v>
       </c>
       <c r="L27" s="49">
-        <f t="shared" si="41"/>
-        <v>6.996311852549412E-3</v>
+        <f t="shared" si="48"/>
+        <v>4.0726828013171144E-3</v>
       </c>
       <c r="M27" s="49">
-        <f t="shared" si="41"/>
-        <v>5.9974877287625921</v>
+        <f t="shared" si="48"/>
+        <v>5.994511474388438</v>
       </c>
       <c r="N27" s="49">
-        <f t="shared" si="41"/>
-        <v>12.254723989851817</v>
+        <f t="shared" si="48"/>
+        <v>12.251694162898929</v>
       </c>
       <c r="O27" s="49">
-        <f t="shared" si="41"/>
-        <v>18.837316405922316</v>
+        <f t="shared" si="48"/>
+        <v>18.834232042084277</v>
       </c>
       <c r="P27" s="49">
-        <f t="shared" si="41"/>
-        <v>25.806791322392023</v>
+        <f t="shared" si="48"/>
+        <v>25.803651440004895</v>
       </c>
       <c r="Q27" s="49">
-        <f t="shared" ref="Q27:U27" si="42">Q26/Q28</f>
-        <v>28.678217041038039</v>
+        <f t="shared" ref="Q27:U27" si="49">Q26/Q28</f>
+        <v>28.675020640767947</v>
       </c>
       <c r="R27" s="49">
-        <f t="shared" si="42"/>
-        <v>31.698990029185826</v>
+        <f t="shared" si="49"/>
+        <v>31.69573609371087</v>
       </c>
       <c r="S27" s="49">
-        <f t="shared" si="42"/>
-        <v>34.877135289358222</v>
+        <f t="shared" si="49"/>
+        <v>34.873822783044723</v>
       </c>
       <c r="T27" s="49">
-        <f t="shared" si="42"/>
-        <v>38.221080038280249</v>
+        <f t="shared" si="49"/>
+        <v>38.2177079068531</v>
       </c>
       <c r="U27" s="49">
-        <f t="shared" si="42"/>
-        <v>41.739674016411001</v>
+        <f t="shared" si="49"/>
+        <v>41.736241186618159</v>
       </c>
       <c r="V27" s="38"/>
       <c r="W27" s="38"/>
@@ -4789,63 +4729,63 @@
         <v>260.55599999999998</v>
       </c>
       <c r="G28" s="23">
-        <f t="shared" ref="G28" si="43">F28</f>
+        <f t="shared" ref="G28" si="50">F28</f>
         <v>260.55599999999998</v>
       </c>
       <c r="H28" s="23">
-        <f t="shared" ref="H28" si="44">G28</f>
+        <f t="shared" ref="H28" si="51">G28</f>
         <v>260.55599999999998</v>
       </c>
       <c r="I28" s="23">
-        <f t="shared" ref="I28" si="45">H28</f>
+        <f t="shared" ref="I28" si="52">H28</f>
         <v>260.55599999999998</v>
       </c>
       <c r="J28" s="23">
-        <f t="shared" ref="J28" si="46">I28</f>
+        <f t="shared" ref="J28" si="53">I28</f>
         <v>260.55599999999998</v>
       </c>
       <c r="K28" s="23">
-        <f t="shared" ref="K28" si="47">J28</f>
+        <f t="shared" ref="K28" si="54">J28</f>
         <v>260.55599999999998</v>
       </c>
       <c r="L28" s="23">
-        <f t="shared" ref="L28" si="48">K28</f>
+        <f t="shared" ref="L28" si="55">K28</f>
         <v>260.55599999999998</v>
       </c>
       <c r="M28" s="23">
-        <f t="shared" ref="M28" si="49">L28</f>
+        <f t="shared" ref="M28" si="56">L28</f>
         <v>260.55599999999998</v>
       </c>
       <c r="N28" s="23">
-        <f t="shared" ref="N28" si="50">M28</f>
+        <f t="shared" ref="N28" si="57">M28</f>
         <v>260.55599999999998</v>
       </c>
       <c r="O28" s="23">
-        <f t="shared" ref="O28" si="51">N28</f>
+        <f t="shared" ref="O28" si="58">N28</f>
         <v>260.55599999999998</v>
       </c>
       <c r="P28" s="23">
-        <f t="shared" ref="P28:U28" si="52">O28</f>
+        <f t="shared" ref="P28:U28" si="59">O28</f>
         <v>260.55599999999998</v>
       </c>
       <c r="Q28" s="23">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>260.55599999999998</v>
       </c>
       <c r="R28" s="23">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>260.55599999999998</v>
       </c>
       <c r="S28" s="23">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>260.55599999999998</v>
       </c>
       <c r="T28" s="23">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>260.55599999999998</v>
       </c>
       <c r="U28" s="23">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>260.55599999999998</v>
       </c>
       <c r="V28" s="37"/>
@@ -5068,15 +5008,15 @@
         <v>19</v>
       </c>
       <c r="B30" s="33">
-        <f t="shared" ref="B30:C30" si="53">IFERROR(B17/B15,0)</f>
+        <f t="shared" ref="B30:C30" si="60">IFERROR(B17/B15,0)</f>
         <v>0.5571273122959739</v>
       </c>
       <c r="C30" s="33">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>0.58745475894794319</v>
       </c>
       <c r="D30" s="33">
-        <f t="shared" ref="D30:P30" si="54">IFERROR(D17/D15,0)</f>
+        <f t="shared" ref="D30:P30" si="61">IFERROR(D17/D15,0)</f>
         <v>0.59246147414179762</v>
       </c>
       <c r="E30" s="33">
@@ -5084,11 +5024,11 @@
         <v>0.59665770806835183</v>
       </c>
       <c r="F30" s="33">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>0.58149844367782744</v>
       </c>
       <c r="G30" s="33">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>0.58149844367782744</v>
       </c>
       <c r="H30" s="33">
@@ -5096,55 +5036,55 @@
         <v>0.58149844367782744</v>
       </c>
       <c r="I30" s="33">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>0.58149844367782744</v>
       </c>
       <c r="J30" s="33">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>0.58149844367782744</v>
       </c>
       <c r="K30" s="33">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>0.58149844367782744</v>
       </c>
       <c r="L30" s="33">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>0.58149844367782744</v>
       </c>
       <c r="M30" s="33">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>0.58149844367782744</v>
       </c>
       <c r="N30" s="33">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>0.58149844367782744</v>
       </c>
       <c r="O30" s="33">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>0.58149844367782744</v>
       </c>
       <c r="P30" s="33">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>0.58149844367782744</v>
       </c>
       <c r="Q30" s="33">
-        <f t="shared" ref="Q30:U30" si="55">IFERROR(Q17/Q15,0)</f>
+        <f t="shared" ref="Q30:U30" si="62">IFERROR(Q17/Q15,0)</f>
         <v>0.58149844367782744</v>
       </c>
       <c r="R30" s="33">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.58149844367782744</v>
       </c>
       <c r="S30" s="33">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.58149844367782744</v>
       </c>
       <c r="T30" s="33">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.58149844367782744</v>
       </c>
       <c r="U30" s="33">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.58149844367782744</v>
       </c>
       <c r="V30" s="38"/>
@@ -5249,15 +5189,15 @@
         <v>20</v>
       </c>
       <c r="B31" s="35">
-        <f t="shared" ref="B31:C31" si="56">IFERROR(B22/B15,0)</f>
+        <f t="shared" ref="B31:C31" si="63">IFERROR(B22/B15,0)</f>
         <v>-0.13384113166485309</v>
       </c>
       <c r="C31" s="35">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>-7.9986663251943715E-2</v>
       </c>
       <c r="D31" s="35">
-        <f t="shared" ref="D31:P31" si="57">IFERROR(D22/D15,0)</f>
+        <f t="shared" ref="D31:P31" si="64">IFERROR(D22/D15,0)</f>
         <v>-3.2118642115983746E-2</v>
       </c>
       <c r="E31" s="35">
@@ -5265,7 +5205,7 @@
         <v>5.4723663980000264E-3</v>
       </c>
       <c r="F31" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>-0.10441957205458469</v>
       </c>
       <c r="G31" s="35">
@@ -5273,59 +5213,59 @@
         <v>-9.5964747855331961E-2</v>
       </c>
       <c r="H31" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>-9.1134059822039593E-2</v>
       </c>
       <c r="I31" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>-9.0020871863180751E-2</v>
       </c>
       <c r="J31" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>-9.2743109656222636E-2</v>
       </c>
       <c r="K31" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>-9.9444762285099172E-2</v>
       </c>
       <c r="L31" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>5.241496222940443E-3</v>
       </c>
       <c r="M31" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>9.3288909406374632E-2</v>
       </c>
       <c r="N31" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>0.16741930686981099</v>
       </c>
       <c r="O31" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>0.22989848630421303</v>
       </c>
       <c r="P31" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>0.28261410701640649</v>
       </c>
       <c r="Q31" s="35">
-        <f t="shared" ref="Q31:U31" si="58">IFERROR(Q22/Q15,0)</f>
+        <f t="shared" ref="Q31:U31" si="65">IFERROR(Q22/Q15,0)</f>
         <v>0.29460692613042522</v>
       </c>
       <c r="R31" s="35">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>0.30580022397017603</v>
       </c>
       <c r="S31" s="35">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>0.31624730195394346</v>
       </c>
       <c r="T31" s="35">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>0.32599790807212647</v>
       </c>
       <c r="U31" s="35">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>0.33509847378243052</v>
       </c>
       <c r="V31" s="38"/>
@@ -5430,15 +5370,15 @@
         <v>21</v>
       </c>
       <c r="B32" s="35">
-        <f t="shared" ref="B32:C32" si="59">IFERROR(B25/B24,0)</f>
+        <f t="shared" ref="B32:C32" si="66">IFERROR(B25/B24,0)</f>
         <v>-3.8461538461538464E-2</v>
       </c>
       <c r="C32" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>-8.1226370510396995E-2</v>
       </c>
       <c r="D32" s="35">
-        <f t="shared" ref="D32:P32" si="60">IFERROR(D25/D24,0)</f>
+        <f t="shared" ref="D32:P32" si="67">IFERROR(D25/D24,0)</f>
         <v>-0.18556318426424198</v>
       </c>
       <c r="E32" s="35">
@@ -5446,67 +5386,67 @@
         <v>1.3065224048177979</v>
       </c>
       <c r="F32" s="35">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>-0.63872003419459278</v>
       </c>
       <c r="G32" s="35">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0.1</v>
       </c>
       <c r="H32" s="35">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0.1</v>
       </c>
       <c r="I32" s="35">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0.1</v>
       </c>
       <c r="J32" s="35">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0.1</v>
       </c>
       <c r="K32" s="35">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0.1</v>
       </c>
       <c r="L32" s="35">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0.1</v>
       </c>
       <c r="M32" s="35">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0.1</v>
       </c>
       <c r="N32" s="35">
-        <f t="shared" si="60"/>
-        <v>0.10000000000000002</v>
+        <f t="shared" si="67"/>
+        <v>0.1</v>
       </c>
       <c r="O32" s="35">
-        <f t="shared" si="60"/>
-        <v>9.9999999999999992E-2</v>
+        <f t="shared" si="67"/>
+        <v>0.1</v>
       </c>
       <c r="P32" s="35">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>0.1</v>
       </c>
       <c r="Q32" s="35">
-        <f t="shared" ref="Q32:U32" si="61">IFERROR(Q25/Q24,0)</f>
+        <f t="shared" ref="Q32:U32" si="68">IFERROR(Q25/Q24,0)</f>
         <v>0.1</v>
       </c>
       <c r="R32" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>0.1</v>
       </c>
       <c r="S32" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>0.1</v>
       </c>
       <c r="T32" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>0.1</v>
       </c>
       <c r="U32" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>0.1</v>
       </c>
       <c r="V32" s="38"/>
@@ -5732,7 +5672,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="50"/>
       <c r="E34" s="50">
-        <f t="shared" ref="E34:U34" si="62">E15/D15-1</f>
+        <f t="shared" ref="E34:U34" si="69">E15/D15-1</f>
         <v>0.42559825991979605</v>
       </c>
       <c r="F34" s="50">
@@ -5740,63 +5680,63 @@
         <v>0.31578826309527552</v>
       </c>
       <c r="G34" s="50">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>0.27500000000000013</v>
       </c>
       <c r="H34" s="50">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>0.27500000000000013</v>
       </c>
       <c r="I34" s="50">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>0.27500000000000013</v>
       </c>
       <c r="J34" s="50">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>0.27500000000000013</v>
       </c>
       <c r="K34" s="50">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>0.27499999999999991</v>
       </c>
       <c r="L34" s="50">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="M34" s="50">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="N34" s="50">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="O34" s="50">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="P34" s="50">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="Q34" s="50">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="R34" s="50">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="S34" s="50">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="T34" s="50">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="U34" s="50">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="V34" s="38"/>
@@ -5904,51 +5844,51 @@
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
       <c r="E35" s="35">
-        <f t="shared" ref="E35:U35" si="63">E18/D18-1</f>
+        <f t="shared" ref="E35:U35" si="70">E18/D18-1</f>
         <v>0.44389027431421457</v>
       </c>
       <c r="F35" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>0.68739205526770286</v>
       </c>
       <c r="G35" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="H35" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="I35" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="J35" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="K35" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="L35" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="M35" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="N35" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="O35" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="P35" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="Q35" s="35">
@@ -5956,19 +5896,19 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="R35" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="S35" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="T35" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="U35" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="V35" s="38"/>
@@ -6076,71 +6016,71 @@
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
       <c r="E36" s="35">
-        <f t="shared" ref="E36:U36" si="64">E19/D19-1</f>
+        <f t="shared" ref="E36:U36" si="71">E19/D19-1</f>
         <v>0.26261467889908263</v>
       </c>
       <c r="F36" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>0.4732061762034514</v>
       </c>
       <c r="G36" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="H36" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="I36" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="J36" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="K36" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="L36" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="M36" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="N36" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="O36" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="P36" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>-4.9999999999999933E-2</v>
       </c>
       <c r="Q36" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="R36" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="S36" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="T36" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="U36" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V36" s="38"/>
@@ -6248,71 +6188,71 @@
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
       <c r="E37" s="35">
-        <f t="shared" ref="E37:U37" si="65">E20/D20-1</f>
+        <f t="shared" ref="E37:U37" si="72">E20/D20-1</f>
         <v>0.46483180428134552</v>
       </c>
       <c r="F37" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>0.45511482254697277</v>
       </c>
       <c r="G37" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="H37" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="I37" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="J37" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="K37" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="L37" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="M37" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="N37" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="O37" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P37" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="Q37" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="R37" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>-2.0000000000000129E-2</v>
       </c>
       <c r="S37" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="T37" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="U37" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V37" s="38"/>
@@ -6414,7 +6354,7 @@
     </row>
     <row r="38" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B38" s="44"/>
       <c r="C38" s="44"/>
@@ -6424,27 +6364,27 @@
         <v>0.34937499999999999</v>
       </c>
       <c r="F38" s="44">
-        <f t="shared" ref="F38:U38" si="66">F21/E21-1</f>
+        <f t="shared" ref="F38:U38" si="73">F21/E21-1</f>
         <v>0.52663270032422416</v>
       </c>
       <c r="G38" s="44">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>0.259283980582524</v>
       </c>
       <c r="H38" s="44">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>0.26590854334313119</v>
       </c>
       <c r="I38" s="44">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>0.27288991070137114</v>
       </c>
       <c r="J38" s="44">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>0.2801686572609341</v>
       </c>
       <c r="K38" s="44">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>0.28767291679008133</v>
       </c>
       <c r="L38" s="44">
@@ -6452,39 +6392,39 @@
         <v>-6.911084999519479E-2</v>
       </c>
       <c r="M38" s="44">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>-6.807112682899108E-2</v>
       </c>
       <c r="N38" s="44">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>-6.7025491076215693E-2</v>
       </c>
       <c r="O38" s="44">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>-6.5975755039565986E-2</v>
       </c>
       <c r="P38" s="44">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>-6.4923748047542862E-2</v>
       </c>
       <c r="Q38" s="44">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>7.868451018948619E-3</v>
       </c>
       <c r="R38" s="44">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>9.0334254835664485E-3</v>
       </c>
       <c r="S38" s="44">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>1.0212177305360504E-2</v>
       </c>
       <c r="T38" s="44">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>1.140210233383443E-2</v>
       </c>
       <c r="U38" s="44">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>1.2600493289901094E-2</v>
       </c>
       <c r="V38" s="38"/>
@@ -6711,71 +6651,71 @@
       <c r="D40" s="44"/>
       <c r="E40" s="24">
         <f>E41-E42</f>
-        <v>-895.83800000000019</v>
+        <v>0</v>
       </c>
       <c r="F40" s="24">
         <f>F41-F42</f>
-        <v>38.709000000000742</v>
+        <v>0</v>
       </c>
       <c r="G40" s="51">
         <f>F40+G26</f>
-        <v>-489.74498549999885</v>
+        <v>-529.15074749999962</v>
       </c>
       <c r="H40" s="51">
         <f>G40+H26</f>
-        <v>-1139.2660983014985</v>
+        <v>-1179.381164017499</v>
       </c>
       <c r="I40" s="51">
-        <f t="shared" ref="I40:U40" si="67">H40+I26</f>
-        <v>-1966.6943594756126</v>
+        <f t="shared" ref="I40:U40" si="74">H40+I26</f>
+        <v>-2007.5314963745013</v>
       </c>
       <c r="J40" s="51">
-        <f t="shared" si="67"/>
-        <v>-3062.0314739871474</v>
+        <f t="shared" si="74"/>
+        <v>-3103.6036793502162</v>
       </c>
       <c r="K40" s="51">
-        <f t="shared" si="67"/>
-        <v>-4566.2212939711571</v>
+        <f t="shared" si="74"/>
+        <v>-4608.5417990307615</v>
       </c>
       <c r="L40" s="51">
-        <f t="shared" si="67"/>
-        <v>-4564.3983629401046</v>
+        <f t="shared" si="74"/>
+        <v>-4607.4806370907818</v>
       </c>
       <c r="M40" s="51">
-        <f t="shared" si="67"/>
-        <v>-3001.7169502846386</v>
+        <f t="shared" si="74"/>
+        <v>-3045.5747053700279</v>
       </c>
       <c r="N40" s="51">
-        <f t="shared" si="67"/>
-        <v>191.32491361519124</v>
+        <f t="shared" si="74"/>
+        <v>146.67771893826512</v>
       </c>
       <c r="O40" s="51">
-        <f t="shared" si="67"/>
-        <v>5099.5007270766855</v>
+        <f t="shared" si="74"/>
+        <v>5054.0498828955751</v>
       </c>
       <c r="P40" s="51">
-        <f t="shared" si="67"/>
-        <v>11823.61504687386</v>
+        <f t="shared" si="74"/>
+        <v>11777.34608749749</v>
       </c>
       <c r="Q40" s="51">
-        <f t="shared" si="67"/>
-        <v>19295.896566218566</v>
+        <f t="shared" si="74"/>
+        <v>19248.794765573424</v>
       </c>
       <c r="R40" s="51">
-        <f t="shared" si="67"/>
-        <v>27555.258612263107</v>
+        <f t="shared" si="74"/>
+        <v>27507.308979206355</v>
       </c>
       <c r="S40" s="51">
-        <f t="shared" si="67"/>
-        <v>36642.705474717128</v>
+        <f t="shared" si="74"/>
+        <v>36593.892748265353</v>
       </c>
       <c r="T40" s="51">
-        <f t="shared" si="67"/>
-        <v>46601.437205171278</v>
+        <f t="shared" si="74"/>
+        <v>46551.745849643368</v>
       </c>
       <c r="U40" s="51">
-        <f t="shared" si="67"/>
-        <v>57476.959708191265</v>
+        <f t="shared" si="74"/>
+        <v>57426.373908263849</v>
       </c>
       <c r="V40" s="38"/>
       <c r="W40" s="38"/>
@@ -6883,11 +6823,11 @@
       <c r="D41" s="44"/>
       <c r="E41" s="52">
         <f>Reports!Q34</f>
-        <v>3228.962</v>
+        <v>0</v>
       </c>
       <c r="F41" s="52">
         <f>Reports!U34</f>
-        <v>4176.9760000000006</v>
+        <v>0</v>
       </c>
       <c r="G41" s="52"/>
       <c r="H41" s="52"/>
@@ -7010,11 +6950,11 @@
       <c r="D42" s="44"/>
       <c r="E42" s="52">
         <f>Reports!Q35</f>
-        <v>4124.8</v>
+        <v>0</v>
       </c>
       <c r="F42" s="52">
         <f>Reports!U35</f>
-        <v>4138.2669999999998</v>
+        <v>0</v>
       </c>
       <c r="G42" s="52"/>
       <c r="H42" s="52"/>
@@ -7255,11 +7195,11 @@
       <c r="D44" s="44"/>
       <c r="E44" s="52">
         <f>Reports!Q37</f>
-        <v>12650.049000000001</v>
+        <v>0</v>
       </c>
       <c r="F44" s="52">
         <f>Reports!U37</f>
-        <v>12411.764000000001</v>
+        <v>0</v>
       </c>
       <c r="G44" s="55"/>
       <c r="H44" s="55"/>
@@ -7382,11 +7322,11 @@
       <c r="D45" s="44"/>
       <c r="E45" s="52">
         <f>Reports!Q38</f>
-        <v>18768.682000000001</v>
+        <v>0</v>
       </c>
       <c r="F45" s="52">
         <f>Reports!U38</f>
-        <v>20762.400000000001</v>
+        <v>0</v>
       </c>
       <c r="G45" s="55"/>
       <c r="H45" s="55"/>
@@ -7509,11 +7449,11 @@
       <c r="D46" s="44"/>
       <c r="E46" s="52">
         <f>Reports!Q39</f>
-        <v>9406.5679999999993</v>
+        <v>0</v>
       </c>
       <c r="F46" s="52">
         <f>Reports!U39</f>
-        <v>10232.245000000001</v>
+        <v>0</v>
       </c>
       <c r="G46" s="55"/>
       <c r="H46" s="55"/>
@@ -7754,11 +7694,11 @@
       <c r="D48" s="44"/>
       <c r="E48" s="56">
         <f>E45-E44-E41</f>
-        <v>2889.6709999999998</v>
+        <v>0</v>
       </c>
       <c r="F48" s="56">
         <f>F45-F44-F41</f>
-        <v>4173.66</v>
+        <v>0</v>
       </c>
       <c r="G48" s="37"/>
       <c r="H48" s="37"/>
@@ -7881,11 +7821,11 @@
       <c r="D49" s="44"/>
       <c r="E49" s="56">
         <f>E45-E46</f>
-        <v>9362.1140000000014</v>
+        <v>0</v>
       </c>
       <c r="F49" s="56">
         <f>F45-F46</f>
-        <v>10530.155000000001</v>
+        <v>0</v>
       </c>
       <c r="G49" s="37"/>
       <c r="H49" s="37"/>
@@ -8124,13 +8064,13 @@
       <c r="B51" s="57"/>
       <c r="C51" s="57"/>
       <c r="D51" s="57"/>
-      <c r="E51" s="57">
+      <c r="E51" s="57" t="e">
         <f>E26/E49</f>
-        <v>-1.603804439894651E-3</v>
-      </c>
-      <c r="F51" s="57">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F51" s="57" t="e">
         <f>F26/F49</f>
-        <v>-6.4078923814511787E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G51" s="38"/>
       <c r="H51" s="38"/>
@@ -8251,13 +8191,13 @@
       <c r="B52" s="57"/>
       <c r="C52" s="57"/>
       <c r="D52" s="57"/>
-      <c r="E52" s="57">
+      <c r="E52" s="57" t="e">
         <f>E26/E45</f>
-        <v>-8.0000289844539281E-4</v>
-      </c>
-      <c r="F52" s="57">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F52" s="57" t="e">
         <f>F26/F45</f>
-        <v>-3.2499181212191287E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G52" s="38"/>
       <c r="H52" s="38"/>
@@ -8378,13 +8318,13 @@
       <c r="B53" s="57"/>
       <c r="C53" s="57"/>
       <c r="D53" s="57"/>
-      <c r="E53" s="57">
+      <c r="E53" s="57" t="e">
         <f>E26/(E49-E44)</f>
-        <v>4.5666961177760132E-3</v>
-      </c>
-      <c r="F53" s="57">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F53" s="57" t="e">
         <f>F26/(F49-F44)</f>
-        <v>0.35860851005708427</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G53" s="38"/>
       <c r="H53" s="38"/>
@@ -8505,13 +8445,13 @@
       <c r="B54" s="57"/>
       <c r="C54" s="57"/>
       <c r="D54" s="57"/>
-      <c r="E54" s="57">
+      <c r="E54" s="57" t="e">
         <f>E26/E48</f>
-        <v>-5.1960932576753114E-3</v>
-      </c>
-      <c r="F54" s="57">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F54" s="57" t="e">
         <f>F26/F48</f>
-        <v>-0.16167129090534457</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G54" s="38"/>
       <c r="H54" s="38"/>
@@ -8745,7 +8685,7 @@
     </row>
     <row r="56" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B56" s="57"/>
       <c r="C56" s="57">
@@ -8878,89 +8818,89 @@
     </row>
     <row r="58" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C58" s="19">
-        <f>C12/B12-1</f>
+        <f t="shared" ref="C58:F59" si="75">C12/B12-1</f>
         <v>0.73618784530386727</v>
       </c>
       <c r="D58" s="19">
-        <f>D12/C12-1</f>
+        <f t="shared" si="75"/>
         <v>0.47812251392203664</v>
       </c>
       <c r="E58" s="19">
-        <f>E12/D12-1</f>
+        <f t="shared" si="75"/>
         <v>0.34714747039827776</v>
       </c>
       <c r="F58" s="19">
-        <f>F12/E12-1</f>
+        <f t="shared" si="75"/>
         <v>0.30603276068717533</v>
       </c>
       <c r="G58" s="19">
-        <f t="shared" ref="G58:K58" si="68">G12/F12-1</f>
+        <f t="shared" ref="G58:K58" si="76">G12/F12-1</f>
         <v>0.25</v>
       </c>
       <c r="H58" s="19">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>0.25</v>
       </c>
       <c r="I58" s="19">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>0.25</v>
       </c>
       <c r="J58" s="19">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>0.25</v>
       </c>
       <c r="K58" s="19">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="59" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C59" s="19">
-        <f>C13/B13-1</f>
+        <f t="shared" si="75"/>
         <v>3.7616571573508173E-2</v>
       </c>
       <c r="D59" s="19">
-        <f>D13/C13-1</f>
+        <f t="shared" si="75"/>
         <v>4.6820633947747492E-2</v>
       </c>
       <c r="E59" s="19">
-        <f>E13/D13-1</f>
+        <f t="shared" si="75"/>
         <v>5.8234745078298511E-2</v>
       </c>
       <c r="F59" s="19">
-        <f>F13/E13-1</f>
+        <f t="shared" si="75"/>
         <v>7.4695694486004438E-3</v>
       </c>
       <c r="G59" s="19">
-        <f t="shared" ref="G59:K59" si="69">G13/F13-1</f>
+        <f t="shared" ref="G59:K59" si="77">G13/F13-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="H59" s="19">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="I59" s="19">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="J59" s="19">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="K59" s="19">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
     <row r="61" spans="1:117" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="16" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B61" s="16">
         <v>8057.7</v>
@@ -8980,7 +8920,7 @@
     </row>
     <row r="62" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C62" s="19">
         <f>C61/B61-1</f>
@@ -9017,10 +8957,10 @@
   <dimension ref="A1:Y52"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A50" sqref="A50"/>
+      <selection pane="bottomRight" activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9106,91 +9046,38 @@
         <v>55</v>
       </c>
       <c r="V1" s="22" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="W1" s="23" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="X1" s="23" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="Y1" s="23" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="T2" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>91</v>
-      </c>
+      <c r="F2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="R2" s="21"/>
       <c r="V2" s="61">
-        <v>43889</v>
+        <v>43921</v>
       </c>
       <c r="W2" s="60">
-        <v>43980</v>
+        <v>44012</v>
       </c>
       <c r="X2" s="60">
-        <v>44071</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -9211,9 +9098,15 @@
       <c r="S3" s="23"/>
       <c r="T3" s="23"/>
       <c r="U3" s="23"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
+      <c r="V3" s="22">
+        <v>841.83</v>
+      </c>
+      <c r="W3" s="23">
+        <v>334.774</v>
+      </c>
+      <c r="X3" s="23">
+        <v>1342.3309999999999</v>
+      </c>
       <c r="Y3" s="23"/>
     </row>
     <row r="4" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -9274,12 +9167,6 @@
       <c r="N6" s="40"/>
       <c r="R6" s="40"/>
       <c r="V6" s="40"/>
-      <c r="W6" s="39">
-        <v>3175</v>
-      </c>
-      <c r="Y6" s="39">
-        <v>3350</v>
-      </c>
     </row>
     <row r="7" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
@@ -9367,19 +9254,17 @@
       </c>
       <c r="V7" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>841.83</v>
       </c>
       <c r="W7" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>334.774</v>
       </c>
       <c r="X7" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="51">
-        <v>3350</v>
-      </c>
+        <v>1342.3309999999999</v>
+      </c>
+      <c r="Y7" s="51"/>
     </row>
     <row r="8" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
@@ -9446,13 +9331,16 @@
         <v>451.983</v>
       </c>
       <c r="V8" s="22">
-        <v>452</v>
+        <f>278+222</f>
+        <v>500</v>
       </c>
       <c r="W8" s="52">
-        <v>415</v>
+        <f>161+160</f>
+        <v>321</v>
       </c>
       <c r="X8" s="52">
-        <v>427</v>
+        <f>227+166</f>
+        <v>393</v>
       </c>
       <c r="Y8" s="52"/>
     </row>
@@ -9542,15 +9430,15 @@
       </c>
       <c r="V9" s="27">
         <f t="shared" ref="V9" si="5">V7-V8</f>
-        <v>-452</v>
+        <v>341.83000000000004</v>
       </c>
       <c r="W9" s="26">
         <f t="shared" si="4"/>
-        <v>-415</v>
+        <v>13.774000000000001</v>
       </c>
       <c r="X9" s="26">
         <f t="shared" si="4"/>
-        <v>-427</v>
+        <v>949.3309999999999</v>
       </c>
       <c r="Y9" s="52"/>
     </row>
@@ -9619,13 +9507,13 @@
         <v>499.80599999999998</v>
       </c>
       <c r="V10" s="22">
-        <v>532</v>
+        <v>259</v>
       </c>
       <c r="W10" s="52">
-        <v>532</v>
+        <v>218</v>
       </c>
       <c r="X10" s="52">
-        <v>566</v>
+        <v>214</v>
       </c>
       <c r="Y10" s="52"/>
     </row>
@@ -9694,13 +9582,13 @@
         <v>801.58799999999997</v>
       </c>
       <c r="V11" s="22">
-        <v>857</v>
+        <v>317</v>
       </c>
       <c r="W11" s="52">
-        <v>901</v>
+        <v>115</v>
       </c>
       <c r="X11" s="52">
-        <v>892</v>
+        <v>113</v>
       </c>
       <c r="Y11" s="52"/>
     </row>
@@ -9789,16 +9677,15 @@
         <v>268.63599999999997</v>
       </c>
       <c r="V12" s="22">
-        <f>271+42</f>
-        <v>313</v>
+        <v>92</v>
       </c>
       <c r="W12" s="52">
-        <f>224+40</f>
+        <f>150+114</f>
         <v>264</v>
       </c>
       <c r="X12" s="52">
-        <f>230+41</f>
-        <v>271</v>
+        <f>180+23</f>
+        <v>203</v>
       </c>
       <c r="Y12" s="52"/>
     </row>
@@ -9888,15 +9775,15 @@
       </c>
       <c r="V13" s="27">
         <f t="shared" ref="V13:X13" si="11">SUM(V10:V12)</f>
-        <v>1702</v>
+        <v>668</v>
       </c>
       <c r="W13" s="26">
         <f t="shared" si="11"/>
-        <v>1697</v>
+        <v>597</v>
       </c>
       <c r="X13" s="26">
         <f t="shared" si="11"/>
-        <v>1729</v>
+        <v>530</v>
       </c>
       <c r="Y13" s="52"/>
     </row>
@@ -9986,15 +9873,15 @@
       </c>
       <c r="V14" s="27">
         <f t="shared" ref="V14:X14" si="16">V9-V13</f>
-        <v>-2154</v>
+        <v>-326.16999999999996</v>
       </c>
       <c r="W14" s="26">
         <f t="shared" si="16"/>
-        <v>-2112</v>
+        <v>-583.226</v>
       </c>
       <c r="X14" s="26">
         <f t="shared" si="16"/>
-        <v>-2156</v>
+        <v>419.3309999999999</v>
       </c>
       <c r="Y14" s="52"/>
     </row>
@@ -10063,14 +9950,16 @@
         <v>-12.784000000000001</v>
       </c>
       <c r="V15" s="22">
-        <v>-18</v>
+        <f>17+2-47</f>
+        <v>-28</v>
       </c>
       <c r="W15" s="52">
-        <f>-28+12</f>
-        <v>-16</v>
+        <f>6-49-13</f>
+        <v>-56</v>
       </c>
       <c r="X15" s="52">
-        <v>-9</v>
+        <f>4-60-56</f>
+        <v>-112</v>
       </c>
       <c r="Y15" s="52"/>
     </row>
@@ -10160,15 +10049,15 @@
       </c>
       <c r="V16" s="27">
         <f t="shared" ref="V16:X16" si="23">V14+V15</f>
-        <v>-2172</v>
+        <v>-354.16999999999996</v>
       </c>
       <c r="W16" s="26">
         <f t="shared" si="23"/>
-        <v>-2128</v>
+        <v>-639.226</v>
       </c>
       <c r="X16" s="26">
         <f t="shared" si="23"/>
-        <v>-2165</v>
+        <v>307.3309999999999</v>
       </c>
       <c r="Y16" s="52"/>
     </row>
@@ -10237,13 +10126,13 @@
         <v>105.286</v>
       </c>
       <c r="V17" s="22">
-        <v>-36</v>
+        <v>-16</v>
       </c>
       <c r="W17" s="23">
-        <v>-100</v>
+        <v>-64</v>
       </c>
       <c r="X17" s="23">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="Y17" s="23"/>
     </row>
@@ -10362,15 +10251,15 @@
       </c>
       <c r="V19" s="25">
         <f t="shared" ref="V19:X19" si="28">V16-V17</f>
-        <v>-2136</v>
+        <v>-338.16999999999996</v>
       </c>
       <c r="W19" s="24">
         <f t="shared" si="28"/>
-        <v>-2028</v>
+        <v>-575.226</v>
       </c>
       <c r="X19" s="24">
         <f t="shared" si="28"/>
-        <v>-2270</v>
+        <v>219.3309999999999</v>
       </c>
       <c r="Y19" s="51"/>
     </row>
@@ -10460,15 +10349,15 @@
       </c>
       <c r="V20" s="63">
         <f t="shared" ref="V20:X20" si="34">IFERROR(V19/V21,0)</f>
-        <v>-4.3770491803278686</v>
+        <v>0</v>
       </c>
       <c r="W20" s="62">
         <f t="shared" si="34"/>
-        <v>-4.1814432989690724</v>
+        <v>0</v>
       </c>
       <c r="X20" s="62">
         <f t="shared" si="34"/>
-        <v>-4.6804123711340209</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="64"/>
     </row>
@@ -10536,15 +10425,9 @@
       <c r="U21" s="52">
         <v>488.851</v>
       </c>
-      <c r="V21" s="22">
-        <v>488</v>
-      </c>
-      <c r="W21" s="52">
-        <v>485</v>
-      </c>
-      <c r="X21" s="52">
-        <v>485</v>
-      </c>
+      <c r="V21" s="22"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
       <c r="Y21" s="52"/>
     </row>
     <row r="22" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.15">
@@ -10651,15 +10534,15 @@
       </c>
       <c r="V23" s="34">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>0.40605585450744214</v>
       </c>
       <c r="W23" s="33">
         <f t="shared" ref="W23:X23" si="39">IFERROR(W9/W7,0)</f>
-        <v>0</v>
+        <v>4.114417487618513E-2</v>
       </c>
       <c r="X23" s="33">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>0.70722571407499335</v>
       </c>
       <c r="Y23" s="33"/>
     </row>
@@ -10749,15 +10632,15 @@
       </c>
       <c r="V24" s="36">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>-0.38745352387061516</v>
       </c>
       <c r="W24" s="35">
         <f t="shared" ref="W24:X24" si="44">IFERROR(W14/W7,0)</f>
-        <v>0</v>
+        <v>-1.742148434466237</v>
       </c>
       <c r="X24" s="35">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>0.31239016308198198</v>
       </c>
       <c r="Y24" s="35"/>
     </row>
@@ -10847,15 +10730,15 @@
       </c>
       <c r="V25" s="36">
         <f t="shared" si="47"/>
-        <v>1.6574585635359115E-2</v>
+        <v>4.5176045401925637E-2</v>
       </c>
       <c r="W25" s="35">
         <f t="shared" ref="W25:X25" si="49">IFERROR(W17/W16,0)</f>
-        <v>4.6992481203007516E-2</v>
+        <v>0.10012108393588497</v>
       </c>
       <c r="X25" s="35">
         <f t="shared" si="49"/>
-        <v>-4.8498845265588918E-2</v>
+        <v>0.28633623031845151</v>
       </c>
       <c r="Y25" s="35"/>
     </row>
@@ -10961,10 +10844,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="29">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
+      <c r="Y27" s="29"/>
     </row>
     <row r="28" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
@@ -11040,15 +10920,15 @@
       </c>
       <c r="V28" s="32">
         <f t="shared" ref="V28:V30" si="53">V10/R10-1</f>
-        <v>0.14497984448074508</v>
+        <v>-0.44257560202911095</v>
       </c>
       <c r="W28" s="31">
         <f t="shared" si="52"/>
-        <v>0.11774568344265668</v>
+        <v>-0.54197639287500166</v>
       </c>
       <c r="X28" s="31">
         <f t="shared" si="52"/>
-        <v>0.15551000659416481</v>
+        <v>-0.56311105757747115</v>
       </c>
       <c r="Y28" s="31"/>
     </row>
@@ -11126,15 +11006,15 @@
       </c>
       <c r="V29" s="32">
         <f t="shared" si="53"/>
-        <v>9.6583827883682805E-2</v>
+        <v>-0.594379144178381</v>
       </c>
       <c r="W29" s="31">
         <f t="shared" si="52"/>
-        <v>6.1339785399686875E-2</v>
+        <v>-0.86453487755719871</v>
       </c>
       <c r="X29" s="31">
         <f t="shared" si="52"/>
-        <v>9.8097533712332874E-2</v>
+        <v>-0.86089123171581439</v>
       </c>
       <c r="Y29" s="31"/>
     </row>
@@ -11212,7 +11092,7 @@
       </c>
       <c r="V30" s="32">
         <f t="shared" si="53"/>
-        <v>0.19158656134005891</v>
+        <v>-0.64975730465404014</v>
       </c>
       <c r="W30" s="31">
         <f t="shared" si="52"/>
@@ -11220,13 +11100,13 @@
       </c>
       <c r="X30" s="31">
         <f t="shared" si="52"/>
-        <v>3.3522748941688052E-2</v>
+        <v>-0.22581137256397543</v>
       </c>
       <c r="Y30" s="31"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J31" s="34">
         <f t="shared" ref="J31:P31" si="54">J13/F13-1</f>
@@ -11278,15 +11158,15 @@
       </c>
       <c r="V31" s="34">
         <f>V13/R13-1</f>
-        <v>0.12802635154391151</v>
+        <v>-0.55727285380062697</v>
       </c>
       <c r="W31" s="33">
         <f t="shared" si="52"/>
-        <v>6.9148115130304388E-2</v>
+        <v>-0.62387659120047623</v>
       </c>
       <c r="X31" s="33">
         <f t="shared" si="52"/>
-        <v>0.10525067583937364</v>
+        <v>-0.66120135442749106</v>
       </c>
       <c r="Y31" s="33"/>
     </row>
@@ -11324,51 +11204,51 @@
       <c r="L33" s="23"/>
       <c r="M33" s="24">
         <f t="shared" ref="M33:P33" si="56">M34-M35</f>
-        <v>3938.3530000000001</v>
+        <v>0</v>
       </c>
       <c r="N33" s="25">
         <f t="shared" si="56"/>
-        <v>4273.1760000000004</v>
+        <v>0</v>
       </c>
       <c r="O33" s="24">
         <f t="shared" si="56"/>
-        <v>4460.0070000000005</v>
+        <v>0</v>
       </c>
       <c r="P33" s="24">
         <f t="shared" si="56"/>
-        <v>3069.8160000000003</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="24">
         <f t="shared" ref="Q33:S33" si="57">Q34-Q35</f>
-        <v>-895.83800000000019</v>
+        <v>0</v>
       </c>
       <c r="R33" s="25">
         <f t="shared" si="57"/>
-        <v>-903.33000000000038</v>
+        <v>0</v>
       </c>
       <c r="S33" s="24">
         <f t="shared" si="57"/>
-        <v>-654.62699999999995</v>
+        <v>0</v>
       </c>
       <c r="T33" s="24">
         <f t="shared" ref="T33" si="58">T34-T35</f>
-        <v>-486.22799999999961</v>
+        <v>0</v>
       </c>
       <c r="U33" s="24">
         <f t="shared" ref="U33" si="59">U34-U35</f>
-        <v>38.709000000000742</v>
+        <v>0</v>
       </c>
       <c r="V33" s="25">
         <f t="shared" ref="V33:X33" si="60">V34-V35</f>
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="W33" s="24">
         <f t="shared" si="60"/>
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="X33" s="24">
         <f t="shared" si="60"/>
-        <v>1148</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="46"/>
     </row>
@@ -11393,54 +11273,18 @@
       <c r="J34" s="22"/>
       <c r="K34" s="23"/>
       <c r="L34" s="23"/>
-      <c r="M34" s="23">
-        <f>2306.072+3513.702</f>
-        <v>5819.7740000000003</v>
-      </c>
-      <c r="N34" s="22">
-        <f>2666.981+3480.989</f>
-        <v>6147.97</v>
-      </c>
-      <c r="O34" s="23">
-        <f>2987.986+3346.078</f>
-        <v>6334.0640000000003</v>
-      </c>
-      <c r="P34" s="23">
-        <f>1747.144+3197.326</f>
-        <v>4944.47</v>
-      </c>
-      <c r="Q34" s="23">
-        <f>1642.775+1586.187</f>
-        <v>3228.962</v>
-      </c>
-      <c r="R34" s="22">
-        <f>1738.846+1487.411</f>
-        <v>3226.2570000000001</v>
-      </c>
-      <c r="S34" s="23">
-        <f>2082.91+1396.069</f>
-        <v>3478.9789999999998</v>
-      </c>
-      <c r="T34" s="23">
-        <f>2209.047+1441.741</f>
-        <v>3650.788</v>
-      </c>
-      <c r="U34" s="23">
-        <f>2650.221+1526.755</f>
-        <v>4176.9760000000006</v>
-      </c>
-      <c r="V34" s="22">
-        <f>2688+1483</f>
-        <v>4171</v>
-      </c>
-      <c r="W34" s="23">
-        <f>3044+1307</f>
-        <v>4351</v>
-      </c>
-      <c r="X34" s="23">
-        <f>3767+1497</f>
-        <v>5264</v>
-      </c>
+      <c r="M34" s="23"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
       <c r="Y34" s="23"/>
     </row>
     <row r="35" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -11462,46 +11306,18 @@
       <c r="J35" s="22"/>
       <c r="K35" s="23"/>
       <c r="L35" s="23"/>
-      <c r="M35" s="23">
-        <v>1881.421</v>
-      </c>
-      <c r="N35" s="22">
-        <v>1874.7940000000001</v>
-      </c>
-      <c r="O35" s="23">
-        <v>1874.057</v>
-      </c>
-      <c r="P35" s="23">
-        <v>1874.654</v>
-      </c>
-      <c r="Q35" s="23">
-        <v>4124.8</v>
-      </c>
-      <c r="R35" s="22">
-        <f>892.754+3236.833</f>
-        <v>4129.5870000000004</v>
-      </c>
-      <c r="S35" s="23">
-        <f>3145.668+987.938</f>
-        <v>4133.6059999999998</v>
-      </c>
-      <c r="T35" s="23">
-        <f>3148.587+988.429</f>
-        <v>4137.0159999999996</v>
-      </c>
-      <c r="U35" s="23">
-        <f>3149.343+988.924</f>
-        <v>4138.2669999999998</v>
-      </c>
-      <c r="V35" s="22">
-        <v>4113</v>
-      </c>
-      <c r="W35" s="23">
-        <v>4114</v>
-      </c>
-      <c r="X35" s="23">
-        <v>4116</v>
-      </c>
+      <c r="M35" s="23"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
       <c r="Y35" s="23"/>
     </row>
     <row r="36" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -11551,54 +11367,18 @@
       <c r="J37" s="22"/>
       <c r="K37" s="23"/>
       <c r="L37" s="23"/>
-      <c r="M37" s="37">
-        <f>5821.561+385.658</f>
-        <v>6207.2190000000001</v>
-      </c>
-      <c r="N37" s="22">
-        <f>5843.899+353.74</f>
-        <v>6197.6390000000001</v>
-      </c>
-      <c r="O37" s="23">
-        <f>5823.792+320.478</f>
-        <v>6144.27</v>
-      </c>
-      <c r="P37" s="23">
-        <f>7136.853+669.476</f>
-        <v>7806.3289999999997</v>
-      </c>
-      <c r="Q37" s="23">
-        <f>10581.048+2069.001</f>
-        <v>12650.049000000001</v>
-      </c>
-      <c r="R37" s="22">
-        <f>10707.715+2017.103</f>
-        <v>12724.817999999999</v>
-      </c>
-      <c r="S37" s="23">
-        <f>10697.874+1917.149</f>
-        <v>12615.022999999999</v>
-      </c>
-      <c r="T37" s="23">
-        <f>10688.068+1815.625</f>
-        <v>12503.692999999999</v>
-      </c>
-      <c r="U37" s="23">
-        <f>10691.199+1720.565</f>
-        <v>12411.764000000001</v>
-      </c>
-      <c r="V37" s="22">
-        <f>10691+1626</f>
-        <v>12317</v>
-      </c>
-      <c r="W37" s="23">
-        <f>10695+1535</f>
-        <v>12230</v>
-      </c>
-      <c r="X37" s="23">
-        <f>10739+1445</f>
-        <v>12184</v>
-      </c>
+      <c r="M37" s="37"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="23"/>
       <c r="Y37" s="23"/>
     </row>
     <row r="38" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -11620,42 +11400,18 @@
       <c r="J38" s="22"/>
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
-      <c r="M38" s="37">
-        <v>14535.556</v>
-      </c>
-      <c r="N38" s="22">
-        <v>14973.485000000001</v>
-      </c>
-      <c r="O38" s="23">
-        <v>15163.404</v>
-      </c>
-      <c r="P38" s="23">
-        <v>15395.62</v>
-      </c>
-      <c r="Q38" s="23">
-        <v>18768.682000000001</v>
-      </c>
-      <c r="R38" s="22">
-        <v>19505.536</v>
-      </c>
-      <c r="S38" s="23">
-        <v>19665.909</v>
-      </c>
-      <c r="T38" s="23">
-        <v>20054.88</v>
-      </c>
-      <c r="U38" s="23">
-        <v>20762.400000000001</v>
-      </c>
-      <c r="V38" s="22">
-        <v>21214</v>
-      </c>
-      <c r="W38" s="23">
-        <v>21603</v>
-      </c>
-      <c r="X38" s="23">
-        <v>22414</v>
-      </c>
+      <c r="M38" s="37"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
       <c r="Y38" s="23"/>
     </row>
     <row r="39" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -11677,42 +11433,18 @@
       <c r="J39" s="22"/>
       <c r="K39" s="23"/>
       <c r="L39" s="23"/>
-      <c r="M39" s="37">
-        <v>6075.6869999999999</v>
-      </c>
-      <c r="N39" s="22">
-        <v>6339.4570000000003</v>
-      </c>
-      <c r="O39" s="23">
-        <v>6457.8209999999999</v>
-      </c>
-      <c r="P39" s="23">
-        <v>6533.6949999999997</v>
-      </c>
-      <c r="Q39" s="23">
-        <v>9406.5679999999993</v>
-      </c>
-      <c r="R39" s="22">
-        <v>9634.0509999999995</v>
-      </c>
-      <c r="S39" s="23">
-        <v>9734.2160000000003</v>
-      </c>
-      <c r="T39" s="23">
-        <v>9812.107</v>
-      </c>
-      <c r="U39" s="23">
-        <v>10232.245000000001</v>
-      </c>
-      <c r="V39" s="22">
-        <v>10749</v>
-      </c>
-      <c r="W39" s="23">
-        <v>10722</v>
-      </c>
-      <c r="X39" s="23">
-        <v>10701</v>
-      </c>
+      <c r="M39" s="37"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="23"/>
       <c r="Y39" s="23"/>
     </row>
     <row r="40" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -11764,51 +11496,51 @@
       <c r="L41" s="23"/>
       <c r="M41" s="26">
         <f t="shared" si="61"/>
-        <v>2508.5629999999992</v>
+        <v>0</v>
       </c>
       <c r="N41" s="27">
         <f t="shared" si="61"/>
-        <v>2627.8759999999993</v>
+        <v>0</v>
       </c>
       <c r="O41" s="26">
         <f t="shared" si="61"/>
-        <v>2685.0699999999997</v>
+        <v>0</v>
       </c>
       <c r="P41" s="26">
         <f t="shared" ref="P41:V41" si="62">P38-P34-P37</f>
-        <v>2644.8210000000017</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="26">
         <f t="shared" si="62"/>
-        <v>2889.6710000000003</v>
+        <v>0</v>
       </c>
       <c r="R41" s="27">
         <f t="shared" si="62"/>
-        <v>3554.4610000000011</v>
+        <v>0</v>
       </c>
       <c r="S41" s="26">
         <f t="shared" si="62"/>
-        <v>3571.9070000000011</v>
+        <v>0</v>
       </c>
       <c r="T41" s="26">
         <f t="shared" si="62"/>
-        <v>3900.3990000000013</v>
+        <v>0</v>
       </c>
       <c r="U41" s="26">
         <f t="shared" si="62"/>
-        <v>4173.659999999998</v>
+        <v>0</v>
       </c>
       <c r="V41" s="27">
         <f t="shared" si="62"/>
-        <v>4726</v>
+        <v>0</v>
       </c>
       <c r="W41" s="26">
         <f t="shared" ref="W41:X41" si="63">W38-W34-W37</f>
-        <v>5022</v>
+        <v>0</v>
       </c>
       <c r="X41" s="26">
         <f t="shared" si="63"/>
-        <v>4966</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="23"/>
     </row>
@@ -11835,51 +11567,51 @@
       <c r="L42" s="23"/>
       <c r="M42" s="26">
         <f t="shared" ref="M42:P42" si="64">M38-M39</f>
-        <v>8459.8690000000006</v>
+        <v>0</v>
       </c>
       <c r="N42" s="27">
         <f t="shared" si="64"/>
-        <v>8634.0280000000002</v>
+        <v>0</v>
       </c>
       <c r="O42" s="26">
         <f t="shared" si="64"/>
-        <v>8705.5830000000005</v>
+        <v>0</v>
       </c>
       <c r="P42" s="26">
         <f t="shared" si="64"/>
-        <v>8861.9250000000011</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="26">
         <f t="shared" ref="Q42:S42" si="65">Q38-Q39</f>
-        <v>9362.1140000000014</v>
+        <v>0</v>
       </c>
       <c r="R42" s="27">
         <f t="shared" si="65"/>
-        <v>9871.4850000000006</v>
+        <v>0</v>
       </c>
       <c r="S42" s="26">
         <f t="shared" si="65"/>
-        <v>9931.6929999999993</v>
+        <v>0</v>
       </c>
       <c r="T42" s="26">
         <f>T38-T39</f>
-        <v>10242.773000000001</v>
+        <v>0</v>
       </c>
       <c r="U42" s="26">
         <f>U38-U39</f>
-        <v>10530.155000000001</v>
+        <v>0</v>
       </c>
       <c r="V42" s="27">
         <f t="shared" ref="V42" si="66">V38-V39</f>
-        <v>10465</v>
+        <v>0</v>
       </c>
       <c r="W42" s="26">
         <f>W38-W39</f>
-        <v>10881</v>
+        <v>0</v>
       </c>
       <c r="X42" s="26">
         <f>X38-X39</f>
-        <v>11713</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="23"/>
     </row>
@@ -11968,15 +11700,15 @@
       </c>
       <c r="V44" s="25">
         <f t="shared" ref="V44" si="68">SUM(S19:V19)</f>
-        <v>-8429.1329999999998</v>
+        <v>-6631.3029999999999</v>
       </c>
       <c r="W44" s="24">
         <f>SUM(T19:W19)</f>
-        <v>-8345.4459999999999</v>
+        <v>-5094.8419999999996</v>
       </c>
       <c r="X44" s="24">
         <f>SUM(U19:X19)</f>
-        <v>-8574.0830000000005</v>
+        <v>-2834.1480000000001</v>
       </c>
       <c r="Y44" s="46"/>
     </row>
@@ -11995,53 +11727,53 @@
       <c r="J45" s="22"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="33">
+      <c r="M45" s="33" t="e">
         <f t="shared" si="69"/>
-        <v>-0.66284135132588928</v>
-      </c>
-      <c r="N45" s="34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N45" s="34" t="e">
         <f t="shared" si="69"/>
-        <v>-0.67410274787156133</v>
-      </c>
-      <c r="O45" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O45" s="33" t="e">
         <f t="shared" si="69"/>
-        <v>-0.68399956671483109</v>
-      </c>
-      <c r="P45" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P45" s="33" t="e">
         <f t="shared" ref="P45:V45" si="70">P44/P42</f>
-        <v>-0.69487103535631367</v>
-      </c>
-      <c r="Q45" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q45" s="33" t="e">
         <f t="shared" si="70"/>
-        <v>-0.68779700823980561</v>
-      </c>
-      <c r="R45" s="34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R45" s="34" t="e">
         <f t="shared" si="70"/>
-        <v>-0.69595081185860075</v>
-      </c>
-      <c r="S45" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S45" s="33" t="e">
         <f t="shared" si="70"/>
-        <v>-0.75007976988414771</v>
-      </c>
-      <c r="T45" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T45" s="33" t="e">
         <f t="shared" si="70"/>
-        <v>-0.76796976756196778</v>
-      </c>
-      <c r="U45" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U45" s="33" t="e">
         <f t="shared" si="70"/>
-        <v>-0.78059990569939375</v>
-      </c>
-      <c r="V45" s="34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V45" s="34" t="e">
         <f t="shared" si="70"/>
-        <v>-0.80545943621595795</v>
-      </c>
-      <c r="W45" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W45" s="33" t="e">
         <f t="shared" ref="W45:X45" si="71">W44/W42</f>
-        <v>-0.76697417516772359</v>
-      </c>
-      <c r="X45" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X45" s="33" t="e">
         <f t="shared" si="71"/>
-        <v>-0.73201425766242645</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.15">
@@ -12059,53 +11791,53 @@
       <c r="J46" s="22"/>
       <c r="K46" s="23"/>
       <c r="L46" s="23"/>
-      <c r="M46" s="33">
+      <c r="M46" s="33" t="e">
         <f t="shared" si="72"/>
-        <v>-0.3857816653177904</v>
-      </c>
-      <c r="N46" s="34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N46" s="34" t="e">
         <f t="shared" si="72"/>
-        <v>-0.38870189538374</v>
-      </c>
-      <c r="O46" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O46" s="33" t="e">
         <f t="shared" si="72"/>
-        <v>-0.39269645522865443</v>
-      </c>
-      <c r="P46" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P46" s="33" t="e">
         <f t="shared" ref="P46:V46" si="73">P44/P38</f>
-        <v>-0.399977071400827</v>
-      </c>
-      <c r="Q46" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q46" s="33" t="e">
         <f t="shared" si="73"/>
-        <v>-0.34308397361093335</v>
-      </c>
-      <c r="R46" s="34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R46" s="34" t="e">
         <f t="shared" si="73"/>
-        <v>-0.3522111876341158</v>
-      </c>
-      <c r="S46" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S46" s="33" t="e">
         <f t="shared" si="73"/>
-        <v>-0.37880588179270025</v>
-      </c>
-      <c r="T46" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T46" s="33" t="e">
         <f t="shared" si="73"/>
-        <v>-0.39223071890731831</v>
-      </c>
-      <c r="U46" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U46" s="33" t="e">
         <f t="shared" si="73"/>
-        <v>-0.39590018494971674</v>
-      </c>
-      <c r="V46" s="34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V46" s="34" t="e">
         <f t="shared" si="73"/>
-        <v>-0.39733822004336755</v>
-      </c>
-      <c r="W46" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W46" s="33" t="e">
         <f t="shared" ref="W46:X46" si="74">W44/W38</f>
-        <v>-0.38630958663148635</v>
-      </c>
-      <c r="X46" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X46" s="33" t="e">
         <f t="shared" si="74"/>
-        <v>-0.38253247970018739</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.15">
@@ -12123,53 +11855,53 @@
       <c r="J47" s="22"/>
       <c r="K47" s="23"/>
       <c r="L47" s="23"/>
-      <c r="M47" s="33">
+      <c r="M47" s="33" t="e">
         <f t="shared" si="75"/>
-        <v>-2.4893130313186687</v>
-      </c>
-      <c r="N47" s="34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N47" s="34" t="e">
         <f t="shared" si="75"/>
-        <v>-2.388872220322781</v>
-      </c>
-      <c r="O47" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O47" s="33" t="e">
         <f t="shared" si="75"/>
-        <v>-2.3248291013242035</v>
-      </c>
-      <c r="P47" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P47" s="33" t="e">
         <f t="shared" ref="P47:V47" si="76">P44/(P42-P37)</f>
-        <v>-5.8335717452510165</v>
-      </c>
-      <c r="Q47" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q47" s="33" t="e">
         <f t="shared" si="76"/>
-        <v>1.9584432173993711</v>
-      </c>
-      <c r="R47" s="34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R47" s="34" t="e">
         <f t="shared" si="76"/>
-        <v>2.4077343934269164</v>
-      </c>
-      <c r="S47" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S47" s="33" t="e">
         <f t="shared" si="76"/>
-        <v>2.7762377344568132</v>
-      </c>
-      <c r="T47" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T47" s="33" t="e">
         <f t="shared" si="76"/>
-        <v>3.4791766183677471</v>
-      </c>
-      <c r="U47" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U47" s="33" t="e">
         <f t="shared" si="76"/>
-        <v>4.3685154567181588</v>
-      </c>
-      <c r="V47" s="34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V47" s="34" t="e">
         <f t="shared" si="76"/>
-        <v>4.5513677105831531</v>
-      </c>
-      <c r="W47" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W47" s="33" t="e">
         <f t="shared" ref="W47:X47" si="77">W44/(W42-W37)</f>
-        <v>6.1863943661971827</v>
-      </c>
-      <c r="X47" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X47" s="33" t="e">
         <f t="shared" si="77"/>
-        <v>18.203997876857752</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.15">
@@ -12187,53 +11919,53 @@
       <c r="J48" s="22"/>
       <c r="K48" s="23"/>
       <c r="L48" s="23"/>
-      <c r="M48" s="33">
+      <c r="M48" s="33" t="e">
         <f t="shared" si="78"/>
-        <v>-2.235363831803308</v>
-      </c>
-      <c r="N48" s="34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N48" s="34" t="e">
         <f t="shared" si="78"/>
-        <v>-2.2148008505728591</v>
-      </c>
-      <c r="O48" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O48" s="33" t="e">
         <f t="shared" si="78"/>
-        <v>-2.2176758892691812</v>
-      </c>
-      <c r="P48" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P48" s="33" t="e">
         <f t="shared" ref="P48:V48" si="79">P44/P41</f>
-        <v>-2.3282842203687872</v>
-      </c>
-      <c r="Q48" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q48" s="33" t="e">
         <f t="shared" si="79"/>
-        <v>-2.2283623291371231</v>
-      </c>
-      <c r="R48" s="34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R48" s="34" t="e">
         <f t="shared" si="79"/>
-        <v>-1.9328016259005227</v>
-      </c>
-      <c r="S48" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S48" s="33" t="e">
         <f t="shared" si="79"/>
-        <v>-2.0855979732954966</v>
-      </c>
-      <c r="T48" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T48" s="33" t="e">
         <f t="shared" si="79"/>
-        <v>-2.0167526450499031</v>
-      </c>
-      <c r="U48" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U48" s="33" t="e">
         <f t="shared" si="79"/>
-        <v>-1.9694555857448865</v>
-      </c>
-      <c r="V48" s="34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V48" s="34" t="e">
         <f t="shared" si="79"/>
-        <v>-1.783566017774016</v>
-      </c>
-      <c r="W48" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W48" s="33" t="e">
         <f t="shared" ref="W48:X48" si="80">W44/W41</f>
-        <v>-1.6617773795300677</v>
-      </c>
-      <c r="X48" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X48" s="33" t="e">
         <f t="shared" si="80"/>
-        <v>-1.7265571888844142</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="50" spans="6:25" x14ac:dyDescent="0.15">
@@ -12328,7 +12060,7 @@
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/ABNB.xlsx
+++ b/ABNB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_Investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FFB191-E78F-714E-9B96-DC7C7801F4F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6D9C12-49A0-C046-BBF0-4F97650DFF12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28540" yWindow="460" windowWidth="32660" windowHeight="26720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -996,8 +996,12 @@
       <c r="B2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="67"/>
+      <c r="C2" s="4">
+        <v>144.71</v>
+      </c>
+      <c r="D2" s="67">
+        <v>44176</v>
+      </c>
       <c r="E2" s="6" t="s">
         <v>29</v>
       </c>
@@ -1041,7 +1045,7 @@
       </c>
       <c r="C4" s="10">
         <f>C2*C3</f>
-        <v>0</v>
+        <v>37705.05876</v>
       </c>
       <c r="D4" s="68"/>
       <c r="E4" s="6" t="s">
@@ -1091,7 +1095,7 @@
       </c>
       <c r="C6" s="10">
         <f>C4-C5</f>
-        <v>0</v>
+        <v>37705.05876</v>
       </c>
       <c r="D6" s="68"/>
       <c r="E6" s="12" t="s">
@@ -1112,7 +1116,7 @@
       </c>
       <c r="C7" s="43">
         <f>C6/C3</f>
-        <v>0</v>
+        <v>144.71</v>
       </c>
       <c r="D7" s="68"/>
       <c r="E7" s="14" t="s">
@@ -1122,9 +1126,9 @@
         <f>F6/C3</f>
         <v>279.543368311672</v>
       </c>
-      <c r="G7" s="19" t="e">
+      <c r="G7" s="19">
         <f>F7/C2-1</f>
-        <v>#DIV/0!</v>
+        <v>0.93174879629377361</v>
       </c>
     </row>
     <row r="8" spans="1:117" x14ac:dyDescent="0.15">
@@ -8957,10 +8961,10 @@
   <dimension ref="A1:Y52"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V21" sqref="V21"/>
+      <selection pane="bottomRight" activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10769,7 +10773,7 @@
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
       <c r="F27" s="30">
-        <f t="shared" ref="F27:Y27" si="50">IFERROR((F7/B7)-1,0)</f>
+        <f t="shared" ref="F27:X27" si="50">IFERROR((F7/B7)-1,0)</f>
         <v>0</v>
       </c>
       <c r="G27" s="29">

--- a/ABNB.xlsx
+++ b/ABNB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_Investing/stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6D9C12-49A0-C046-BBF0-4F97650DFF12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A745B85-B71B-F242-B6B0-9952546022C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-56900" yWindow="-5940" windowWidth="28440" windowHeight="26740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -38,19 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
-  <si>
-    <t>Q117</t>
-  </si>
-  <si>
-    <t>Q217</t>
-  </si>
-  <si>
-    <t>Q317</t>
-  </si>
-  <si>
-    <t>Q417</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="77">
   <si>
     <t>Revenue</t>
   </si>
@@ -106,18 +94,6 @@
     <t>Tax Rate</t>
   </si>
   <si>
-    <t>Q116</t>
-  </si>
-  <si>
-    <t>Q216</t>
-  </si>
-  <si>
-    <t>Q316</t>
-  </si>
-  <si>
-    <t>Q416</t>
-  </si>
-  <si>
     <t>Net Cash</t>
   </si>
   <si>
@@ -152,18 +128,6 @@
   </si>
   <si>
     <t>Q418</t>
-  </si>
-  <si>
-    <t>Q115</t>
-  </si>
-  <si>
-    <t>Q215</t>
-  </si>
-  <si>
-    <t>Q315</t>
-  </si>
-  <si>
-    <t>Q415</t>
   </si>
   <si>
     <t>R&amp;D y/y</t>
@@ -244,12 +208,6 @@
     <t>Expected return on invested capital (innovation grade)</t>
   </si>
   <si>
-    <t>Tax anomaly</t>
-  </si>
-  <si>
-    <t>Operating Expenses y/y</t>
-  </si>
-  <si>
     <t>Q120</t>
   </si>
   <si>
@@ -305,6 +263,12 @@
   </si>
   <si>
     <t>Joe Gebbia</t>
+  </si>
+  <si>
+    <t>OE y/y</t>
+  </si>
+  <si>
+    <t>R/ GBV</t>
   </si>
 </sst>
 </file>
@@ -413,7 +377,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -511,7 +475,6 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -560,9 +523,6 @@
     <xf numFmtId="4" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -573,6 +533,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -606,8 +567,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -622,8 +583,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4188460" y="1320800"/>
-          <a:ext cx="0" cy="8768080"/>
+          <a:off x="5834380" y="1320800"/>
+          <a:ext cx="0" cy="9235440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -654,15 +615,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -678,8 +639,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20647660" y="152400"/>
-          <a:ext cx="0" cy="8963660"/>
+          <a:off x="20403820" y="152400"/>
+          <a:ext cx="0" cy="7813040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -969,13 +930,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GR62"/>
+  <dimension ref="A1:GR64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -985,155 +946,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:117" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>66</v>
+      <c r="A1" s="67" t="s">
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:117" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4">
-        <v>144.71</v>
-      </c>
-      <c r="D2" s="67">
-        <v>44176</v>
+        <v>197.83</v>
+      </c>
+      <c r="D2" s="65">
+        <v>44245</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F2" s="7">
-        <v>-0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I2" s="16"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" s="8">
-        <f>F28</f>
-        <v>260.55599999999998</v>
-      </c>
-      <c r="D3" s="68" t="s">
-        <v>77</v>
+        <f>Reports!L18</f>
+        <v>530.94500000000005</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>63</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F3" s="7">
         <v>0.02</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:117" x14ac:dyDescent="0.15">
-      <c r="A4" s="70" t="s">
-        <v>87</v>
+      <c r="A4" s="68" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C4" s="10">
         <f>C2*C3</f>
-        <v>37705.05876</v>
-      </c>
-      <c r="D4" s="68"/>
+        <v>105036.84935000002</v>
+      </c>
+      <c r="D4" s="66"/>
       <c r="E4" s="6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F4" s="7">
-        <f>7%</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I4" s="19"/>
       <c r="L4" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:117" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C5" s="8">
-        <f>Reports!X33</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>77</v>
+        <f>Reports!L30</f>
+        <v>4551</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>63</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F5" s="11">
         <f>NPV(F4,G26:GR26)</f>
-        <v>72836.701873816011</v>
+        <v>85009.466184932448</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C6" s="10">
         <f>C4-C5</f>
-        <v>37705.05876</v>
-      </c>
-      <c r="D6" s="68"/>
+        <v>100485.84935000002</v>
+      </c>
+      <c r="D6" s="66"/>
       <c r="E6" s="12" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F6" s="13">
         <f>F5+C5</f>
-        <v>72836.701873816011</v>
+        <v>89560.466184932448</v>
       </c>
       <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:117" x14ac:dyDescent="0.15">
-      <c r="A7" s="70" t="s">
-        <v>87</v>
+      <c r="A7" s="68" t="s">
+        <v>73</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C7" s="43">
         <f>C6/C3</f>
-        <v>144.71</v>
-      </c>
-      <c r="D7" s="68"/>
+        <v>189.25849070996057</v>
+      </c>
+      <c r="D7" s="66"/>
       <c r="E7" s="14" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F7" s="42">
         <f>F6/C3</f>
-        <v>279.543368311672</v>
+        <v>168.68124981859219</v>
       </c>
       <c r="G7" s="19">
         <f>F7/C2-1</f>
-        <v>0.93174879629377361</v>
+        <v>-0.14734241612196242</v>
       </c>
     </row>
     <row r="8" spans="1:117" x14ac:dyDescent="0.15">
-      <c r="A8" s="70" t="s">
-        <v>88</v>
+      <c r="A8" s="68" t="s">
+        <v>74</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="15"/>
@@ -1315,7 +1275,7 @@
     </row>
     <row r="10" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B10" s="37">
         <v>919</v>
@@ -1327,16 +1287,32 @@
         <v>2561.721</v>
       </c>
       <c r="E10" s="37">
+        <f>SUM(Reports!B3:E3)</f>
         <v>3651.9850000000001</v>
       </c>
       <c r="F10" s="37">
         <v>4805.2389999999996</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
+      <c r="G10" s="37">
+        <f>SUM(Reports!J3:M3)</f>
+        <v>3515.0514000000003</v>
+      </c>
+      <c r="H10" s="37">
+        <f>G10*1.5</f>
+        <v>5272.5771000000004</v>
+      </c>
+      <c r="I10" s="37">
+        <f>H10*1.45</f>
+        <v>7645.2367950000007</v>
+      </c>
+      <c r="J10" s="37">
+        <f>I10*1.4</f>
+        <v>10703.331513000001</v>
+      </c>
+      <c r="K10" s="37">
+        <f>J10*1.35</f>
+        <v>14449.497542550002</v>
+      </c>
       <c r="L10" s="37"/>
       <c r="M10" s="37"/>
       <c r="N10" s="37"/>
@@ -1565,7 +1541,7 @@
     </row>
     <row r="12" spans="1:117" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B12" s="16">
         <v>72.400000000000006</v>
@@ -1582,71 +1558,36 @@
       <c r="F12" s="16">
         <v>326.89999999999998</v>
       </c>
-      <c r="G12" s="16">
-        <f>F12*1.25</f>
-        <v>408.625</v>
-      </c>
-      <c r="H12" s="16">
-        <f t="shared" ref="H12:K12" si="1">G12*1.25</f>
-        <v>510.78125</v>
-      </c>
-      <c r="I12" s="16">
-        <f t="shared" si="1"/>
-        <v>638.4765625</v>
-      </c>
-      <c r="J12" s="16">
-        <f t="shared" si="1"/>
-        <v>798.095703125</v>
-      </c>
-      <c r="K12" s="16">
-        <f t="shared" si="1"/>
-        <v>997.61962890625</v>
-      </c>
     </row>
     <row r="13" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="56">
+        <v>71</v>
+      </c>
+      <c r="B13" s="55">
         <f>B10/B12</f>
         <v>12.693370165745856</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="55">
         <f>C10/C12</f>
         <v>13.17085123309467</v>
       </c>
-      <c r="D13" s="56">
+      <c r="D13" s="55">
         <f>D10/D12</f>
         <v>13.787518837459633</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="55">
         <f>E10/E12</f>
         <v>14.590431482221334</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="55">
         <f>F10/F12</f>
         <v>14.699415723462833</v>
       </c>
-      <c r="G13" s="37">
-        <f>F13*1.02</f>
-        <v>14.993404037932089</v>
-      </c>
-      <c r="H13" s="37">
-        <f t="shared" ref="H13:K13" si="2">G13*1.02</f>
-        <v>15.293272118690732</v>
-      </c>
-      <c r="I13" s="37">
-        <f t="shared" si="2"/>
-        <v>15.599137561064547</v>
-      </c>
-      <c r="J13" s="37">
-        <f t="shared" si="2"/>
-        <v>15.911120312285838</v>
-      </c>
-      <c r="K13" s="37">
-        <f t="shared" si="2"/>
-        <v>16.229342718531555</v>
-      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
       <c r="L13" s="37"/>
       <c r="M13" s="37"/>
       <c r="N13" s="37"/>
@@ -1754,15 +1695,15 @@
       <c r="DL13" s="37"/>
       <c r="DM13" s="37"/>
     </row>
-    <row r="14" spans="1:117" s="59" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
+    <row r="14" spans="1:117" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
     </row>
     <row r="15" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B15" s="24">
         <f>SUM(B10:B10)</f>
@@ -1785,64 +1726,64 @@
         <v>4805.2389999999996</v>
       </c>
       <c r="G15" s="46">
-        <f>G12*G13</f>
-        <v>6126.679725</v>
+        <f>G10</f>
+        <v>3515.0514000000003</v>
       </c>
       <c r="H15" s="46">
-        <f>H12*H13</f>
-        <v>7811.5166493750003</v>
+        <f>H10</f>
+        <v>5272.5771000000004</v>
       </c>
       <c r="I15" s="46">
-        <f>I12*I13</f>
-        <v>9959.6837279531264</v>
+        <f>I10</f>
+        <v>7645.2367950000007</v>
       </c>
       <c r="J15" s="46">
-        <f>J12*J13</f>
-        <v>12698.596753140237</v>
+        <f>J10</f>
+        <v>10703.331513000001</v>
       </c>
       <c r="K15" s="46">
-        <f>K12*K13</f>
-        <v>16190.710860253801</v>
+        <f>K10</f>
+        <v>14449.497542550002</v>
       </c>
       <c r="L15" s="46">
-        <f>K15*1.1</f>
-        <v>17809.781946279181</v>
+        <f>K15*1.2</f>
+        <v>17339.397051060001</v>
       </c>
       <c r="M15" s="46">
-        <f t="shared" ref="M15:P15" si="3">L15*1.1</f>
-        <v>19590.760140907099</v>
+        <f t="shared" ref="M15:P15" si="1">L15*1.2</f>
+        <v>20807.276461272002</v>
       </c>
       <c r="N15" s="46">
-        <f t="shared" si="3"/>
-        <v>21549.836154997811</v>
+        <f t="shared" si="1"/>
+        <v>24968.731753526401</v>
       </c>
       <c r="O15" s="46">
-        <f t="shared" si="3"/>
-        <v>23704.819770497594</v>
+        <f t="shared" si="1"/>
+        <v>29962.478104231679</v>
       </c>
       <c r="P15" s="46">
-        <f t="shared" si="3"/>
-        <v>26075.301747547353</v>
+        <f t="shared" si="1"/>
+        <v>35954.973725078016</v>
       </c>
       <c r="Q15" s="46">
-        <f t="shared" ref="Q15:U15" si="4">P15*1.05</f>
-        <v>27379.066834924721</v>
+        <f>P15*1.1</f>
+        <v>39550.471097585818</v>
       </c>
       <c r="R15" s="46">
-        <f t="shared" si="4"/>
-        <v>28748.020176670958</v>
+        <f t="shared" ref="R15:U15" si="2">Q15*1.1</f>
+        <v>43505.518207344401</v>
       </c>
       <c r="S15" s="46">
-        <f t="shared" si="4"/>
-        <v>30185.421185504507</v>
+        <f t="shared" si="2"/>
+        <v>47856.070028078844</v>
       </c>
       <c r="T15" s="46">
-        <f t="shared" si="4"/>
-        <v>31694.692244779733</v>
+        <f t="shared" si="2"/>
+        <v>52641.677030886734</v>
       </c>
       <c r="U15" s="46">
-        <f t="shared" si="4"/>
-        <v>33279.42685701872</v>
+        <f t="shared" si="2"/>
+        <v>57905.844733975413</v>
       </c>
       <c r="V15" s="38"/>
       <c r="W15" s="38"/>
@@ -1943,7 +1884,7 @@
     </row>
     <row r="16" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B16" s="37">
         <f>226+181</f>
@@ -1958,7 +1899,7 @@
         <v>1044</v>
       </c>
       <c r="E16" s="37">
-        <f>864+609</f>
+        <f>SUM(Reports!B6:E6)</f>
         <v>1473</v>
       </c>
       <c r="F16" s="37">
@@ -1966,64 +1907,64 @@
         <v>2011</v>
       </c>
       <c r="G16" s="23">
-        <f>G15-G17</f>
-        <v>2564.0250000000001</v>
+        <f>SUM(Reports!J6:M6)</f>
+        <v>1671.2</v>
       </c>
       <c r="H16" s="23">
-        <f t="shared" ref="H16" si="5">H15-H17</f>
-        <v>3269.131875</v>
+        <f t="shared" ref="H16" si="3">H15-H17</f>
+        <v>2206.5817221786474</v>
       </c>
       <c r="I16" s="23">
-        <f t="shared" ref="I16:P16" si="6">I15-I17</f>
-        <v>4168.1431406250013</v>
+        <f t="shared" ref="I16:P16" si="4">I15-I17</f>
+        <v>3199.5434971590385</v>
       </c>
       <c r="J16" s="23">
-        <f t="shared" si="6"/>
-        <v>5314.3825042968765</v>
+        <f t="shared" si="4"/>
+        <v>4479.3608960226547</v>
       </c>
       <c r="K16" s="23">
         <f>K15-K17</f>
-        <v>6775.8376929785172</v>
+        <v>6047.137209630584</v>
       </c>
       <c r="L16" s="23">
-        <f t="shared" si="6"/>
-        <v>7453.4214622763684</v>
+        <f t="shared" si="4"/>
+        <v>7256.5646515567005</v>
       </c>
       <c r="M16" s="23">
-        <f t="shared" si="6"/>
-        <v>8198.7636085040049</v>
+        <f t="shared" si="4"/>
+        <v>8707.8775818680406</v>
       </c>
       <c r="N16" s="23">
-        <f t="shared" si="6"/>
-        <v>9018.6399693544063</v>
+        <f t="shared" si="4"/>
+        <v>10449.453098241647</v>
       </c>
       <c r="O16" s="23">
-        <f t="shared" si="6"/>
-        <v>9920.5039662898489</v>
+        <f t="shared" si="4"/>
+        <v>12539.343717889977</v>
       </c>
       <c r="P16" s="23">
-        <f t="shared" si="6"/>
-        <v>10912.554362918834</v>
+        <f t="shared" si="4"/>
+        <v>15047.212461467971</v>
       </c>
       <c r="Q16" s="23">
-        <f t="shared" ref="Q16:U16" si="7">Q15-Q17</f>
-        <v>11458.182081064775</v>
+        <f t="shared" ref="Q16:U16" si="5">Q15-Q17</f>
+        <v>16551.933707614768</v>
       </c>
       <c r="R16" s="23">
-        <f t="shared" si="7"/>
-        <v>12031.091185118014</v>
+        <f t="shared" si="5"/>
+        <v>18207.127078376248</v>
       </c>
       <c r="S16" s="23">
-        <f t="shared" si="7"/>
-        <v>12632.645744373916</v>
+        <f t="shared" si="5"/>
+        <v>20027.839786213874</v>
       </c>
       <c r="T16" s="23">
-        <f t="shared" si="7"/>
-        <v>13264.27803159261</v>
+        <f t="shared" si="5"/>
+        <v>22030.623764835262</v>
       </c>
       <c r="U16" s="23">
-        <f t="shared" si="7"/>
-        <v>13927.491933172241</v>
+        <f t="shared" si="5"/>
+        <v>24233.686141318794</v>
       </c>
       <c r="V16" s="38"/>
       <c r="W16" s="38"/>
@@ -2124,7 +2065,7 @@
     </row>
     <row r="17" spans="1:200" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B17" s="26">
         <f>B15-B16</f>
@@ -2148,63 +2089,63 @@
       </c>
       <c r="G17" s="23">
         <f>G15*F30</f>
-        <v>3562.6547249999999</v>
+        <v>2043.9969185475686</v>
       </c>
       <c r="H17" s="23">
-        <f t="shared" ref="H17:U17" si="8">H15*G30</f>
-        <v>4542.3847743750002</v>
+        <f t="shared" ref="H17:U17" si="6">H15*G30</f>
+        <v>3065.995377821353</v>
       </c>
       <c r="I17" s="23">
-        <f t="shared" si="8"/>
-        <v>5791.5405873281252</v>
+        <f t="shared" si="6"/>
+        <v>4445.6932978409623</v>
       </c>
       <c r="J17" s="23">
-        <f t="shared" si="8"/>
-        <v>7384.2142488433601</v>
+        <f t="shared" si="6"/>
+        <v>6223.9706169773463</v>
       </c>
       <c r="K17" s="23">
         <f>K15*J30</f>
-        <v>9414.8731672752838</v>
+        <v>8402.3603329194175</v>
       </c>
       <c r="L17" s="23">
-        <f t="shared" si="8"/>
-        <v>10356.360484002813</v>
+        <f t="shared" si="6"/>
+        <v>10082.832399503301</v>
       </c>
       <c r="M17" s="23">
-        <f t="shared" si="8"/>
-        <v>11391.996532403095</v>
+        <f t="shared" si="6"/>
+        <v>12099.398879403961</v>
       </c>
       <c r="N17" s="23">
-        <f t="shared" si="8"/>
-        <v>12531.196185643405</v>
+        <f t="shared" si="6"/>
+        <v>14519.278655284754</v>
       </c>
       <c r="O17" s="23">
-        <f t="shared" si="8"/>
-        <v>13784.315804207745</v>
+        <f t="shared" si="6"/>
+        <v>17423.134386341702</v>
       </c>
       <c r="P17" s="23">
-        <f t="shared" si="8"/>
-        <v>15162.747384628519</v>
+        <f t="shared" si="6"/>
+        <v>20907.761263610046</v>
       </c>
       <c r="Q17" s="23">
-        <f t="shared" si="8"/>
-        <v>15920.884753859946</v>
+        <f t="shared" si="6"/>
+        <v>22998.53738997105</v>
       </c>
       <c r="R17" s="23">
-        <f t="shared" si="8"/>
-        <v>16716.928991552944</v>
+        <f t="shared" si="6"/>
+        <v>25298.391128968153</v>
       </c>
       <c r="S17" s="23">
-        <f t="shared" si="8"/>
-        <v>17552.77544113059</v>
+        <f t="shared" si="6"/>
+        <v>27828.230241864971</v>
       </c>
       <c r="T17" s="23">
-        <f t="shared" si="8"/>
-        <v>18430.414213187123</v>
+        <f t="shared" si="6"/>
+        <v>30611.053266051473</v>
       </c>
       <c r="U17" s="23">
-        <f t="shared" si="8"/>
-        <v>19351.934923846478</v>
+        <f t="shared" si="6"/>
+        <v>33672.158592656619</v>
       </c>
       <c r="V17" s="38"/>
       <c r="W17" s="38"/>
@@ -2305,7 +2246,7 @@
     </row>
     <row r="18" spans="1:200" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B18" s="37">
         <v>100</v>
@@ -2317,70 +2258,71 @@
         <v>401</v>
       </c>
       <c r="E18" s="37">
+        <f>SUM(Reports!B8:E8)</f>
         <v>579</v>
       </c>
       <c r="F18" s="37">
         <v>977</v>
       </c>
       <c r="G18" s="23">
-        <f>F18*1.4</f>
-        <v>1367.8</v>
+        <f>SUM(Reports!J8:M8)</f>
+        <v>917.4</v>
       </c>
       <c r="H18" s="23">
-        <f t="shared" ref="H18:K18" si="9">G18*1.4</f>
-        <v>1914.9199999999998</v>
+        <f t="shared" ref="H18:K18" si="7">G18*1.4</f>
+        <v>1284.3599999999999</v>
       </c>
       <c r="I18" s="23">
+        <f t="shared" si="7"/>
+        <v>1798.1039999999998</v>
+      </c>
+      <c r="J18" s="23">
+        <f t="shared" si="7"/>
+        <v>2517.3455999999996</v>
+      </c>
+      <c r="K18" s="23">
+        <f t="shared" si="7"/>
+        <v>3524.2838399999991</v>
+      </c>
+      <c r="L18" s="23">
+        <f>K18*1.2</f>
+        <v>4229.1406079999988</v>
+      </c>
+      <c r="M18" s="23">
+        <f t="shared" ref="M18:U18" si="8">L18*1.2</f>
+        <v>5074.9687295999984</v>
+      </c>
+      <c r="N18" s="23">
+        <f t="shared" si="8"/>
+        <v>6089.9624755199975</v>
+      </c>
+      <c r="O18" s="23">
+        <f t="shared" si="8"/>
+        <v>7307.9549706239968</v>
+      </c>
+      <c r="P18" s="23">
+        <f t="shared" si="8"/>
+        <v>8769.5459647487951</v>
+      </c>
+      <c r="Q18" s="23">
+        <f>P18*1.1</f>
+        <v>9646.5005612236746</v>
+      </c>
+      <c r="R18" s="23">
+        <f t="shared" ref="R18:U18" si="9">Q18*1.1</f>
+        <v>10611.150617346042</v>
+      </c>
+      <c r="S18" s="23">
         <f t="shared" si="9"/>
-        <v>2680.8879999999995</v>
-      </c>
-      <c r="J18" s="23">
+        <v>11672.265679080647</v>
+      </c>
+      <c r="T18" s="23">
         <f t="shared" si="9"/>
-        <v>3753.243199999999</v>
-      </c>
-      <c r="K18" s="23">
+        <v>12839.492246988713</v>
+      </c>
+      <c r="U18" s="23">
         <f t="shared" si="9"/>
-        <v>5254.5404799999978</v>
-      </c>
-      <c r="L18" s="23">
-        <f>K18*0.9</f>
-        <v>4729.0864319999982</v>
-      </c>
-      <c r="M18" s="23">
-        <f t="shared" ref="M18:P18" si="10">L18*0.9</f>
-        <v>4256.1777887999988</v>
-      </c>
-      <c r="N18" s="23">
-        <f t="shared" si="10"/>
-        <v>3830.5600099199992</v>
-      </c>
-      <c r="O18" s="23">
-        <f t="shared" si="10"/>
-        <v>3447.5040089279992</v>
-      </c>
-      <c r="P18" s="23">
-        <f t="shared" si="10"/>
-        <v>3102.7536080351992</v>
-      </c>
-      <c r="Q18" s="23">
-        <f>P18*1.05</f>
-        <v>3257.8912884369593</v>
-      </c>
-      <c r="R18" s="23">
-        <f t="shared" ref="R18:U18" si="11">Q18*1.05</f>
-        <v>3420.7858528588072</v>
-      </c>
-      <c r="S18" s="23">
-        <f t="shared" si="11"/>
-        <v>3591.8251455017476</v>
-      </c>
-      <c r="T18" s="23">
-        <f t="shared" si="11"/>
-        <v>3771.4164027768352</v>
-      </c>
-      <c r="U18" s="23">
-        <f t="shared" si="11"/>
-        <v>3959.9872229156772</v>
+        <v>14123.441471687585</v>
       </c>
       <c r="V18" s="38"/>
       <c r="W18" s="38"/>
@@ -2481,7 +2423,7 @@
     </row>
     <row r="19" spans="1:200" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B19" s="37">
         <v>397</v>
@@ -2493,70 +2435,71 @@
         <v>872</v>
       </c>
       <c r="E19" s="37">
+        <f>SUM(Reports!B9:E9)</f>
         <v>1101</v>
       </c>
       <c r="F19" s="37">
         <v>1622</v>
       </c>
       <c r="G19" s="23">
-        <f>F19*1.2</f>
-        <v>1946.3999999999999</v>
+        <f>SUM(Reports!J9:M9)</f>
+        <v>763.5</v>
       </c>
       <c r="H19" s="23">
-        <f t="shared" ref="H19:K19" si="12">G19*1.2</f>
-        <v>2335.6799999999998</v>
+        <f t="shared" ref="H19:K19" si="10">G19*1.2</f>
+        <v>916.19999999999993</v>
       </c>
       <c r="I19" s="23">
+        <f t="shared" si="10"/>
+        <v>1099.4399999999998</v>
+      </c>
+      <c r="J19" s="23">
+        <f t="shared" si="10"/>
+        <v>1319.3279999999997</v>
+      </c>
+      <c r="K19" s="23">
+        <f t="shared" si="10"/>
+        <v>1583.1935999999996</v>
+      </c>
+      <c r="L19" s="23">
+        <f>K19*1.15</f>
+        <v>1820.6726399999993</v>
+      </c>
+      <c r="M19" s="23">
+        <f t="shared" ref="M19:P19" si="11">L19*1.15</f>
+        <v>2093.7735359999992</v>
+      </c>
+      <c r="N19" s="23">
+        <f t="shared" si="11"/>
+        <v>2407.8395663999991</v>
+      </c>
+      <c r="O19" s="23">
+        <f t="shared" si="11"/>
+        <v>2769.0155013599988</v>
+      </c>
+      <c r="P19" s="23">
+        <f t="shared" si="11"/>
+        <v>3184.3678265639983</v>
+      </c>
+      <c r="Q19" s="23">
+        <f>P19*1.1</f>
+        <v>3502.8046092203986</v>
+      </c>
+      <c r="R19" s="23">
+        <f t="shared" ref="R19:U19" si="12">Q19*1.1</f>
+        <v>3853.0850701424388</v>
+      </c>
+      <c r="S19" s="23">
         <f t="shared" si="12"/>
-        <v>2802.8159999999998</v>
-      </c>
-      <c r="J19" s="23">
+        <v>4238.393577156683</v>
+      </c>
+      <c r="T19" s="23">
         <f t="shared" si="12"/>
-        <v>3363.3791999999999</v>
-      </c>
-      <c r="K19" s="23">
+        <v>4662.2329348723515</v>
+      </c>
+      <c r="U19" s="23">
         <f t="shared" si="12"/>
-        <v>4036.0550399999997</v>
-      </c>
-      <c r="L19" s="23">
-        <f>K19*0.95</f>
-        <v>3834.2522879999997</v>
-      </c>
-      <c r="M19" s="23">
-        <f t="shared" ref="M19:P19" si="13">L19*0.95</f>
-        <v>3642.5396735999993</v>
-      </c>
-      <c r="N19" s="23">
-        <f t="shared" si="13"/>
-        <v>3460.4126899199991</v>
-      </c>
-      <c r="O19" s="23">
-        <f t="shared" si="13"/>
-        <v>3287.392055423999</v>
-      </c>
-      <c r="P19" s="23">
-        <f t="shared" si="13"/>
-        <v>3123.0224526527991</v>
-      </c>
-      <c r="Q19" s="23">
-        <f t="shared" ref="Q19:U19" si="14">P19*0.98</f>
-        <v>3060.5620035997431</v>
-      </c>
-      <c r="R19" s="23">
-        <f t="shared" si="14"/>
-        <v>2999.3507635277483</v>
-      </c>
-      <c r="S19" s="23">
-        <f t="shared" si="14"/>
-        <v>2939.3637482571935</v>
-      </c>
-      <c r="T19" s="23">
-        <f t="shared" si="14"/>
-        <v>2880.5764732920497</v>
-      </c>
-      <c r="U19" s="23">
-        <f t="shared" si="14"/>
-        <v>2822.9649438262086</v>
+        <v>5128.4562283595869</v>
       </c>
       <c r="V19" s="38"/>
       <c r="W19" s="38"/>
@@ -2657,7 +2600,7 @@
     </row>
     <row r="20" spans="1:200" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B20" s="37">
         <v>138</v>
@@ -2669,70 +2612,71 @@
         <v>327</v>
       </c>
       <c r="E20" s="37">
-        <v>479</v>
+        <f>SUM(Reports!B10:E10)</f>
+        <v>480</v>
       </c>
       <c r="F20" s="37">
         <v>697</v>
       </c>
       <c r="G20" s="23">
-        <f>F20*1.2</f>
-        <v>836.4</v>
+        <f>SUM(Reports!J10:M10)</f>
+        <v>786.7</v>
       </c>
       <c r="H20" s="23">
-        <f t="shared" ref="H20:K20" si="15">G20*1.2</f>
-        <v>1003.68</v>
+        <f t="shared" ref="H20:K20" si="13">G20*1.2</f>
+        <v>944.04</v>
       </c>
       <c r="I20" s="23">
+        <f t="shared" si="13"/>
+        <v>1132.848</v>
+      </c>
+      <c r="J20" s="23">
+        <f t="shared" si="13"/>
+        <v>1359.4176</v>
+      </c>
+      <c r="K20" s="23">
+        <f t="shared" si="13"/>
+        <v>1631.3011199999999</v>
+      </c>
+      <c r="L20" s="23">
+        <f>K20*1.15</f>
+        <v>1875.9962879999996</v>
+      </c>
+      <c r="M20" s="23">
+        <f t="shared" ref="M20:P20" si="14">L20*1.15</f>
+        <v>2157.3957311999993</v>
+      </c>
+      <c r="N20" s="23">
+        <f t="shared" si="14"/>
+        <v>2481.005090879999</v>
+      </c>
+      <c r="O20" s="23">
+        <f t="shared" si="14"/>
+        <v>2853.1558545119988</v>
+      </c>
+      <c r="P20" s="23">
+        <f t="shared" si="14"/>
+        <v>3281.1292326887983</v>
+      </c>
+      <c r="Q20" s="23">
+        <f>P20*1.05</f>
+        <v>3445.1856943232383</v>
+      </c>
+      <c r="R20" s="23">
+        <f t="shared" ref="R20:U20" si="15">Q20*1.05</f>
+        <v>3617.4449790394006</v>
+      </c>
+      <c r="S20" s="23">
         <f t="shared" si="15"/>
-        <v>1204.4159999999999</v>
-      </c>
-      <c r="J20" s="23">
+        <v>3798.3172279913706</v>
+      </c>
+      <c r="T20" s="23">
         <f t="shared" si="15"/>
-        <v>1445.2991999999999</v>
-      </c>
-      <c r="K20" s="23">
+        <v>3988.2330893909393</v>
+      </c>
+      <c r="U20" s="23">
         <f t="shared" si="15"/>
-        <v>1734.3590399999998</v>
-      </c>
-      <c r="L20" s="23">
-        <f t="shared" ref="L20:U20" si="16">K20*0.98</f>
-        <v>1699.6718591999997</v>
-      </c>
-      <c r="M20" s="23">
-        <f t="shared" si="16"/>
-        <v>1665.6784220159998</v>
-      </c>
-      <c r="N20" s="23">
-        <f t="shared" si="16"/>
-        <v>1632.3648535756797</v>
-      </c>
-      <c r="O20" s="23">
-        <f t="shared" si="16"/>
-        <v>1599.7175565041662</v>
-      </c>
-      <c r="P20" s="23">
-        <f t="shared" si="16"/>
-        <v>1567.7232053740829</v>
-      </c>
-      <c r="Q20" s="23">
-        <f t="shared" si="16"/>
-        <v>1536.3687412666013</v>
-      </c>
-      <c r="R20" s="23">
-        <f t="shared" si="16"/>
-        <v>1505.6413664412692</v>
-      </c>
-      <c r="S20" s="23">
-        <f t="shared" si="16"/>
-        <v>1475.5285391124437</v>
-      </c>
-      <c r="T20" s="23">
-        <f t="shared" si="16"/>
-        <v>1446.0179683301949</v>
-      </c>
-      <c r="U20" s="23">
-        <f t="shared" si="16"/>
-        <v>1417.097608963591</v>
+        <v>4187.6447438604864</v>
       </c>
       <c r="V20" s="38"/>
       <c r="W20" s="38"/>
@@ -2833,7 +2777,7 @@
     </row>
     <row r="21" spans="1:200" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B21" s="26">
         <f>SUM(B18:B20)</f>
@@ -2849,71 +2793,71 @@
       </c>
       <c r="E21" s="26">
         <f>SUM(E18:E20)</f>
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="F21" s="26">
         <f>SUM(F18:F20)</f>
         <v>3296</v>
       </c>
       <c r="G21" s="23">
-        <f t="shared" ref="G21:H21" si="17">SUM(G18:G20)</f>
-        <v>4150.5999999999995</v>
+        <f t="shared" ref="G21:H21" si="16">SUM(G18:G20)</f>
+        <v>2467.6000000000004</v>
       </c>
       <c r="H21" s="23">
+        <f t="shared" si="16"/>
+        <v>3144.6</v>
+      </c>
+      <c r="I21" s="23">
+        <f t="shared" ref="I21:P21" si="17">SUM(I18:I20)</f>
+        <v>4030.3919999999998</v>
+      </c>
+      <c r="J21" s="23">
         <f t="shared" si="17"/>
-        <v>5254.28</v>
-      </c>
-      <c r="I21" s="23">
-        <f t="shared" ref="I21:P21" si="18">SUM(I18:I20)</f>
-        <v>6688.12</v>
-      </c>
-      <c r="J21" s="23">
+        <v>5196.0911999999989</v>
+      </c>
+      <c r="K21" s="23">
+        <f t="shared" si="17"/>
+        <v>6738.7785599999988</v>
+      </c>
+      <c r="L21" s="23">
+        <f t="shared" si="17"/>
+        <v>7925.8095359999979</v>
+      </c>
+      <c r="M21" s="23">
+        <f t="shared" si="17"/>
+        <v>9326.1379967999965</v>
+      </c>
+      <c r="N21" s="23">
+        <f t="shared" si="17"/>
+        <v>10978.807132799995</v>
+      </c>
+      <c r="O21" s="23">
+        <f t="shared" si="17"/>
+        <v>12930.126326495994</v>
+      </c>
+      <c r="P21" s="23">
+        <f t="shared" si="17"/>
+        <v>15235.04302400159</v>
+      </c>
+      <c r="Q21" s="23">
+        <f t="shared" ref="Q21:U21" si="18">SUM(Q18:Q20)</f>
+        <v>16594.490864767311</v>
+      </c>
+      <c r="R21" s="23">
         <f t="shared" si="18"/>
-        <v>8561.9215999999979</v>
-      </c>
-      <c r="K21" s="23">
+        <v>18081.680666527882</v>
+      </c>
+      <c r="S21" s="23">
         <f t="shared" si="18"/>
-        <v>11024.954559999996</v>
-      </c>
-      <c r="L21" s="23">
+        <v>19708.9764842287</v>
+      </c>
+      <c r="T21" s="23">
         <f t="shared" si="18"/>
-        <v>10263.010579199998</v>
-      </c>
-      <c r="M21" s="23">
+        <v>21489.958271252002</v>
+      </c>
+      <c r="U21" s="23">
         <f t="shared" si="18"/>
-        <v>9564.395884415997</v>
-      </c>
-      <c r="N21" s="23">
-        <f t="shared" si="18"/>
-        <v>8923.3375534156785</v>
-      </c>
-      <c r="O21" s="23">
-        <f t="shared" si="18"/>
-        <v>8334.6136208561657</v>
-      </c>
-      <c r="P21" s="23">
-        <f t="shared" si="18"/>
-        <v>7793.499266062081</v>
-      </c>
-      <c r="Q21" s="23">
-        <f t="shared" ref="Q21:U21" si="19">SUM(Q18:Q20)</f>
-        <v>7854.8220333033032</v>
-      </c>
-      <c r="R21" s="23">
-        <f t="shared" si="19"/>
-        <v>7925.7779828278244</v>
-      </c>
-      <c r="S21" s="23">
-        <f t="shared" si="19"/>
-        <v>8006.7174328713845</v>
-      </c>
-      <c r="T21" s="23">
-        <f t="shared" si="19"/>
-        <v>8098.0108443990803</v>
-      </c>
-      <c r="U21" s="23">
-        <f t="shared" si="19"/>
-        <v>8200.0497757054763</v>
+        <v>23439.54244390766</v>
       </c>
       <c r="V21" s="38"/>
       <c r="W21" s="38"/>
@@ -3014,7 +2958,7 @@
     </row>
     <row r="22" spans="1:200" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B22" s="26">
         <f>B17-B21</f>
@@ -3030,71 +2974,71 @@
       </c>
       <c r="E22" s="26">
         <f>E17-E21</f>
-        <v>19.985000000000127</v>
+        <v>18.985000000000127</v>
       </c>
       <c r="F22" s="26">
         <f>F17-F21</f>
         <v>-501.76100000000042</v>
       </c>
       <c r="G22" s="23">
-        <f t="shared" ref="G22:H22" si="20">G17-G21</f>
-        <v>-587.94527499999958</v>
+        <f t="shared" ref="G22:H22" si="19">G17-G21</f>
+        <v>-423.60308145243175</v>
       </c>
       <c r="H22" s="23">
+        <f t="shared" si="19"/>
+        <v>-78.604622178646878</v>
+      </c>
+      <c r="I22" s="23">
+        <f t="shared" ref="I22:P22" si="20">I17-I21</f>
+        <v>415.30129784096243</v>
+      </c>
+      <c r="J22" s="23">
         <f t="shared" si="20"/>
-        <v>-711.89522562499951</v>
-      </c>
-      <c r="I22" s="23">
-        <f t="shared" ref="I22:P22" si="21">I17-I21</f>
-        <v>-896.57941267187471</v>
-      </c>
-      <c r="J22" s="23">
+        <v>1027.8794169773473</v>
+      </c>
+      <c r="K22" s="23">
+        <f t="shared" si="20"/>
+        <v>1663.5817729194187</v>
+      </c>
+      <c r="L22" s="23">
+        <f t="shared" si="20"/>
+        <v>2157.0228635033027</v>
+      </c>
+      <c r="M22" s="23">
+        <f t="shared" si="20"/>
+        <v>2773.260882603965</v>
+      </c>
+      <c r="N22" s="23">
+        <f t="shared" si="20"/>
+        <v>3540.4715224847587</v>
+      </c>
+      <c r="O22" s="23">
+        <f t="shared" si="20"/>
+        <v>4493.008059845708</v>
+      </c>
+      <c r="P22" s="23">
+        <f t="shared" si="20"/>
+        <v>5672.7182396084554</v>
+      </c>
+      <c r="Q22" s="23">
+        <f t="shared" ref="Q22:U22" si="21">Q17-Q21</f>
+        <v>6404.0465252037393</v>
+      </c>
+      <c r="R22" s="23">
         <f t="shared" si="21"/>
-        <v>-1177.7073511566377</v>
-      </c>
-      <c r="K22" s="23">
+        <v>7216.7104624402709</v>
+      </c>
+      <c r="S22" s="23">
         <f t="shared" si="21"/>
-        <v>-1610.0813927247127</v>
-      </c>
-      <c r="L22" s="23">
+        <v>8119.2537576362702</v>
+      </c>
+      <c r="T22" s="23">
         <f t="shared" si="21"/>
-        <v>93.349904802815217</v>
-      </c>
-      <c r="M22" s="23">
+        <v>9121.0949947994704</v>
+      </c>
+      <c r="U22" s="23">
         <f t="shared" si="21"/>
-        <v>1827.6006479870975</v>
-      </c>
-      <c r="N22" s="23">
-        <f t="shared" si="21"/>
-        <v>3607.858632227726</v>
-      </c>
-      <c r="O22" s="23">
-        <f t="shared" si="21"/>
-        <v>5449.7021833515792</v>
-      </c>
-      <c r="P22" s="23">
-        <f t="shared" si="21"/>
-        <v>7369.2481185664383</v>
-      </c>
-      <c r="Q22" s="23">
-        <f t="shared" ref="Q22:U22" si="22">Q17-Q21</f>
-        <v>8066.0627205566425</v>
-      </c>
-      <c r="R22" s="23">
-        <f t="shared" si="22"/>
-        <v>8791.151008725119</v>
-      </c>
-      <c r="S22" s="23">
-        <f t="shared" si="22"/>
-        <v>9546.058008259206</v>
-      </c>
-      <c r="T22" s="23">
-        <f t="shared" si="22"/>
-        <v>10332.403368788044</v>
-      </c>
-      <c r="U22" s="23">
-        <f t="shared" si="22"/>
-        <v>11151.885148141002</v>
+        <v>10232.616148748959</v>
       </c>
       <c r="V22" s="38"/>
       <c r="W22" s="38"/>
@@ -3195,7 +3139,7 @@
     </row>
     <row r="23" spans="1:200" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B23" s="37">
         <f>4-8-3</f>
@@ -3209,73 +3153,73 @@
         <f>32-16+7</f>
         <v>23</v>
       </c>
-      <c r="E23" s="23">
-        <f>67-26-12</f>
-        <v>29</v>
+      <c r="E23" s="37">
+        <f>SUM(Reports!B13:E13)</f>
+        <v>28</v>
       </c>
       <c r="F23" s="37">
         <f>86-10+14</f>
         <v>90</v>
       </c>
       <c r="G23" s="23">
-        <f t="shared" ref="G23:U23" si="23">F40*$F$3</f>
-        <v>0</v>
+        <f>SUM(Reports!J13:M13)</f>
+        <v>-308</v>
       </c>
       <c r="H23" s="23">
-        <f t="shared" si="23"/>
-        <v>-10.583014949999992</v>
+        <f t="shared" ref="G23:U23" si="22">G40*$F$3</f>
+        <v>46.544349400629571</v>
       </c>
       <c r="I23" s="23">
-        <f t="shared" si="23"/>
-        <v>-23.58762328034998</v>
+        <f t="shared" si="22"/>
+        <v>45.967264490625261</v>
       </c>
       <c r="J23" s="23">
-        <f t="shared" si="23"/>
-        <v>-40.15062992749003</v>
+        <f t="shared" si="22"/>
+        <v>54.270098612593841</v>
       </c>
       <c r="K23" s="23">
-        <f t="shared" si="23"/>
-        <v>-62.072073587004326</v>
+        <f t="shared" si="22"/>
+        <v>73.748789893212788</v>
       </c>
       <c r="L23" s="23">
-        <f t="shared" si="23"/>
-        <v>-92.170835980615237</v>
+        <f t="shared" si="22"/>
+        <v>105.02074002384016</v>
       </c>
       <c r="M23" s="23">
-        <f t="shared" si="23"/>
-        <v>-92.149612741815631</v>
+        <f t="shared" si="22"/>
+        <v>145.73752488732873</v>
       </c>
       <c r="N23" s="23">
-        <f t="shared" si="23"/>
-        <v>-60.911494107400557</v>
+        <f t="shared" si="22"/>
+        <v>198.27949622217201</v>
       </c>
       <c r="O23" s="23">
-        <f t="shared" si="23"/>
-        <v>2.9335543787653022</v>
+        <f t="shared" si="22"/>
+        <v>265.57701455889679</v>
       </c>
       <c r="P23" s="23">
-        <f t="shared" si="23"/>
-        <v>101.08099765791151</v>
+        <f t="shared" si="22"/>
+        <v>351.2315458981796</v>
       </c>
       <c r="Q23" s="23">
-        <f t="shared" si="23"/>
-        <v>235.5469217499498</v>
+        <f t="shared" si="22"/>
+        <v>459.66264203729901</v>
       </c>
       <c r="R23" s="23">
-        <f t="shared" si="23"/>
-        <v>384.97589531146849</v>
+        <f t="shared" si="22"/>
+        <v>583.20940704763768</v>
       </c>
       <c r="S23" s="23">
-        <f t="shared" si="23"/>
-        <v>550.14617958412714</v>
+        <f t="shared" si="22"/>
+        <v>723.60796469842001</v>
       </c>
       <c r="T23" s="23">
-        <f t="shared" si="23"/>
-        <v>731.87785496530705</v>
+        <f t="shared" si="22"/>
+        <v>882.77947570044432</v>
       </c>
       <c r="U23" s="23">
-        <f t="shared" si="23"/>
-        <v>931.03491699286735</v>
+        <f t="shared" si="22"/>
+        <v>1062.8492161694428</v>
       </c>
       <c r="V23" s="38"/>
       <c r="W23" s="38"/>
@@ -3376,7 +3320,7 @@
     </row>
     <row r="24" spans="1:200" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B24" s="26">
         <f>B22+B23</f>
@@ -3392,71 +3336,71 @@
       </c>
       <c r="E24" s="26">
         <f>E22+E23</f>
-        <v>48.985000000000127</v>
+        <v>46.985000000000127</v>
       </c>
       <c r="F24" s="26">
         <f>F22+F23</f>
         <v>-411.76100000000042</v>
       </c>
       <c r="G24" s="23">
-        <f t="shared" ref="G24:H24" si="24">G22+G23</f>
-        <v>-587.94527499999958</v>
+        <f t="shared" ref="G24:H24" si="23">G22+G23</f>
+        <v>-731.60308145243175</v>
       </c>
       <c r="H24" s="23">
-        <f t="shared" si="24"/>
-        <v>-722.47824057499952</v>
+        <f t="shared" si="23"/>
+        <v>-32.060272778017307</v>
       </c>
       <c r="I24" s="23">
-        <f t="shared" ref="I24" si="25">I22+I23</f>
-        <v>-920.16703595222464</v>
+        <f t="shared" ref="I24" si="24">I22+I23</f>
+        <v>461.2685623315877</v>
       </c>
       <c r="J24" s="23">
-        <f t="shared" ref="J24" si="26">J22+J23</f>
-        <v>-1217.8579810841277</v>
+        <f t="shared" ref="J24" si="25">J22+J23</f>
+        <v>1082.1495155899411</v>
       </c>
       <c r="K24" s="23">
-        <f t="shared" ref="K24" si="27">K22+K23</f>
-        <v>-1672.153466311717</v>
+        <f t="shared" ref="K24" si="26">K22+K23</f>
+        <v>1737.3305628126313</v>
       </c>
       <c r="L24" s="23">
-        <f t="shared" ref="L24" si="28">L22+L23</f>
-        <v>1.1790688221999801</v>
+        <f t="shared" ref="L24" si="27">L22+L23</f>
+        <v>2262.0436035271427</v>
       </c>
       <c r="M24" s="23">
-        <f t="shared" ref="M24" si="29">M22+M23</f>
-        <v>1735.4510352452819</v>
+        <f t="shared" ref="M24" si="28">M22+M23</f>
+        <v>2918.9984074912936</v>
       </c>
       <c r="N24" s="23">
-        <f t="shared" ref="N24" si="30">N22+N23</f>
-        <v>3546.9471381203257</v>
+        <f t="shared" ref="N24" si="29">N22+N23</f>
+        <v>3738.7510187069306</v>
       </c>
       <c r="O24" s="23">
-        <f t="shared" ref="O24" si="31">O22+O23</f>
-        <v>5452.6357377303448</v>
+        <f t="shared" ref="O24" si="30">O22+O23</f>
+        <v>4758.5850744046047</v>
       </c>
       <c r="P24" s="23">
-        <f t="shared" ref="P24:Q24" si="32">P22+P23</f>
-        <v>7470.3291162243495</v>
+        <f t="shared" ref="P24:Q24" si="31">P22+P23</f>
+        <v>6023.9497855066347</v>
       </c>
       <c r="Q24" s="23">
+        <f t="shared" si="31"/>
+        <v>6863.7091672410379</v>
+      </c>
+      <c r="R24" s="23">
+        <f t="shared" ref="R24:U24" si="32">R22+R23</f>
+        <v>7799.9198694879087</v>
+      </c>
+      <c r="S24" s="23">
         <f t="shared" si="32"/>
-        <v>8301.6096423065919</v>
-      </c>
-      <c r="R24" s="23">
-        <f t="shared" ref="R24:U24" si="33">R22+R23</f>
-        <v>9176.1269040365878</v>
-      </c>
-      <c r="S24" s="23">
-        <f t="shared" si="33"/>
-        <v>10096.204187843334</v>
+        <v>8842.8617223346901</v>
       </c>
       <c r="T24" s="23">
-        <f t="shared" si="33"/>
-        <v>11064.281223753351</v>
+        <f t="shared" si="32"/>
+        <v>10003.874470499915</v>
       </c>
       <c r="U24" s="23">
-        <f t="shared" si="33"/>
-        <v>12082.920065133869</v>
+        <f t="shared" si="32"/>
+        <v>11295.465364918402</v>
       </c>
       <c r="V24" s="38"/>
       <c r="W24" s="38"/>
@@ -3557,7 +3501,7 @@
     </row>
     <row r="25" spans="1:200" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B25" s="37">
         <v>5</v>
@@ -3568,71 +3512,72 @@
       <c r="D25" s="37">
         <v>11</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="37">
+        <f>SUM(Reports!B15:E15)</f>
         <v>64</v>
       </c>
       <c r="F25" s="37">
         <v>263</v>
       </c>
       <c r="G25" s="23">
-        <f>G24*0.1</f>
-        <v>-58.794527499999958</v>
+        <f>SUM(Reports!J15:M15)</f>
+        <v>15.179448516089817</v>
       </c>
       <c r="H25" s="23">
-        <f t="shared" ref="H25:P25" si="34">H24*0.1</f>
-        <v>-72.247824057499955</v>
+        <f t="shared" ref="H25:P25" si="33">H24*0.1</f>
+        <v>-3.2060272778017307</v>
       </c>
       <c r="I25" s="23">
+        <f t="shared" si="33"/>
+        <v>46.126856233158776</v>
+      </c>
+      <c r="J25" s="23">
+        <f t="shared" si="33"/>
+        <v>108.21495155899412</v>
+      </c>
+      <c r="K25" s="23">
+        <f t="shared" si="33"/>
+        <v>173.73305628126315</v>
+      </c>
+      <c r="L25" s="23">
+        <f t="shared" si="33"/>
+        <v>226.20436035271427</v>
+      </c>
+      <c r="M25" s="23">
+        <f t="shared" si="33"/>
+        <v>291.8998407491294</v>
+      </c>
+      <c r="N25" s="23">
+        <f t="shared" si="33"/>
+        <v>373.87510187069307</v>
+      </c>
+      <c r="O25" s="23">
+        <f t="shared" si="33"/>
+        <v>475.85850744046047</v>
+      </c>
+      <c r="P25" s="23">
+        <f t="shared" si="33"/>
+        <v>602.3949785506635</v>
+      </c>
+      <c r="Q25" s="23">
+        <f t="shared" ref="Q25:U25" si="34">Q24*0.1</f>
+        <v>686.37091672410384</v>
+      </c>
+      <c r="R25" s="23">
         <f t="shared" si="34"/>
-        <v>-92.016703595222467</v>
-      </c>
-      <c r="J25" s="23">
+        <v>779.9919869487909</v>
+      </c>
+      <c r="S25" s="23">
         <f t="shared" si="34"/>
-        <v>-121.78579810841278</v>
-      </c>
-      <c r="K25" s="23">
+        <v>884.28617223346907</v>
+      </c>
+      <c r="T25" s="23">
         <f t="shared" si="34"/>
-        <v>-167.21534663117171</v>
-      </c>
-      <c r="L25" s="23">
+        <v>1000.3874470499916</v>
+      </c>
+      <c r="U25" s="23">
         <f t="shared" si="34"/>
-        <v>0.11790688221999801</v>
-      </c>
-      <c r="M25" s="23">
-        <f t="shared" si="34"/>
-        <v>173.5451035245282</v>
-      </c>
-      <c r="N25" s="23">
-        <f t="shared" si="34"/>
-        <v>354.6947138120326</v>
-      </c>
-      <c r="O25" s="23">
-        <f t="shared" si="34"/>
-        <v>545.26357377303452</v>
-      </c>
-      <c r="P25" s="23">
-        <f t="shared" si="34"/>
-        <v>747.03291162243499</v>
-      </c>
-      <c r="Q25" s="23">
-        <f t="shared" ref="Q25:U25" si="35">Q24*0.1</f>
-        <v>830.16096423065926</v>
-      </c>
-      <c r="R25" s="23">
-        <f t="shared" si="35"/>
-        <v>917.6126904036588</v>
-      </c>
-      <c r="S25" s="23">
-        <f t="shared" si="35"/>
-        <v>1009.6204187843334</v>
-      </c>
-      <c r="T25" s="23">
-        <f t="shared" si="35"/>
-        <v>1106.4281223753351</v>
-      </c>
-      <c r="U25" s="23">
-        <f t="shared" si="35"/>
-        <v>1208.2920065133869</v>
+        <v>1129.5465364918402</v>
       </c>
       <c r="V25" s="38"/>
       <c r="W25" s="38"/>
@@ -3733,7 +3678,7 @@
     </row>
     <row r="26" spans="1:200" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B26" s="24">
         <f>B24-B25</f>
@@ -3749,872 +3694,872 @@
       </c>
       <c r="E26" s="24">
         <f>E24-E25</f>
-        <v>-15.014999999999873</v>
+        <v>-17.014999999999873</v>
       </c>
       <c r="F26" s="24">
-        <f t="shared" ref="F26:H26" si="36">F24-F25</f>
+        <f t="shared" ref="F26:H26" si="35">F24-F25</f>
         <v>-674.76100000000042</v>
       </c>
       <c r="G26" s="24">
         <f>G24-G25</f>
-        <v>-529.15074749999962</v>
+        <v>-746.78252996852154</v>
       </c>
       <c r="H26" s="24">
+        <f t="shared" si="35"/>
+        <v>-28.854245500215576</v>
+      </c>
+      <c r="I26" s="24">
+        <f t="shared" ref="I26:P26" si="36">I24-I25</f>
+        <v>415.14170609842893</v>
+      </c>
+      <c r="J26" s="24">
         <f t="shared" si="36"/>
-        <v>-650.23041651749952</v>
-      </c>
-      <c r="I26" s="24">
-        <f t="shared" ref="I26:P26" si="37">I24-I25</f>
-        <v>-828.15033235700218</v>
-      </c>
-      <c r="J26" s="24">
+        <v>973.93456403094694</v>
+      </c>
+      <c r="K26" s="24">
+        <f t="shared" si="36"/>
+        <v>1563.5975065313683</v>
+      </c>
+      <c r="L26" s="24">
+        <f t="shared" si="36"/>
+        <v>2035.8392431744285</v>
+      </c>
+      <c r="M26" s="24">
+        <f t="shared" si="36"/>
+        <v>2627.0985667421642</v>
+      </c>
+      <c r="N26" s="24">
+        <f t="shared" si="36"/>
+        <v>3364.8759168362376</v>
+      </c>
+      <c r="O26" s="24">
+        <f t="shared" si="36"/>
+        <v>4282.7265669641438</v>
+      </c>
+      <c r="P26" s="24">
+        <f t="shared" si="36"/>
+        <v>5421.5548069559709</v>
+      </c>
+      <c r="Q26" s="24">
+        <f t="shared" ref="Q26:U26" si="37">Q24-Q25</f>
+        <v>6177.3382505169338</v>
+      </c>
+      <c r="R26" s="24">
         <f t="shared" si="37"/>
-        <v>-1096.0721829757149</v>
-      </c>
-      <c r="K26" s="24">
+        <v>7019.9278825391175</v>
+      </c>
+      <c r="S26" s="24">
         <f t="shared" si="37"/>
-        <v>-1504.9381196805452</v>
-      </c>
-      <c r="L26" s="24">
+        <v>7958.5755501012209</v>
+      </c>
+      <c r="T26" s="24">
         <f t="shared" si="37"/>
-        <v>1.0611619399799821</v>
-      </c>
-      <c r="M26" s="24">
+        <v>9003.4870234499231</v>
+      </c>
+      <c r="U26" s="24">
         <f t="shared" si="37"/>
-        <v>1561.9059317207536</v>
-      </c>
-      <c r="N26" s="24">
-        <f t="shared" si="37"/>
-        <v>3192.252424308293</v>
-      </c>
-      <c r="O26" s="24">
-        <f t="shared" si="37"/>
-        <v>4907.3721639573105</v>
-      </c>
-      <c r="P26" s="24">
-        <f t="shared" si="37"/>
-        <v>6723.2962046019147</v>
-      </c>
-      <c r="Q26" s="24">
-        <f t="shared" ref="Q26:U26" si="38">Q24-Q25</f>
-        <v>7471.4486780759325</v>
-      </c>
-      <c r="R26" s="24">
+        <v>10165.918828426562</v>
+      </c>
+      <c r="V26" s="24">
+        <f t="shared" ref="V26:BA26" si="38">U26*($F$2+1)</f>
+        <v>10216.748422568693</v>
+      </c>
+      <c r="W26" s="24">
         <f t="shared" si="38"/>
-        <v>8258.5142136329287</v>
-      </c>
-      <c r="S26" s="24">
+        <v>10267.832164681535</v>
+      </c>
+      <c r="X26" s="24">
         <f t="shared" si="38"/>
-        <v>9086.5837690589997</v>
-      </c>
-      <c r="T26" s="24">
+        <v>10319.171325504942</v>
+      </c>
+      <c r="Y26" s="24">
         <f t="shared" si="38"/>
-        <v>9957.8531013780157</v>
-      </c>
-      <c r="U26" s="24">
+        <v>10370.767182132466</v>
+      </c>
+      <c r="Z26" s="24">
         <f t="shared" si="38"/>
-        <v>10874.628058620481</v>
-      </c>
-      <c r="V26" s="24">
-        <f t="shared" ref="V26:BA26" si="39">U26*($F$2+1)</f>
-        <v>10765.881778034276</v>
-      </c>
-      <c r="W26" s="24">
+        <v>10422.621018043126</v>
+      </c>
+      <c r="AA26" s="24">
+        <f t="shared" si="38"/>
+        <v>10474.734123133341</v>
+      </c>
+      <c r="AB26" s="24">
+        <f t="shared" si="38"/>
+        <v>10527.107793749006</v>
+      </c>
+      <c r="AC26" s="24">
+        <f t="shared" si="38"/>
+        <v>10579.74333271775</v>
+      </c>
+      <c r="AD26" s="24">
+        <f t="shared" si="38"/>
+        <v>10632.642049381337</v>
+      </c>
+      <c r="AE26" s="24">
+        <f t="shared" si="38"/>
+        <v>10685.805259628241</v>
+      </c>
+      <c r="AF26" s="24">
+        <f t="shared" si="38"/>
+        <v>10739.234285926381</v>
+      </c>
+      <c r="AG26" s="24">
+        <f t="shared" si="38"/>
+        <v>10792.930457356011</v>
+      </c>
+      <c r="AH26" s="24">
+        <f t="shared" si="38"/>
+        <v>10846.89510964279</v>
+      </c>
+      <c r="AI26" s="24">
+        <f t="shared" si="38"/>
+        <v>10901.129585191004</v>
+      </c>
+      <c r="AJ26" s="24">
+        <f t="shared" si="38"/>
+        <v>10955.635233116958</v>
+      </c>
+      <c r="AK26" s="24">
+        <f t="shared" si="38"/>
+        <v>11010.413409282542</v>
+      </c>
+      <c r="AL26" s="24">
+        <f t="shared" si="38"/>
+        <v>11065.465476328955</v>
+      </c>
+      <c r="AM26" s="24">
+        <f t="shared" si="38"/>
+        <v>11120.792803710598</v>
+      </c>
+      <c r="AN26" s="24">
+        <f t="shared" si="38"/>
+        <v>11176.396767729149</v>
+      </c>
+      <c r="AO26" s="24">
+        <f t="shared" si="38"/>
+        <v>11232.278751567794</v>
+      </c>
+      <c r="AP26" s="24">
+        <f t="shared" si="38"/>
+        <v>11288.440145325632</v>
+      </c>
+      <c r="AQ26" s="24">
+        <f t="shared" si="38"/>
+        <v>11344.88234605226</v>
+      </c>
+      <c r="AR26" s="24">
+        <f t="shared" si="38"/>
+        <v>11401.60675778252</v>
+      </c>
+      <c r="AS26" s="24">
+        <f t="shared" si="38"/>
+        <v>11458.614791571432</v>
+      </c>
+      <c r="AT26" s="24">
+        <f t="shared" si="38"/>
+        <v>11515.907865529287</v>
+      </c>
+      <c r="AU26" s="24">
+        <f t="shared" si="38"/>
+        <v>11573.487404856933</v>
+      </c>
+      <c r="AV26" s="24">
+        <f t="shared" si="38"/>
+        <v>11631.354841881217</v>
+      </c>
+      <c r="AW26" s="24">
+        <f t="shared" si="38"/>
+        <v>11689.511616090622</v>
+      </c>
+      <c r="AX26" s="24">
+        <f t="shared" si="38"/>
+        <v>11747.959174171074</v>
+      </c>
+      <c r="AY26" s="24">
+        <f t="shared" si="38"/>
+        <v>11806.698970041927</v>
+      </c>
+      <c r="AZ26" s="24">
+        <f t="shared" si="38"/>
+        <v>11865.732464892135</v>
+      </c>
+      <c r="BA26" s="24">
+        <f t="shared" si="38"/>
+        <v>11925.061127216595</v>
+      </c>
+      <c r="BB26" s="24">
+        <f t="shared" ref="BB26:CG26" si="39">BA26*($F$2+1)</f>
+        <v>11984.686432852677</v>
+      </c>
+      <c r="BC26" s="24">
         <f t="shared" si="39"/>
-        <v>10658.222960253934</v>
-      </c>
-      <c r="X26" s="24">
+        <v>12044.609865016939</v>
+      </c>
+      <c r="BD26" s="24">
         <f t="shared" si="39"/>
-        <v>10551.640730651394</v>
-      </c>
-      <c r="Y26" s="24">
+        <v>12104.832914342021</v>
+      </c>
+      <c r="BE26" s="24">
         <f t="shared" si="39"/>
-        <v>10446.12432334488</v>
-      </c>
-      <c r="Z26" s="24">
+        <v>12165.35707891373</v>
+      </c>
+      <c r="BF26" s="24">
         <f t="shared" si="39"/>
-        <v>10341.663080111432</v>
-      </c>
-      <c r="AA26" s="24">
+        <v>12226.183864308297</v>
+      </c>
+      <c r="BG26" s="24">
         <f t="shared" si="39"/>
-        <v>10238.246449310318</v>
-      </c>
-      <c r="AB26" s="24">
+        <v>12287.314783629838</v>
+      </c>
+      <c r="BH26" s="24">
         <f t="shared" si="39"/>
-        <v>10135.863984817215</v>
-      </c>
-      <c r="AC26" s="24">
+        <v>12348.751357547986</v>
+      </c>
+      <c r="BI26" s="24">
         <f t="shared" si="39"/>
-        <v>10034.505344969042</v>
-      </c>
-      <c r="AD26" s="24">
+        <v>12410.495114335725</v>
+      </c>
+      <c r="BJ26" s="24">
         <f t="shared" si="39"/>
-        <v>9934.1602915193525</v>
-      </c>
-      <c r="AE26" s="24">
+        <v>12472.547589907403</v>
+      </c>
+      <c r="BK26" s="24">
         <f t="shared" si="39"/>
-        <v>9834.8186886041585</v>
-      </c>
-      <c r="AF26" s="24">
+        <v>12534.910327856938</v>
+      </c>
+      <c r="BL26" s="24">
         <f t="shared" si="39"/>
-        <v>9736.4705017181168</v>
-      </c>
-      <c r="AG26" s="24">
+        <v>12597.584879496222</v>
+      </c>
+      <c r="BM26" s="24">
         <f t="shared" si="39"/>
-        <v>9639.1057967009347</v>
-      </c>
-      <c r="AH26" s="24">
+        <v>12660.572803893701</v>
+      </c>
+      <c r="BN26" s="24">
         <f t="shared" si="39"/>
-        <v>9542.7147387339246</v>
-      </c>
-      <c r="AI26" s="24">
+        <v>12723.875667913169</v>
+      </c>
+      <c r="BO26" s="24">
         <f t="shared" si="39"/>
-        <v>9447.287591346585</v>
-      </c>
-      <c r="AJ26" s="24">
+        <v>12787.495046252734</v>
+      </c>
+      <c r="BP26" s="24">
         <f t="shared" si="39"/>
-        <v>9352.81471543312</v>
-      </c>
-      <c r="AK26" s="24">
+        <v>12851.432521483996</v>
+      </c>
+      <c r="BQ26" s="24">
         <f t="shared" si="39"/>
-        <v>9259.2865682787888</v>
-      </c>
-      <c r="AL26" s="24">
+        <v>12915.689684091414</v>
+      </c>
+      <c r="BR26" s="24">
         <f t="shared" si="39"/>
-        <v>9166.6937025960015</v>
-      </c>
-      <c r="AM26" s="24">
+        <v>12980.26813251187</v>
+      </c>
+      <c r="BS26" s="24">
         <f t="shared" si="39"/>
-        <v>9075.0267655700409</v>
-      </c>
-      <c r="AN26" s="24">
+        <v>13045.169473174428</v>
+      </c>
+      <c r="BT26" s="24">
         <f t="shared" si="39"/>
-        <v>8984.2764979143412</v>
-      </c>
-      <c r="AO26" s="24">
+        <v>13110.3953205403</v>
+      </c>
+      <c r="BU26" s="24">
         <f t="shared" si="39"/>
-        <v>8894.4337329351983</v>
-      </c>
-      <c r="AP26" s="24">
+        <v>13175.947297143</v>
+      </c>
+      <c r="BV26" s="24">
         <f t="shared" si="39"/>
-        <v>8805.4893956058459</v>
-      </c>
-      <c r="AQ26" s="24">
+        <v>13241.827033628713</v>
+      </c>
+      <c r="BW26" s="24">
         <f t="shared" si="39"/>
-        <v>8717.4345016497882</v>
-      </c>
-      <c r="AR26" s="24">
+        <v>13308.036168796856</v>
+      </c>
+      <c r="BX26" s="24">
         <f t="shared" si="39"/>
-        <v>8630.2601566332905</v>
-      </c>
-      <c r="AS26" s="24">
+        <v>13374.57634964084</v>
+      </c>
+      <c r="BY26" s="24">
         <f t="shared" si="39"/>
-        <v>8543.9575550669579</v>
-      </c>
-      <c r="AT26" s="24">
+        <v>13441.449231389042</v>
+      </c>
+      <c r="BZ26" s="24">
         <f t="shared" si="39"/>
-        <v>8458.5179795162876</v>
-      </c>
-      <c r="AU26" s="24">
+        <v>13508.656477545986</v>
+      </c>
+      <c r="CA26" s="24">
         <f t="shared" si="39"/>
-        <v>8373.932799721124</v>
-      </c>
-      <c r="AV26" s="24">
+        <v>13576.199759933716</v>
+      </c>
+      <c r="CB26" s="24">
         <f t="shared" si="39"/>
-        <v>8290.1934717239128</v>
-      </c>
-      <c r="AW26" s="24">
+        <v>13644.080758733382</v>
+      </c>
+      <c r="CC26" s="24">
         <f t="shared" si="39"/>
-        <v>8207.291537006673</v>
-      </c>
-      <c r="AX26" s="24">
+        <v>13712.301162527048</v>
+      </c>
+      <c r="CD26" s="24">
         <f t="shared" si="39"/>
-        <v>8125.2186216366063</v>
-      </c>
-      <c r="AY26" s="24">
+        <v>13780.862668339681</v>
+      </c>
+      <c r="CE26" s="24">
         <f t="shared" si="39"/>
-        <v>8043.9664354202405</v>
-      </c>
-      <c r="AZ26" s="24">
+        <v>13849.766981681378</v>
+      </c>
+      <c r="CF26" s="24">
         <f t="shared" si="39"/>
-        <v>7963.5267710660382</v>
-      </c>
-      <c r="BA26" s="24">
+        <v>13919.015816589783</v>
+      </c>
+      <c r="CG26" s="24">
         <f t="shared" si="39"/>
-        <v>7883.8915033553776</v>
-      </c>
-      <c r="BB26" s="24">
-        <f t="shared" ref="BB26:CG26" si="40">BA26*($F$2+1)</f>
-        <v>7805.0525883218234</v>
-      </c>
-      <c r="BC26" s="24">
+        <v>13988.610895672729</v>
+      </c>
+      <c r="CH26" s="24">
+        <f t="shared" ref="CH26:DM26" si="40">CG26*($F$2+1)</f>
+        <v>14058.553950151092</v>
+      </c>
+      <c r="CI26" s="24">
         <f t="shared" si="40"/>
-        <v>7727.0020624386052</v>
-      </c>
-      <c r="BD26" s="24">
+        <v>14128.846719901847</v>
+      </c>
+      <c r="CJ26" s="24">
         <f t="shared" si="40"/>
-        <v>7649.732041814219</v>
-      </c>
-      <c r="BE26" s="24">
+        <v>14199.490953501354</v>
+      </c>
+      <c r="CK26" s="24">
         <f t="shared" si="40"/>
-        <v>7573.2347213960766</v>
-      </c>
-      <c r="BF26" s="24">
+        <v>14270.488408268859</v>
+      </c>
+      <c r="CL26" s="24">
         <f t="shared" si="40"/>
-        <v>7497.502374182116</v>
-      </c>
-      <c r="BG26" s="24">
+        <v>14341.840850310202</v>
+      </c>
+      <c r="CM26" s="24">
         <f t="shared" si="40"/>
-        <v>7422.5273504402949</v>
-      </c>
-      <c r="BH26" s="24">
+        <v>14413.550054561751</v>
+      </c>
+      <c r="CN26" s="24">
         <f t="shared" si="40"/>
-        <v>7348.3020769358918</v>
-      </c>
-      <c r="BI26" s="24">
+        <v>14485.617804834557</v>
+      </c>
+      <c r="CO26" s="24">
         <f t="shared" si="40"/>
-        <v>7274.8190561665324</v>
-      </c>
-      <c r="BJ26" s="24">
+        <v>14558.045893858729</v>
+      </c>
+      <c r="CP26" s="24">
         <f t="shared" si="40"/>
-        <v>7202.0708656048673</v>
-      </c>
-      <c r="BK26" s="24">
+        <v>14630.836123328021</v>
+      </c>
+      <c r="CQ26" s="24">
         <f t="shared" si="40"/>
-        <v>7130.0501569488188</v>
-      </c>
-      <c r="BL26" s="24">
+        <v>14703.99030394466</v>
+      </c>
+      <c r="CR26" s="24">
         <f t="shared" si="40"/>
-        <v>7058.7496553793308</v>
-      </c>
-      <c r="BM26" s="24">
+        <v>14777.510255464382</v>
+      </c>
+      <c r="CS26" s="24">
         <f t="shared" si="40"/>
-        <v>6988.1621588255375</v>
-      </c>
-      <c r="BN26" s="24">
+        <v>14851.397806741703</v>
+      </c>
+      <c r="CT26" s="24">
         <f t="shared" si="40"/>
-        <v>6918.2805372372823</v>
-      </c>
-      <c r="BO26" s="24">
+        <v>14925.65479577541</v>
+      </c>
+      <c r="CU26" s="24">
         <f t="shared" si="40"/>
-        <v>6849.0977318649093</v>
-      </c>
-      <c r="BP26" s="24">
+        <v>15000.283069754285</v>
+      </c>
+      <c r="CV26" s="24">
         <f t="shared" si="40"/>
-        <v>6780.6067545462602</v>
-      </c>
-      <c r="BQ26" s="24">
+        <v>15075.284485103055</v>
+      </c>
+      <c r="CW26" s="24">
         <f t="shared" si="40"/>
-        <v>6712.8006870007976</v>
-      </c>
-      <c r="BR26" s="24">
+        <v>15150.660907528569</v>
+      </c>
+      <c r="CX26" s="24">
         <f t="shared" si="40"/>
-        <v>6645.6726801307896</v>
-      </c>
-      <c r="BS26" s="24">
+        <v>15226.414212066209</v>
+      </c>
+      <c r="CY26" s="24">
         <f t="shared" si="40"/>
-        <v>6579.2159533294816</v>
-      </c>
-      <c r="BT26" s="24">
+        <v>15302.546283126538</v>
+      </c>
+      <c r="CZ26" s="24">
         <f t="shared" si="40"/>
-        <v>6513.4237937961871</v>
-      </c>
-      <c r="BU26" s="24">
+        <v>15379.059014542168</v>
+      </c>
+      <c r="DA26" s="24">
         <f t="shared" si="40"/>
-        <v>6448.289555858225</v>
-      </c>
-      <c r="BV26" s="24">
+        <v>15455.954309614877</v>
+      </c>
+      <c r="DB26" s="24">
         <f t="shared" si="40"/>
-        <v>6383.8066602996423</v>
-      </c>
-      <c r="BW26" s="24">
+        <v>15533.234081162949</v>
+      </c>
+      <c r="DC26" s="24">
         <f t="shared" si="40"/>
-        <v>6319.9685936966462</v>
-      </c>
-      <c r="BX26" s="24">
+        <v>15610.900251568763</v>
+      </c>
+      <c r="DD26" s="24">
         <f t="shared" si="40"/>
-        <v>6256.7689077596797</v>
-      </c>
-      <c r="BY26" s="24">
+        <v>15688.954752826605</v>
+      </c>
+      <c r="DE26" s="24">
         <f t="shared" si="40"/>
-        <v>6194.201218682083</v>
-      </c>
-      <c r="BZ26" s="24">
+        <v>15767.399526590736</v>
+      </c>
+      <c r="DF26" s="24">
         <f t="shared" si="40"/>
-        <v>6132.2592064952623</v>
-      </c>
-      <c r="CA26" s="24">
+        <v>15846.236524223688</v>
+      </c>
+      <c r="DG26" s="24">
         <f t="shared" si="40"/>
-        <v>6070.9366144303094</v>
-      </c>
-      <c r="CB26" s="24">
+        <v>15925.467706844805</v>
+      </c>
+      <c r="DH26" s="24">
         <f t="shared" si="40"/>
-        <v>6010.2272482860062</v>
-      </c>
-      <c r="CC26" s="24">
+        <v>16005.095045379028</v>
+      </c>
+      <c r="DI26" s="24">
         <f t="shared" si="40"/>
-        <v>5950.1249758031463</v>
-      </c>
-      <c r="CD26" s="24">
+        <v>16085.120520605922</v>
+      </c>
+      <c r="DJ26" s="24">
         <f t="shared" si="40"/>
-        <v>5890.6237260451144</v>
-      </c>
-      <c r="CE26" s="24">
+        <v>16165.546123208949</v>
+      </c>
+      <c r="DK26" s="24">
         <f t="shared" si="40"/>
-        <v>5831.7174887846631</v>
-      </c>
-      <c r="CF26" s="24">
+        <v>16246.373853824993</v>
+      </c>
+      <c r="DL26" s="24">
         <f t="shared" si="40"/>
-        <v>5773.4003138968164</v>
-      </c>
-      <c r="CG26" s="24">
+        <v>16327.605723094115</v>
+      </c>
+      <c r="DM26" s="24">
         <f t="shared" si="40"/>
-        <v>5715.6663107578479</v>
-      </c>
-      <c r="CH26" s="24">
-        <f t="shared" ref="CH26:DM26" si="41">CG26*($F$2+1)</f>
-        <v>5658.5096476502695</v>
-      </c>
-      <c r="CI26" s="24">
+        <v>16409.243751709582</v>
+      </c>
+      <c r="DN26" s="24">
+        <f t="shared" ref="DN26:ES26" si="41">DM26*($F$2+1)</f>
+        <v>16491.289970468129</v>
+      </c>
+      <c r="DO26" s="24">
         <f t="shared" si="41"/>
-        <v>5601.9245511737663</v>
-      </c>
-      <c r="CJ26" s="24">
+        <v>16573.746420320469</v>
+      </c>
+      <c r="DP26" s="24">
         <f t="shared" si="41"/>
-        <v>5545.9053056620287</v>
-      </c>
-      <c r="CK26" s="24">
+        <v>16656.61515242207</v>
+      </c>
+      <c r="DQ26" s="24">
         <f t="shared" si="41"/>
-        <v>5490.4462526054085</v>
-      </c>
-      <c r="CL26" s="24">
+        <v>16739.898228184178</v>
+      </c>
+      <c r="DR26" s="24">
         <f t="shared" si="41"/>
-        <v>5435.5417900793545</v>
-      </c>
-      <c r="CM26" s="24">
+        <v>16823.597719325098</v>
+      </c>
+      <c r="DS26" s="24">
         <f t="shared" si="41"/>
-        <v>5381.1863721785612</v>
-      </c>
-      <c r="CN26" s="24">
+        <v>16907.715707921721</v>
+      </c>
+      <c r="DT26" s="24">
         <f t="shared" si="41"/>
-        <v>5327.3745084567754</v>
-      </c>
-      <c r="CO26" s="24">
+        <v>16992.254286461328</v>
+      </c>
+      <c r="DU26" s="24">
         <f t="shared" si="41"/>
-        <v>5274.1007633722074</v>
-      </c>
-      <c r="CP26" s="24">
+        <v>17077.215557893633</v>
+      </c>
+      <c r="DV26" s="24">
         <f t="shared" si="41"/>
-        <v>5221.3597557384855</v>
-      </c>
-      <c r="CQ26" s="24">
+        <v>17162.601635683099</v>
+      </c>
+      <c r="DW26" s="24">
         <f t="shared" si="41"/>
-        <v>5169.1461581811009</v>
-      </c>
-      <c r="CR26" s="24">
+        <v>17248.414643861513</v>
+      </c>
+      <c r="DX26" s="24">
         <f t="shared" si="41"/>
-        <v>5117.4546965992895</v>
-      </c>
-      <c r="CS26" s="24">
+        <v>17334.656717080819</v>
+      </c>
+      <c r="DY26" s="24">
         <f t="shared" si="41"/>
-        <v>5066.2801496332968</v>
-      </c>
-      <c r="CT26" s="24">
+        <v>17421.330000666221</v>
+      </c>
+      <c r="DZ26" s="24">
         <f t="shared" si="41"/>
-        <v>5015.6173481369642</v>
-      </c>
-      <c r="CU26" s="24">
+        <v>17508.436650669551</v>
+      </c>
+      <c r="EA26" s="24">
         <f t="shared" si="41"/>
-        <v>4965.4611746555947</v>
-      </c>
-      <c r="CV26" s="24">
+        <v>17595.978833922898</v>
+      </c>
+      <c r="EB26" s="24">
         <f t="shared" si="41"/>
-        <v>4915.8065629090388</v>
-      </c>
-      <c r="CW26" s="24">
+        <v>17683.958728092512</v>
+      </c>
+      <c r="EC26" s="24">
         <f t="shared" si="41"/>
-        <v>4866.6484972799481</v>
-      </c>
-      <c r="CX26" s="24">
+        <v>17772.378521732971</v>
+      </c>
+      <c r="ED26" s="24">
         <f t="shared" si="41"/>
-        <v>4817.9820123071486</v>
-      </c>
-      <c r="CY26" s="24">
+        <v>17861.240414341635</v>
+      </c>
+      <c r="EE26" s="24">
         <f t="shared" si="41"/>
-        <v>4769.8021921840773</v>
-      </c>
-      <c r="CZ26" s="24">
+        <v>17950.546616413343</v>
+      </c>
+      <c r="EF26" s="24">
         <f t="shared" si="41"/>
-        <v>4722.104170262236</v>
-      </c>
-      <c r="DA26" s="24">
+        <v>18040.299349495406</v>
+      </c>
+      <c r="EG26" s="24">
         <f t="shared" si="41"/>
-        <v>4674.8831285596134</v>
-      </c>
-      <c r="DB26" s="24">
+        <v>18130.500846242881</v>
+      </c>
+      <c r="EH26" s="24">
         <f t="shared" si="41"/>
-        <v>4628.1342972740176</v>
-      </c>
-      <c r="DC26" s="24">
+        <v>18221.153350474095</v>
+      </c>
+      <c r="EI26" s="24">
         <f t="shared" si="41"/>
-        <v>4581.8529543012774</v>
-      </c>
-      <c r="DD26" s="24">
+        <v>18312.259117226462</v>
+      </c>
+      <c r="EJ26" s="24">
         <f t="shared" si="41"/>
-        <v>4536.0344247582643</v>
-      </c>
-      <c r="DE26" s="24">
+        <v>18403.820412812591</v>
+      </c>
+      <c r="EK26" s="24">
         <f t="shared" si="41"/>
-        <v>4490.674080510682</v>
-      </c>
-      <c r="DF26" s="24">
+        <v>18495.83951487665</v>
+      </c>
+      <c r="EL26" s="24">
         <f t="shared" si="41"/>
-        <v>4445.7673397055751</v>
-      </c>
-      <c r="DG26" s="24">
+        <v>18588.318712451033</v>
+      </c>
+      <c r="EM26" s="24">
         <f t="shared" si="41"/>
-        <v>4401.3096663085189</v>
-      </c>
-      <c r="DH26" s="24">
+        <v>18681.260306013286</v>
+      </c>
+      <c r="EN26" s="24">
         <f t="shared" si="41"/>
-        <v>4357.2965696454339</v>
-      </c>
-      <c r="DI26" s="24">
+        <v>18774.66660754335</v>
+      </c>
+      <c r="EO26" s="24">
         <f t="shared" si="41"/>
-        <v>4313.7236039489799</v>
-      </c>
-      <c r="DJ26" s="24">
+        <v>18868.539940581064</v>
+      </c>
+      <c r="EP26" s="24">
         <f t="shared" si="41"/>
-        <v>4270.58636790949</v>
-      </c>
-      <c r="DK26" s="24">
+        <v>18962.882640283966</v>
+      </c>
+      <c r="EQ26" s="24">
         <f t="shared" si="41"/>
-        <v>4227.8805042303948</v>
-      </c>
-      <c r="DL26" s="24">
+        <v>19057.697053485383</v>
+      </c>
+      <c r="ER26" s="24">
         <f t="shared" si="41"/>
-        <v>4185.6016991880906</v>
-      </c>
-      <c r="DM26" s="24">
+        <v>19152.985538752808</v>
+      </c>
+      <c r="ES26" s="24">
         <f t="shared" si="41"/>
-        <v>4143.7456821962096</v>
-      </c>
-      <c r="DN26" s="24">
-        <f t="shared" ref="DN26:ES26" si="42">DM26*($F$2+1)</f>
-        <v>4102.3082253742477</v>
-      </c>
-      <c r="DO26" s="24">
+        <v>19248.75046644657</v>
+      </c>
+      <c r="ET26" s="24">
+        <f t="shared" ref="ET26:FY26" si="42">ES26*($F$2+1)</f>
+        <v>19344.9942187788</v>
+      </c>
+      <c r="EU26" s="24">
         <f t="shared" si="42"/>
-        <v>4061.2851431205054</v>
-      </c>
-      <c r="DP26" s="24">
+        <v>19441.719189872692</v>
+      </c>
+      <c r="EV26" s="24">
         <f t="shared" si="42"/>
-        <v>4020.6722916893004</v>
-      </c>
-      <c r="DQ26" s="24">
+        <v>19538.927785822052</v>
+      </c>
+      <c r="EW26" s="24">
         <f t="shared" si="42"/>
-        <v>3980.4655687724076</v>
-      </c>
-      <c r="DR26" s="24">
+        <v>19636.62242475116</v>
+      </c>
+      <c r="EX26" s="24">
         <f t="shared" si="42"/>
-        <v>3940.6609130846832</v>
-      </c>
-      <c r="DS26" s="24">
+        <v>19734.805536874912</v>
+      </c>
+      <c r="EY26" s="24">
         <f t="shared" si="42"/>
-        <v>3901.2543039538364</v>
-      </c>
-      <c r="DT26" s="24">
+        <v>19833.479564559286</v>
+      </c>
+      <c r="EZ26" s="24">
         <f t="shared" si="42"/>
-        <v>3862.2417609142981</v>
-      </c>
-      <c r="DU26" s="24">
+        <v>19932.646962382081</v>
+      </c>
+      <c r="FA26" s="24">
         <f t="shared" si="42"/>
-        <v>3823.6193433051549</v>
-      </c>
-      <c r="DV26" s="24">
+        <v>20032.31019719399</v>
+      </c>
+      <c r="FB26" s="24">
         <f t="shared" si="42"/>
-        <v>3785.3831498721033</v>
-      </c>
-      <c r="DW26" s="24">
+        <v>20132.47174817996</v>
+      </c>
+      <c r="FC26" s="24">
         <f t="shared" si="42"/>
-        <v>3747.5293183733825</v>
-      </c>
-      <c r="DX26" s="24">
+        <v>20233.134106920857</v>
+      </c>
+      <c r="FD26" s="24">
         <f t="shared" si="42"/>
-        <v>3710.0540251896487</v>
-      </c>
-      <c r="DY26" s="24">
+        <v>20334.299777455461</v>
+      </c>
+      <c r="FE26" s="24">
         <f t="shared" si="42"/>
-        <v>3672.9534849377519</v>
-      </c>
-      <c r="DZ26" s="24">
+        <v>20435.971276342734</v>
+      </c>
+      <c r="FF26" s="24">
         <f t="shared" si="42"/>
-        <v>3636.2239500883743</v>
-      </c>
-      <c r="EA26" s="24">
+        <v>20538.151132724444</v>
+      </c>
+      <c r="FG26" s="24">
         <f t="shared" si="42"/>
-        <v>3599.8617105874905</v>
-      </c>
-      <c r="EB26" s="24">
+        <v>20640.841888388066</v>
+      </c>
+      <c r="FH26" s="24">
         <f t="shared" si="42"/>
-        <v>3563.8630934816156</v>
-      </c>
-      <c r="EC26" s="24">
+        <v>20744.046097830003</v>
+      </c>
+      <c r="FI26" s="24">
         <f t="shared" si="42"/>
-        <v>3528.2244625467993</v>
-      </c>
-      <c r="ED26" s="24">
+        <v>20847.76632831915</v>
+      </c>
+      <c r="FJ26" s="24">
         <f t="shared" si="42"/>
-        <v>3492.9422179213311</v>
-      </c>
-      <c r="EE26" s="24">
+        <v>20952.005159960743</v>
+      </c>
+      <c r="FK26" s="24">
         <f t="shared" si="42"/>
-        <v>3458.0127957421178</v>
-      </c>
-      <c r="EF26" s="24">
+        <v>21056.765185760545</v>
+      </c>
+      <c r="FL26" s="24">
         <f t="shared" si="42"/>
-        <v>3423.4326677846966</v>
-      </c>
-      <c r="EG26" s="24">
+        <v>21162.049011689345</v>
+      </c>
+      <c r="FM26" s="24">
         <f t="shared" si="42"/>
-        <v>3389.1983411068495</v>
-      </c>
-      <c r="EH26" s="24">
+        <v>21267.85925674779</v>
+      </c>
+      <c r="FN26" s="24">
         <f t="shared" si="42"/>
-        <v>3355.3063576957811</v>
-      </c>
-      <c r="EI26" s="24">
+        <v>21374.198553031525</v>
+      </c>
+      <c r="FO26" s="24">
         <f t="shared" si="42"/>
-        <v>3321.7532941188233</v>
-      </c>
-      <c r="EJ26" s="24">
+        <v>21481.069545796679</v>
+      </c>
+      <c r="FP26" s="24">
         <f t="shared" si="42"/>
-        <v>3288.5357611776349</v>
-      </c>
-      <c r="EK26" s="24">
+        <v>21588.474893525661</v>
+      </c>
+      <c r="FQ26" s="24">
         <f t="shared" si="42"/>
-        <v>3255.6504035658586</v>
-      </c>
-      <c r="EL26" s="24">
+        <v>21696.417267993289</v>
+      </c>
+      <c r="FR26" s="24">
         <f t="shared" si="42"/>
-        <v>3223.0938995301999</v>
-      </c>
-      <c r="EM26" s="24">
+        <v>21804.899354333254</v>
+      </c>
+      <c r="FS26" s="24">
         <f t="shared" si="42"/>
-        <v>3190.8629605348979</v>
-      </c>
-      <c r="EN26" s="24">
+        <v>21913.923851104919</v>
+      </c>
+      <c r="FT26" s="24">
         <f t="shared" si="42"/>
-        <v>3158.9543309295486</v>
-      </c>
-      <c r="EO26" s="24">
+        <v>22023.493470360441</v>
+      </c>
+      <c r="FU26" s="24">
         <f t="shared" si="42"/>
-        <v>3127.3647876202531</v>
-      </c>
-      <c r="EP26" s="24">
+        <v>22133.610937712241</v>
+      </c>
+      <c r="FV26" s="24">
         <f t="shared" si="42"/>
-        <v>3096.0911397440505</v>
-      </c>
-      <c r="EQ26" s="24">
+        <v>22244.278992400799</v>
+      </c>
+      <c r="FW26" s="24">
         <f t="shared" si="42"/>
-        <v>3065.1302283466098</v>
-      </c>
-      <c r="ER26" s="24">
+        <v>22355.500387362801</v>
+      </c>
+      <c r="FX26" s="24">
         <f t="shared" si="42"/>
-        <v>3034.4789260631437</v>
-      </c>
-      <c r="ES26" s="24">
+        <v>22467.277889299614</v>
+      </c>
+      <c r="FY26" s="24">
         <f t="shared" si="42"/>
-        <v>3004.1341368025123</v>
-      </c>
-      <c r="ET26" s="24">
-        <f t="shared" ref="ET26:FY26" si="43">ES26*($F$2+1)</f>
-        <v>2974.092795434487</v>
-      </c>
-      <c r="EU26" s="24">
+        <v>22579.61427874611</v>
+      </c>
+      <c r="FZ26" s="24">
+        <f t="shared" ref="FZ26:GR26" si="43">FY26*($F$2+1)</f>
+        <v>22692.512350139838</v>
+      </c>
+      <c r="GA26" s="24">
         <f t="shared" si="43"/>
-        <v>2944.3518674801421</v>
-      </c>
-      <c r="EV26" s="24">
+        <v>22805.974911890535</v>
+      </c>
+      <c r="GB26" s="24">
         <f t="shared" si="43"/>
-        <v>2914.9083488053407</v>
-      </c>
-      <c r="EW26" s="24">
+        <v>22920.004786449987</v>
+      </c>
+      <c r="GC26" s="24">
         <f t="shared" si="43"/>
-        <v>2885.7592653172874</v>
-      </c>
-      <c r="EX26" s="24">
+        <v>23034.604810382232</v>
+      </c>
+      <c r="GD26" s="24">
         <f t="shared" si="43"/>
-        <v>2856.9016726641144</v>
-      </c>
-      <c r="EY26" s="24">
+        <v>23149.777834434142</v>
+      </c>
+      <c r="GE26" s="24">
         <f t="shared" si="43"/>
-        <v>2828.3326559374732</v>
-      </c>
-      <c r="EZ26" s="24">
+        <v>23265.526723606312</v>
+      </c>
+      <c r="GF26" s="24">
         <f t="shared" si="43"/>
-        <v>2800.0493293780983</v>
-      </c>
-      <c r="FA26" s="24">
+        <v>23381.85435722434</v>
+      </c>
+      <c r="GG26" s="24">
         <f t="shared" si="43"/>
-        <v>2772.0488360843174</v>
-      </c>
-      <c r="FB26" s="24">
+        <v>23498.76362901046</v>
+      </c>
+      <c r="GH26" s="24">
         <f t="shared" si="43"/>
-        <v>2744.3283477234741</v>
-      </c>
-      <c r="FC26" s="24">
+        <v>23616.257447155509</v>
+      </c>
+      <c r="GI26" s="24">
         <f t="shared" si="43"/>
-        <v>2716.8850642462394</v>
-      </c>
-      <c r="FD26" s="24">
+        <v>23734.338734391284</v>
+      </c>
+      <c r="GJ26" s="24">
         <f t="shared" si="43"/>
-        <v>2689.7162136037769</v>
-      </c>
-      <c r="FE26" s="24">
+        <v>23853.010428063237</v>
+      </c>
+      <c r="GK26" s="24">
         <f t="shared" si="43"/>
-        <v>2662.819051467739</v>
-      </c>
-      <c r="FF26" s="24">
+        <v>23972.275480203549</v>
+      </c>
+      <c r="GL26" s="24">
         <f t="shared" si="43"/>
-        <v>2636.1908609530615</v>
-      </c>
-      <c r="FG26" s="24">
+        <v>24092.136857604564</v>
+      </c>
+      <c r="GM26" s="24">
         <f t="shared" si="43"/>
-        <v>2609.828952343531</v>
-      </c>
-      <c r="FH26" s="24">
+        <v>24212.597541892585</v>
+      </c>
+      <c r="GN26" s="24">
         <f t="shared" si="43"/>
-        <v>2583.7306628200959</v>
-      </c>
-      <c r="FI26" s="24">
+        <v>24333.660529602046</v>
+      </c>
+      <c r="GO26" s="24">
         <f t="shared" si="43"/>
-        <v>2557.8933561918948</v>
-      </c>
-      <c r="FJ26" s="24">
+        <v>24455.328832250052</v>
+      </c>
+      <c r="GP26" s="24">
         <f t="shared" si="43"/>
-        <v>2532.314422629976</v>
-      </c>
-      <c r="FK26" s="24">
+        <v>24577.6054764113</v>
+      </c>
+      <c r="GQ26" s="24">
         <f t="shared" si="43"/>
-        <v>2506.991278403676</v>
-      </c>
-      <c r="FL26" s="24">
+        <v>24700.493503793354</v>
+      </c>
+      <c r="GR26" s="24">
         <f t="shared" si="43"/>
-        <v>2481.9213656196393</v>
-      </c>
-      <c r="FM26" s="24">
-        <f t="shared" si="43"/>
-        <v>2457.1021519634428</v>
-      </c>
-      <c r="FN26" s="24">
-        <f t="shared" si="43"/>
-        <v>2432.5311304438083</v>
-      </c>
-      <c r="FO26" s="24">
-        <f t="shared" si="43"/>
-        <v>2408.2058191393703</v>
-      </c>
-      <c r="FP26" s="24">
-        <f t="shared" si="43"/>
-        <v>2384.1237609479767</v>
-      </c>
-      <c r="FQ26" s="24">
-        <f t="shared" si="43"/>
-        <v>2360.282523338497</v>
-      </c>
-      <c r="FR26" s="24">
-        <f t="shared" si="43"/>
-        <v>2336.679698105112</v>
-      </c>
-      <c r="FS26" s="24">
-        <f t="shared" si="43"/>
-        <v>2313.3129011240608</v>
-      </c>
-      <c r="FT26" s="24">
-        <f t="shared" si="43"/>
-        <v>2290.17977211282</v>
-      </c>
-      <c r="FU26" s="24">
-        <f t="shared" si="43"/>
-        <v>2267.2779743916917</v>
-      </c>
-      <c r="FV26" s="24">
-        <f t="shared" si="43"/>
-        <v>2244.6051946477746</v>
-      </c>
-      <c r="FW26" s="24">
-        <f t="shared" si="43"/>
-        <v>2222.1591427012968</v>
-      </c>
-      <c r="FX26" s="24">
-        <f t="shared" si="43"/>
-        <v>2199.9375512742836</v>
-      </c>
-      <c r="FY26" s="24">
-        <f t="shared" si="43"/>
-        <v>2177.9381757615406</v>
-      </c>
-      <c r="FZ26" s="24">
-        <f t="shared" ref="FZ26:GR26" si="44">FY26*($F$2+1)</f>
-        <v>2156.1587940039253</v>
-      </c>
-      <c r="GA26" s="24">
-        <f t="shared" si="44"/>
-        <v>2134.597206063886</v>
-      </c>
-      <c r="GB26" s="24">
-        <f t="shared" si="44"/>
-        <v>2113.2512340032472</v>
-      </c>
-      <c r="GC26" s="24">
-        <f t="shared" si="44"/>
-        <v>2092.1187216632147</v>
-      </c>
-      <c r="GD26" s="24">
-        <f t="shared" si="44"/>
-        <v>2071.1975344465827</v>
-      </c>
-      <c r="GE26" s="24">
-        <f t="shared" si="44"/>
-        <v>2050.4855591021169</v>
-      </c>
-      <c r="GF26" s="24">
-        <f t="shared" si="44"/>
-        <v>2029.9807035110957</v>
-      </c>
-      <c r="GG26" s="24">
-        <f t="shared" si="44"/>
-        <v>2009.6808964759848</v>
-      </c>
-      <c r="GH26" s="24">
-        <f t="shared" si="44"/>
-        <v>1989.5840875112249</v>
-      </c>
-      <c r="GI26" s="24">
-        <f t="shared" si="44"/>
-        <v>1969.6882466361126</v>
-      </c>
-      <c r="GJ26" s="24">
-        <f t="shared" si="44"/>
-        <v>1949.9913641697515</v>
-      </c>
-      <c r="GK26" s="24">
-        <f t="shared" si="44"/>
-        <v>1930.491450528054</v>
-      </c>
-      <c r="GL26" s="24">
-        <f t="shared" si="44"/>
-        <v>1911.1865360227735</v>
-      </c>
-      <c r="GM26" s="24">
-        <f t="shared" si="44"/>
-        <v>1892.0746706625457</v>
-      </c>
-      <c r="GN26" s="24">
-        <f t="shared" si="44"/>
-        <v>1873.1539239559202</v>
-      </c>
-      <c r="GO26" s="24">
-        <f t="shared" si="44"/>
-        <v>1854.422384716361</v>
-      </c>
-      <c r="GP26" s="24">
-        <f t="shared" si="44"/>
-        <v>1835.8781608691972</v>
-      </c>
-      <c r="GQ26" s="24">
-        <f t="shared" si="44"/>
-        <v>1817.5193792605053</v>
-      </c>
-      <c r="GR26" s="24">
-        <f t="shared" si="44"/>
-        <v>1799.3441854679002</v>
+        <v>24823.995971312317</v>
       </c>
     </row>
     <row r="27" spans="1:200" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B27" s="28">
-        <f t="shared" ref="B27:C27" si="45">B26/B28</f>
+        <f t="shared" ref="B27:C27" si="44">B26/B28</f>
         <v>-0.54319835189596344</v>
       </c>
       <c r="C27" s="28">
+        <f t="shared" si="44"/>
+        <v>-0.58256413520911576</v>
+      </c>
+      <c r="D27" s="28">
+        <f t="shared" ref="D27:G27" si="45">D26/D28</f>
+        <v>-0.27559743692305277</v>
+      </c>
+      <c r="E27" s="28">
         <f t="shared" si="45"/>
-        <v>-0.58256413520911576</v>
-      </c>
-      <c r="D27" s="28">
-        <f t="shared" ref="D27:G27" si="46">D26/D28</f>
-        <v>-0.27559743692305277</v>
-      </c>
-      <c r="E27" s="28">
-        <f t="shared" si="46"/>
-        <v>-5.8577748648205301E-2</v>
+        <v>-6.638031257071024E-2</v>
       </c>
       <c r="F27" s="28">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>-2.5896966487050785</v>
       </c>
-      <c r="G27" s="49">
-        <f t="shared" si="46"/>
-        <v>-2.0308522831943985</v>
-      </c>
-      <c r="H27" s="49">
-        <f t="shared" ref="H27" si="47">H26/H28</f>
-        <v>-2.4955495805796049</v>
-      </c>
-      <c r="I27" s="49">
-        <f t="shared" ref="I27:P27" si="48">I26/I28</f>
-        <v>-3.1783967068768413</v>
-      </c>
-      <c r="J27" s="49">
+      <c r="G27" s="48">
+        <f t="shared" si="45"/>
+        <v>-2.8661114308191773</v>
+      </c>
+      <c r="H27" s="48">
+        <f t="shared" ref="H27" si="46">H26/H28</f>
+        <v>-0.11074105182845752</v>
+      </c>
+      <c r="I27" s="48">
+        <f t="shared" ref="I27:P27" si="47">I26/I28</f>
+        <v>1.5932916766392982</v>
+      </c>
+      <c r="J27" s="48">
+        <f t="shared" si="47"/>
+        <v>3.7379087951570757</v>
+      </c>
+      <c r="K27" s="48">
+        <f t="shared" si="47"/>
+        <v>6.0010036480885809</v>
+      </c>
+      <c r="L27" s="48">
+        <f t="shared" si="47"/>
+        <v>7.8134421896806394</v>
+      </c>
+      <c r="M27" s="48">
+        <f t="shared" si="47"/>
+        <v>10.082663867814075</v>
+      </c>
+      <c r="N27" s="48">
+        <f t="shared" si="47"/>
+        <v>12.914213899646287</v>
+      </c>
+      <c r="O27" s="48">
+        <f t="shared" si="47"/>
+        <v>16.436875631204593</v>
+      </c>
+      <c r="P27" s="48">
+        <f t="shared" si="47"/>
+        <v>20.807637540321355</v>
+      </c>
+      <c r="Q27" s="48">
+        <f t="shared" ref="Q27:U27" si="48">Q26/Q28</f>
+        <v>23.708293996365214</v>
+      </c>
+      <c r="R27" s="48">
         <f t="shared" si="48"/>
-        <v>-4.2066664478105089</v>
-      </c>
-      <c r="K27" s="49">
+        <v>26.942107963505418</v>
+      </c>
+      <c r="S27" s="48">
         <f t="shared" si="48"/>
-        <v>-5.7758720569879234</v>
-      </c>
-      <c r="L27" s="49">
+        <v>30.544587536273283</v>
+      </c>
+      <c r="T27" s="48">
         <f t="shared" si="48"/>
-        <v>4.0726828013171144E-3</v>
-      </c>
-      <c r="M27" s="49">
+        <v>34.55490191532693</v>
+      </c>
+      <c r="U27" s="48">
         <f t="shared" si="48"/>
-        <v>5.994511474388438</v>
-      </c>
-      <c r="N27" s="49">
-        <f t="shared" si="48"/>
-        <v>12.251694162898929</v>
-      </c>
-      <c r="O27" s="49">
-        <f t="shared" si="48"/>
-        <v>18.834232042084277</v>
-      </c>
-      <c r="P27" s="49">
-        <f t="shared" si="48"/>
-        <v>25.803651440004895</v>
-      </c>
-      <c r="Q27" s="49">
-        <f t="shared" ref="Q27:U27" si="49">Q26/Q28</f>
-        <v>28.675020640767947</v>
-      </c>
-      <c r="R27" s="49">
-        <f t="shared" si="49"/>
-        <v>31.69573609371087</v>
-      </c>
-      <c r="S27" s="49">
-        <f t="shared" si="49"/>
-        <v>34.873822783044723</v>
-      </c>
-      <c r="T27" s="49">
-        <f t="shared" si="49"/>
-        <v>38.2177079068531</v>
-      </c>
-      <c r="U27" s="49">
-        <f t="shared" si="49"/>
-        <v>41.736241186618159</v>
+        <v>39.016253045128735</v>
       </c>
       <c r="V27" s="38"/>
       <c r="W27" s="38"/>
@@ -4715,7 +4660,7 @@
     </row>
     <row r="28" spans="1:200" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B28" s="23">
         <v>248.52799999999999</v>
@@ -4733,63 +4678,63 @@
         <v>260.55599999999998</v>
       </c>
       <c r="G28" s="23">
-        <f t="shared" ref="G28" si="50">F28</f>
+        <f t="shared" ref="G28" si="49">F28</f>
         <v>260.55599999999998</v>
       </c>
       <c r="H28" s="23">
-        <f t="shared" ref="H28" si="51">G28</f>
+        <f t="shared" ref="H28" si="50">G28</f>
         <v>260.55599999999998</v>
       </c>
       <c r="I28" s="23">
-        <f t="shared" ref="I28" si="52">H28</f>
+        <f t="shared" ref="I28" si="51">H28</f>
         <v>260.55599999999998</v>
       </c>
       <c r="J28" s="23">
-        <f t="shared" ref="J28" si="53">I28</f>
+        <f t="shared" ref="J28" si="52">I28</f>
         <v>260.55599999999998</v>
       </c>
       <c r="K28" s="23">
-        <f t="shared" ref="K28" si="54">J28</f>
+        <f t="shared" ref="K28" si="53">J28</f>
         <v>260.55599999999998</v>
       </c>
       <c r="L28" s="23">
-        <f t="shared" ref="L28" si="55">K28</f>
+        <f t="shared" ref="L28" si="54">K28</f>
         <v>260.55599999999998</v>
       </c>
       <c r="M28" s="23">
-        <f t="shared" ref="M28" si="56">L28</f>
+        <f t="shared" ref="M28" si="55">L28</f>
         <v>260.55599999999998</v>
       </c>
       <c r="N28" s="23">
-        <f t="shared" ref="N28" si="57">M28</f>
+        <f t="shared" ref="N28" si="56">M28</f>
         <v>260.55599999999998</v>
       </c>
       <c r="O28" s="23">
-        <f t="shared" ref="O28" si="58">N28</f>
+        <f t="shared" ref="O28" si="57">N28</f>
         <v>260.55599999999998</v>
       </c>
       <c r="P28" s="23">
-        <f t="shared" ref="P28:U28" si="59">O28</f>
+        <f t="shared" ref="P28:U28" si="58">O28</f>
         <v>260.55599999999998</v>
       </c>
       <c r="Q28" s="23">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>260.55599999999998</v>
       </c>
       <c r="R28" s="23">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>260.55599999999998</v>
       </c>
       <c r="S28" s="23">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>260.55599999999998</v>
       </c>
       <c r="T28" s="23">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>260.55599999999998</v>
       </c>
       <c r="U28" s="23">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>260.55599999999998</v>
       </c>
       <c r="V28" s="37"/>
@@ -5009,18 +4954,18 @@
     </row>
     <row r="30" spans="1:200" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B30" s="33">
-        <f t="shared" ref="B30:C30" si="60">IFERROR(B17/B15,0)</f>
+        <f t="shared" ref="B30:C30" si="59">IFERROR(B17/B15,0)</f>
         <v>0.5571273122959739</v>
       </c>
       <c r="C30" s="33">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>0.58745475894794319</v>
       </c>
       <c r="D30" s="33">
-        <f t="shared" ref="D30:P30" si="61">IFERROR(D17/D15,0)</f>
+        <f t="shared" ref="D30:P30" si="60">IFERROR(D17/D15,0)</f>
         <v>0.59246147414179762</v>
       </c>
       <c r="E30" s="33">
@@ -5028,11 +4973,11 @@
         <v>0.59665770806835183</v>
       </c>
       <c r="F30" s="33">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>0.58149844367782744</v>
       </c>
       <c r="G30" s="33">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>0.58149844367782744</v>
       </c>
       <c r="H30" s="33">
@@ -5040,56 +4985,56 @@
         <v>0.58149844367782744</v>
       </c>
       <c r="I30" s="33">
+        <f t="shared" si="60"/>
+        <v>0.58149844367782744</v>
+      </c>
+      <c r="J30" s="33">
+        <f t="shared" si="60"/>
+        <v>0.58149844367782744</v>
+      </c>
+      <c r="K30" s="33">
+        <f t="shared" si="60"/>
+        <v>0.58149844367782744</v>
+      </c>
+      <c r="L30" s="33">
+        <f t="shared" si="60"/>
+        <v>0.58149844367782744</v>
+      </c>
+      <c r="M30" s="33">
+        <f t="shared" si="60"/>
+        <v>0.58149844367782744</v>
+      </c>
+      <c r="N30" s="33">
+        <f t="shared" si="60"/>
+        <v>0.58149844367782744</v>
+      </c>
+      <c r="O30" s="33">
+        <f t="shared" si="60"/>
+        <v>0.58149844367782744</v>
+      </c>
+      <c r="P30" s="33">
+        <f t="shared" si="60"/>
+        <v>0.58149844367782744</v>
+      </c>
+      <c r="Q30" s="33">
+        <f t="shared" ref="Q30:U30" si="61">IFERROR(Q17/Q15,0)</f>
+        <v>0.58149844367782744</v>
+      </c>
+      <c r="R30" s="33">
         <f t="shared" si="61"/>
         <v>0.58149844367782744</v>
       </c>
-      <c r="J30" s="33">
+      <c r="S30" s="33">
         <f t="shared" si="61"/>
         <v>0.58149844367782744</v>
       </c>
-      <c r="K30" s="33">
+      <c r="T30" s="33">
         <f t="shared" si="61"/>
         <v>0.58149844367782744</v>
       </c>
-      <c r="L30" s="33">
+      <c r="U30" s="33">
         <f t="shared" si="61"/>
-        <v>0.58149844367782744</v>
-      </c>
-      <c r="M30" s="33">
-        <f t="shared" si="61"/>
-        <v>0.58149844367782744</v>
-      </c>
-      <c r="N30" s="33">
-        <f t="shared" si="61"/>
-        <v>0.58149844367782744</v>
-      </c>
-      <c r="O30" s="33">
-        <f t="shared" si="61"/>
-        <v>0.58149844367782744</v>
-      </c>
-      <c r="P30" s="33">
-        <f t="shared" si="61"/>
-        <v>0.58149844367782744</v>
-      </c>
-      <c r="Q30" s="33">
-        <f t="shared" ref="Q30:U30" si="62">IFERROR(Q17/Q15,0)</f>
-        <v>0.58149844367782744</v>
-      </c>
-      <c r="R30" s="33">
-        <f t="shared" si="62"/>
-        <v>0.58149844367782744</v>
-      </c>
-      <c r="S30" s="33">
-        <f t="shared" si="62"/>
-        <v>0.58149844367782744</v>
-      </c>
-      <c r="T30" s="33">
-        <f t="shared" si="62"/>
-        <v>0.58149844367782744</v>
-      </c>
-      <c r="U30" s="33">
-        <f t="shared" si="62"/>
-        <v>0.58149844367782744</v>
+        <v>0.58149844367782733</v>
       </c>
       <c r="V30" s="38"/>
       <c r="W30" s="38"/>
@@ -5190,87 +5135,87 @@
     </row>
     <row r="31" spans="1:200" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B31" s="35">
-        <f t="shared" ref="B31:C31" si="63">IFERROR(B22/B15,0)</f>
+        <f t="shared" ref="B31:C31" si="62">IFERROR(B22/B15,0)</f>
         <v>-0.13384113166485309</v>
       </c>
       <c r="C31" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>-7.9986663251943715E-2</v>
       </c>
       <c r="D31" s="35">
-        <f t="shared" ref="D31:P31" si="64">IFERROR(D22/D15,0)</f>
+        <f t="shared" ref="D31:P31" si="63">IFERROR(D22/D15,0)</f>
         <v>-3.2118642115983746E-2</v>
       </c>
       <c r="E31" s="35">
         <f>IFERROR(E22/E15,0)</f>
-        <v>5.4723663980000264E-3</v>
+        <v>5.1985427103342779E-3</v>
       </c>
       <c r="F31" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>-0.10441957205458469</v>
       </c>
       <c r="G31" s="35">
         <f>IFERROR(G22/G15,0)</f>
-        <v>-9.5964747855331961E-2</v>
+        <v>-0.12051120545561061</v>
       </c>
       <c r="H31" s="35">
+        <f t="shared" si="63"/>
+        <v>-1.4908197772707178E-2</v>
+      </c>
+      <c r="I31" s="35">
+        <f t="shared" si="63"/>
+        <v>5.4321574200627804E-2</v>
+      </c>
+      <c r="J31" s="35">
+        <f t="shared" si="63"/>
+        <v>9.6033596243273456E-2</v>
+      </c>
+      <c r="K31" s="35">
+        <f t="shared" si="63"/>
+        <v>0.11513076963545647</v>
+      </c>
+      <c r="L31" s="35">
+        <f t="shared" si="63"/>
+        <v>0.12440010786715554</v>
+      </c>
+      <c r="M31" s="35">
+        <f t="shared" si="63"/>
+        <v>0.13328322367253387</v>
+      </c>
+      <c r="N31" s="35">
+        <f t="shared" si="63"/>
+        <v>0.14179620965268805</v>
+      </c>
+      <c r="O31" s="35">
+        <f t="shared" si="63"/>
+        <v>0.14995448788366902</v>
+      </c>
+      <c r="P31" s="35">
+        <f t="shared" si="63"/>
+        <v>0.15777283785502605</v>
+      </c>
+      <c r="Q31" s="35">
+        <f t="shared" ref="Q31:U31" si="64">IFERROR(Q22/Q15,0)</f>
+        <v>0.16192086585776841</v>
+      </c>
+      <c r="R31" s="35">
         <f t="shared" si="64"/>
-        <v>-9.1134059822039593E-2</v>
-      </c>
-      <c r="I31" s="35">
+        <v>0.16588034713311331</v>
+      </c>
+      <c r="S31" s="35">
         <f t="shared" si="64"/>
-        <v>-9.0020871863180751E-2</v>
-      </c>
-      <c r="J31" s="35">
+        <v>0.16965985198685177</v>
+      </c>
+      <c r="T31" s="35">
         <f t="shared" si="64"/>
-        <v>-9.2743109656222636E-2</v>
-      </c>
-      <c r="K31" s="35">
+        <v>0.17326756116542033</v>
+      </c>
+      <c r="U31" s="35">
         <f t="shared" si="64"/>
-        <v>-9.9444762285099172E-2</v>
-      </c>
-      <c r="L31" s="35">
-        <f t="shared" si="64"/>
-        <v>5.241496222940443E-3</v>
-      </c>
-      <c r="M31" s="35">
-        <f t="shared" si="64"/>
-        <v>9.3288909406374632E-2</v>
-      </c>
-      <c r="N31" s="35">
-        <f t="shared" si="64"/>
-        <v>0.16741930686981099</v>
-      </c>
-      <c r="O31" s="35">
-        <f t="shared" si="64"/>
-        <v>0.22989848630421303</v>
-      </c>
-      <c r="P31" s="35">
-        <f t="shared" si="64"/>
-        <v>0.28261410701640649</v>
-      </c>
-      <c r="Q31" s="35">
-        <f t="shared" ref="Q31:U31" si="65">IFERROR(Q22/Q15,0)</f>
-        <v>0.29460692613042522</v>
-      </c>
-      <c r="R31" s="35">
-        <f t="shared" si="65"/>
-        <v>0.30580022397017603</v>
-      </c>
-      <c r="S31" s="35">
-        <f t="shared" si="65"/>
-        <v>0.31624730195394346</v>
-      </c>
-      <c r="T31" s="35">
-        <f t="shared" si="65"/>
-        <v>0.32599790807212647</v>
-      </c>
-      <c r="U31" s="35">
-        <f t="shared" si="65"/>
-        <v>0.33509847378243052</v>
+        <v>0.17671128356314469</v>
       </c>
       <c r="V31" s="38"/>
       <c r="W31" s="38"/>
@@ -5371,86 +5316,86 @@
     </row>
     <row r="32" spans="1:200" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B32" s="35">
-        <f t="shared" ref="B32:C32" si="66">IFERROR(B25/B24,0)</f>
+        <f t="shared" ref="B32:C32" si="65">IFERROR(B25/B24,0)</f>
         <v>-3.8461538461538464E-2</v>
       </c>
       <c r="C32" s="35">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>-8.1226370510396995E-2</v>
       </c>
       <c r="D32" s="35">
-        <f t="shared" ref="D32:P32" si="67">IFERROR(D25/D24,0)</f>
+        <f t="shared" ref="D32:P32" si="66">IFERROR(D25/D24,0)</f>
         <v>-0.18556318426424198</v>
       </c>
       <c r="E32" s="35">
         <f>IFERROR(E25/E24,0)</f>
-        <v>1.3065224048177979</v>
+        <v>1.3621368521868644</v>
       </c>
       <c r="F32" s="35">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>-0.63872003419459278</v>
       </c>
       <c r="G32" s="35">
+        <f t="shared" si="66"/>
+        <v>-2.0748201997665822E-2</v>
+      </c>
+      <c r="H32" s="35">
+        <f t="shared" si="66"/>
+        <v>0.1</v>
+      </c>
+      <c r="I32" s="35">
+        <f t="shared" si="66"/>
+        <v>0.1</v>
+      </c>
+      <c r="J32" s="35">
+        <f t="shared" si="66"/>
+        <v>0.1</v>
+      </c>
+      <c r="K32" s="35">
+        <f t="shared" si="66"/>
+        <v>0.1</v>
+      </c>
+      <c r="L32" s="35">
+        <f t="shared" si="66"/>
+        <v>0.1</v>
+      </c>
+      <c r="M32" s="35">
+        <f t="shared" si="66"/>
+        <v>0.1</v>
+      </c>
+      <c r="N32" s="35">
+        <f t="shared" si="66"/>
+        <v>0.1</v>
+      </c>
+      <c r="O32" s="35">
+        <f t="shared" si="66"/>
+        <v>0.1</v>
+      </c>
+      <c r="P32" s="35">
+        <f t="shared" si="66"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q32" s="35">
+        <f t="shared" ref="Q32:U32" si="67">IFERROR(Q25/Q24,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="R32" s="35">
         <f t="shared" si="67"/>
         <v>0.1</v>
       </c>
-      <c r="H32" s="35">
+      <c r="S32" s="35">
         <f t="shared" si="67"/>
         <v>0.1</v>
       </c>
-      <c r="I32" s="35">
+      <c r="T32" s="35">
         <f t="shared" si="67"/>
         <v>0.1</v>
       </c>
-      <c r="J32" s="35">
+      <c r="U32" s="35">
         <f t="shared" si="67"/>
-        <v>0.1</v>
-      </c>
-      <c r="K32" s="35">
-        <f t="shared" si="67"/>
-        <v>0.1</v>
-      </c>
-      <c r="L32" s="35">
-        <f t="shared" si="67"/>
-        <v>0.1</v>
-      </c>
-      <c r="M32" s="35">
-        <f t="shared" si="67"/>
-        <v>0.1</v>
-      </c>
-      <c r="N32" s="35">
-        <f t="shared" si="67"/>
-        <v>0.1</v>
-      </c>
-      <c r="O32" s="35">
-        <f t="shared" si="67"/>
-        <v>0.1</v>
-      </c>
-      <c r="P32" s="35">
-        <f t="shared" si="67"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q32" s="35">
-        <f t="shared" ref="Q32:U32" si="68">IFERROR(Q25/Q24,0)</f>
-        <v>0.1</v>
-      </c>
-      <c r="R32" s="35">
-        <f t="shared" si="68"/>
-        <v>0.1</v>
-      </c>
-      <c r="S32" s="35">
-        <f t="shared" si="68"/>
-        <v>0.1</v>
-      </c>
-      <c r="T32" s="35">
-        <f t="shared" si="68"/>
-        <v>0.1</v>
-      </c>
-      <c r="U32" s="35">
-        <f t="shared" si="68"/>
         <v>0.1</v>
       </c>
       <c r="V32" s="38"/>
@@ -5670,78 +5615,78 @@
     </row>
     <row r="34" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50">
-        <f t="shared" ref="E34:U34" si="69">E15/D15-1</f>
+        <v>14</v>
+      </c>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49">
+        <f t="shared" ref="E34:U34" si="68">E15/D15-1</f>
         <v>0.42559825991979605</v>
       </c>
-      <c r="F34" s="50">
+      <c r="F34" s="49">
         <f>F15/E15-1</f>
         <v>0.31578826309527552</v>
       </c>
-      <c r="G34" s="50">
-        <f t="shared" si="69"/>
-        <v>0.27500000000000013</v>
-      </c>
-      <c r="H34" s="50">
-        <f t="shared" si="69"/>
-        <v>0.27500000000000013</v>
-      </c>
-      <c r="I34" s="50">
-        <f t="shared" si="69"/>
-        <v>0.27500000000000013</v>
-      </c>
-      <c r="J34" s="50">
-        <f t="shared" si="69"/>
-        <v>0.27500000000000013</v>
-      </c>
-      <c r="K34" s="50">
-        <f t="shared" si="69"/>
-        <v>0.27499999999999991</v>
-      </c>
-      <c r="L34" s="50">
-        <f t="shared" si="69"/>
+      <c r="G34" s="49">
+        <f t="shared" si="68"/>
+        <v>-0.26849603110271925</v>
+      </c>
+      <c r="H34" s="49">
+        <f t="shared" si="68"/>
+        <v>0.5</v>
+      </c>
+      <c r="I34" s="49">
+        <f t="shared" si="68"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="J34" s="49">
+        <f t="shared" si="68"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="K34" s="49">
+        <f t="shared" si="68"/>
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="L34" s="49">
+        <f t="shared" si="68"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="M34" s="49">
+        <f t="shared" si="68"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="N34" s="49">
+        <f t="shared" si="68"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="O34" s="49">
+        <f t="shared" si="68"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="P34" s="49">
+        <f t="shared" si="68"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="Q34" s="49">
+        <f t="shared" si="68"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="M34" s="50">
-        <f t="shared" si="69"/>
+      <c r="R34" s="49">
+        <f t="shared" si="68"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="N34" s="50">
-        <f t="shared" si="69"/>
+      <c r="S34" s="49">
+        <f t="shared" si="68"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="O34" s="50">
-        <f t="shared" si="69"/>
+      <c r="T34" s="49">
+        <f t="shared" si="68"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="P34" s="50">
-        <f t="shared" si="69"/>
+      <c r="U34" s="49">
+        <f t="shared" si="68"/>
         <v>0.10000000000000009</v>
-      </c>
-      <c r="Q34" s="50">
-        <f t="shared" si="69"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="R34" s="50">
-        <f t="shared" si="69"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="S34" s="50">
-        <f t="shared" si="69"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="T34" s="50">
-        <f t="shared" si="69"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="U34" s="50">
-        <f t="shared" si="69"/>
-        <v>5.0000000000000044E-2</v>
       </c>
       <c r="V34" s="38"/>
       <c r="W34" s="38"/>
@@ -5842,78 +5787,78 @@
     </row>
     <row r="35" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
       <c r="E35" s="35">
-        <f t="shared" ref="E35:U35" si="70">E18/D18-1</f>
+        <f t="shared" ref="E35:U35" si="69">E18/D18-1</f>
         <v>0.44389027431421457</v>
       </c>
       <c r="F35" s="35">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>0.68739205526770286</v>
       </c>
       <c r="G35" s="35">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
+        <v>-6.1003070624360278E-2</v>
+      </c>
+      <c r="H35" s="35">
+        <f t="shared" si="69"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="H35" s="35">
-        <f t="shared" si="70"/>
+      <c r="I35" s="35">
+        <f t="shared" si="69"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="I35" s="35">
-        <f t="shared" si="70"/>
+      <c r="J35" s="35">
+        <f t="shared" si="69"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="J35" s="35">
-        <f t="shared" si="70"/>
+      <c r="K35" s="35">
+        <f t="shared" si="69"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="K35" s="35">
-        <f t="shared" si="70"/>
-        <v>0.39999999999999991</v>
-      </c>
       <c r="L35" s="35">
-        <f t="shared" si="70"/>
-        <v>-9.9999999999999978E-2</v>
+        <f t="shared" si="69"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="M35" s="35">
-        <f t="shared" si="70"/>
-        <v>-9.9999999999999978E-2</v>
+        <f t="shared" si="69"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="N35" s="35">
-        <f t="shared" si="70"/>
-        <v>-9.9999999999999978E-2</v>
+        <f t="shared" si="69"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="O35" s="35">
-        <f t="shared" si="70"/>
-        <v>-9.9999999999999978E-2</v>
+        <f t="shared" si="69"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="P35" s="35">
-        <f t="shared" si="70"/>
-        <v>-9.9999999999999978E-2</v>
+        <f t="shared" si="69"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="Q35" s="35">
         <f>Q18/P18-1</f>
-        <v>5.0000000000000044E-2</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="R35" s="35">
-        <f t="shared" si="70"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="69"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="S35" s="35">
-        <f t="shared" si="70"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="69"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="T35" s="35">
-        <f t="shared" si="70"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="69"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="U35" s="35">
-        <f t="shared" si="70"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="69"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="V35" s="38"/>
       <c r="W35" s="38"/>
@@ -6014,78 +5959,78 @@
     </row>
     <row r="36" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
       <c r="E36" s="35">
-        <f t="shared" ref="E36:U36" si="71">E19/D19-1</f>
+        <f t="shared" ref="E36:U36" si="70">E19/D19-1</f>
         <v>0.26261467889908263</v>
       </c>
       <c r="F36" s="35">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>0.4732061762034514</v>
       </c>
       <c r="G36" s="35">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
+        <v>-0.52928483353884093</v>
+      </c>
+      <c r="H36" s="35">
+        <f t="shared" si="70"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="H36" s="35">
-        <f t="shared" si="71"/>
+      <c r="I36" s="35">
+        <f t="shared" si="70"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="I36" s="35">
-        <f t="shared" si="71"/>
+      <c r="J36" s="35">
+        <f t="shared" si="70"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="J36" s="35">
-        <f t="shared" si="71"/>
+      <c r="K36" s="35">
+        <f t="shared" si="70"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="K36" s="35">
-        <f t="shared" si="71"/>
-        <v>0.19999999999999996</v>
-      </c>
       <c r="L36" s="35">
-        <f t="shared" si="71"/>
-        <v>-5.0000000000000044E-2</v>
+        <f t="shared" si="70"/>
+        <v>0.14999999999999991</v>
       </c>
       <c r="M36" s="35">
-        <f t="shared" si="71"/>
-        <v>-5.0000000000000044E-2</v>
+        <f t="shared" si="70"/>
+        <v>0.14999999999999991</v>
       </c>
       <c r="N36" s="35">
-        <f t="shared" si="71"/>
-        <v>-5.0000000000000044E-2</v>
+        <f t="shared" si="70"/>
+        <v>0.14999999999999991</v>
       </c>
       <c r="O36" s="35">
-        <f t="shared" si="71"/>
-        <v>-5.0000000000000044E-2</v>
+        <f t="shared" si="70"/>
+        <v>0.14999999999999991</v>
       </c>
       <c r="P36" s="35">
-        <f t="shared" si="71"/>
-        <v>-4.9999999999999933E-2</v>
+        <f t="shared" si="70"/>
+        <v>0.14999999999999991</v>
       </c>
       <c r="Q36" s="35">
-        <f t="shared" si="71"/>
-        <v>-2.0000000000000018E-2</v>
+        <f t="shared" si="70"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="R36" s="35">
-        <f t="shared" si="71"/>
-        <v>-2.0000000000000018E-2</v>
+        <f t="shared" si="70"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="S36" s="35">
-        <f t="shared" si="71"/>
-        <v>-1.9999999999999907E-2</v>
+        <f t="shared" si="70"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="T36" s="35">
-        <f t="shared" si="71"/>
-        <v>-1.9999999999999907E-2</v>
+        <f t="shared" si="70"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="U36" s="35">
-        <f t="shared" si="71"/>
-        <v>-2.0000000000000018E-2</v>
+        <f t="shared" si="70"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="V36" s="38"/>
       <c r="W36" s="38"/>
@@ -6186,78 +6131,78 @@
     </row>
     <row r="37" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
       <c r="E37" s="35">
-        <f t="shared" ref="E37:U37" si="72">E20/D20-1</f>
-        <v>0.46483180428134552</v>
+        <f t="shared" ref="E37:U37" si="71">E20/D20-1</f>
+        <v>0.46788990825688082</v>
       </c>
       <c r="F37" s="35">
-        <f t="shared" si="72"/>
-        <v>0.45511482254697277</v>
+        <f t="shared" si="71"/>
+        <v>0.45208333333333339</v>
       </c>
       <c r="G37" s="35">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
+        <v>0.12869440459110471</v>
+      </c>
+      <c r="H37" s="35">
+        <f t="shared" si="71"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="H37" s="35">
-        <f t="shared" si="72"/>
+      <c r="I37" s="35">
+        <f t="shared" si="71"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="I37" s="35">
-        <f t="shared" si="72"/>
+      <c r="J37" s="35">
+        <f t="shared" si="71"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="J37" s="35">
-        <f t="shared" si="72"/>
+      <c r="K37" s="35">
+        <f t="shared" si="71"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="K37" s="35">
-        <f t="shared" si="72"/>
-        <v>0.19999999999999996</v>
-      </c>
       <c r="L37" s="35">
-        <f t="shared" si="72"/>
-        <v>-2.0000000000000018E-2</v>
+        <f t="shared" si="71"/>
+        <v>0.14999999999999991</v>
       </c>
       <c r="M37" s="35">
-        <f t="shared" si="72"/>
-        <v>-2.0000000000000018E-2</v>
+        <f t="shared" si="71"/>
+        <v>0.14999999999999991</v>
       </c>
       <c r="N37" s="35">
-        <f t="shared" si="72"/>
-        <v>-2.0000000000000018E-2</v>
+        <f t="shared" si="71"/>
+        <v>0.14999999999999991</v>
       </c>
       <c r="O37" s="35">
-        <f t="shared" si="72"/>
-        <v>-2.0000000000000018E-2</v>
+        <f t="shared" si="71"/>
+        <v>0.14999999999999991</v>
       </c>
       <c r="P37" s="35">
-        <f t="shared" si="72"/>
-        <v>-1.9999999999999907E-2</v>
+        <f t="shared" si="71"/>
+        <v>0.14999999999999991</v>
       </c>
       <c r="Q37" s="35">
-        <f t="shared" si="72"/>
-        <v>-1.9999999999999907E-2</v>
+        <f t="shared" si="71"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="R37" s="35">
-        <f t="shared" si="72"/>
-        <v>-2.0000000000000129E-2</v>
+        <f t="shared" si="71"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="S37" s="35">
-        <f t="shared" si="72"/>
-        <v>-2.0000000000000018E-2</v>
+        <f t="shared" si="71"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="T37" s="35">
-        <f t="shared" si="72"/>
-        <v>-1.9999999999999907E-2</v>
+        <f t="shared" si="71"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="U37" s="35">
-        <f t="shared" si="72"/>
-        <v>-2.0000000000000018E-2</v>
+        <f t="shared" si="71"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="V37" s="38"/>
       <c r="W37" s="38"/>
@@ -6358,78 +6303,78 @@
     </row>
     <row r="38" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B38" s="44"/>
       <c r="C38" s="44"/>
       <c r="D38" s="44"/>
       <c r="E38" s="44">
         <f>E21/D21-1</f>
-        <v>0.34937499999999999</v>
+        <v>0.35000000000000009</v>
       </c>
       <c r="F38" s="44">
-        <f t="shared" ref="F38:U38" si="73">F21/E21-1</f>
-        <v>0.52663270032422416</v>
+        <f t="shared" ref="F38:U38" si="72">F21/E21-1</f>
+        <v>0.52592592592592591</v>
       </c>
       <c r="G38" s="44">
-        <f t="shared" si="73"/>
-        <v>0.259283980582524</v>
+        <f t="shared" si="72"/>
+        <v>-0.25133495145631057</v>
       </c>
       <c r="H38" s="44">
-        <f t="shared" si="73"/>
-        <v>0.26590854334313119</v>
+        <f t="shared" si="72"/>
+        <v>0.27435564921381084</v>
       </c>
       <c r="I38" s="44">
-        <f t="shared" si="73"/>
-        <v>0.27288991070137114</v>
+        <f t="shared" si="72"/>
+        <v>0.28168670101125737</v>
       </c>
       <c r="J38" s="44">
-        <f t="shared" si="73"/>
-        <v>0.2801686572609341</v>
+        <f t="shared" si="72"/>
+        <v>0.28922725134428595</v>
       </c>
       <c r="K38" s="44">
-        <f t="shared" si="73"/>
-        <v>0.28767291679008133</v>
+        <f t="shared" si="72"/>
+        <v>0.29689381895375511</v>
       </c>
       <c r="L38" s="44">
         <f>L21/K21-1</f>
-        <v>-6.911084999519479E-2</v>
+        <v>0.17614927771124145</v>
       </c>
       <c r="M38" s="44">
-        <f t="shared" si="73"/>
-        <v>-6.807112682899108E-2</v>
+        <f t="shared" si="72"/>
+        <v>0.17667954982258083</v>
       </c>
       <c r="N38" s="44">
-        <f t="shared" si="73"/>
-        <v>-6.7025491076215693E-2</v>
+        <f t="shared" si="72"/>
+        <v>0.1772083081514626</v>
       </c>
       <c r="O38" s="44">
-        <f t="shared" si="73"/>
-        <v>-6.5975755039565986E-2</v>
+        <f t="shared" si="72"/>
+        <v>0.17773508270004035</v>
       </c>
       <c r="P38" s="44">
-        <f t="shared" si="73"/>
-        <v>-6.4923748047542862E-2</v>
+        <f t="shared" si="72"/>
+        <v>0.17825941056603867</v>
       </c>
       <c r="Q38" s="44">
-        <f t="shared" si="73"/>
-        <v>7.868451018948619E-3</v>
+        <f t="shared" si="72"/>
+        <v>8.9231637785598616E-2</v>
       </c>
       <c r="R38" s="44">
-        <f t="shared" si="73"/>
-        <v>9.0334254835664485E-3</v>
+        <f t="shared" si="72"/>
+        <v>8.9619489617370984E-2</v>
       </c>
       <c r="S38" s="44">
-        <f t="shared" si="73"/>
-        <v>1.0212177305360504E-2</v>
+        <f t="shared" si="72"/>
+        <v>8.9996933786868905E-2</v>
       </c>
       <c r="T38" s="44">
-        <f t="shared" si="73"/>
-        <v>1.140210233383443E-2</v>
+        <f t="shared" si="72"/>
+        <v>9.0363991679043298E-2</v>
       </c>
       <c r="U38" s="44">
-        <f t="shared" si="73"/>
-        <v>1.2600493289901094E-2</v>
+        <f t="shared" si="72"/>
+        <v>9.0720705366082344E-2</v>
       </c>
       <c r="V38" s="38"/>
       <c r="W38" s="38"/>
@@ -6648,78 +6593,78 @@
     </row>
     <row r="40" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B40" s="44"/>
       <c r="C40" s="44"/>
       <c r="D40" s="44"/>
       <c r="E40" s="24">
         <f>E41-E42</f>
-        <v>0</v>
+        <v>2888</v>
       </c>
       <c r="F40" s="24">
         <f>F41-F42</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="51">
+        <v>3074</v>
+      </c>
+      <c r="G40" s="50">
         <f>F40+G26</f>
-        <v>-529.15074749999962</v>
-      </c>
-      <c r="H40" s="51">
+        <v>2327.2174700314786</v>
+      </c>
+      <c r="H40" s="50">
         <f>G40+H26</f>
-        <v>-1179.381164017499</v>
-      </c>
-      <c r="I40" s="51">
-        <f t="shared" ref="I40:U40" si="74">H40+I26</f>
-        <v>-2007.5314963745013</v>
-      </c>
-      <c r="J40" s="51">
-        <f t="shared" si="74"/>
-        <v>-3103.6036793502162</v>
-      </c>
-      <c r="K40" s="51">
-        <f t="shared" si="74"/>
-        <v>-4608.5417990307615</v>
-      </c>
-      <c r="L40" s="51">
-        <f t="shared" si="74"/>
-        <v>-4607.4806370907818</v>
-      </c>
-      <c r="M40" s="51">
-        <f t="shared" si="74"/>
-        <v>-3045.5747053700279</v>
-      </c>
-      <c r="N40" s="51">
-        <f t="shared" si="74"/>
-        <v>146.67771893826512</v>
-      </c>
-      <c r="O40" s="51">
-        <f t="shared" si="74"/>
-        <v>5054.0498828955751</v>
-      </c>
-      <c r="P40" s="51">
-        <f t="shared" si="74"/>
-        <v>11777.34608749749</v>
-      </c>
-      <c r="Q40" s="51">
-        <f t="shared" si="74"/>
-        <v>19248.794765573424</v>
-      </c>
-      <c r="R40" s="51">
-        <f t="shared" si="74"/>
-        <v>27507.308979206355</v>
-      </c>
-      <c r="S40" s="51">
-        <f t="shared" si="74"/>
-        <v>36593.892748265353</v>
-      </c>
-      <c r="T40" s="51">
-        <f t="shared" si="74"/>
-        <v>46551.745849643368</v>
-      </c>
-      <c r="U40" s="51">
-        <f t="shared" si="74"/>
-        <v>57426.373908263849</v>
+        <v>2298.3632245312629</v>
+      </c>
+      <c r="I40" s="50">
+        <f t="shared" ref="I40:U40" si="73">H40+I26</f>
+        <v>2713.5049306296919</v>
+      </c>
+      <c r="J40" s="50">
+        <f t="shared" si="73"/>
+        <v>3687.439494660639</v>
+      </c>
+      <c r="K40" s="50">
+        <f t="shared" si="73"/>
+        <v>5251.0370011920077</v>
+      </c>
+      <c r="L40" s="50">
+        <f t="shared" si="73"/>
+        <v>7286.8762443664364</v>
+      </c>
+      <c r="M40" s="50">
+        <f t="shared" si="73"/>
+        <v>9913.974811108601</v>
+      </c>
+      <c r="N40" s="50">
+        <f t="shared" si="73"/>
+        <v>13278.850727944839</v>
+      </c>
+      <c r="O40" s="50">
+        <f t="shared" si="73"/>
+        <v>17561.577294908981</v>
+      </c>
+      <c r="P40" s="50">
+        <f t="shared" si="73"/>
+        <v>22983.132101864951</v>
+      </c>
+      <c r="Q40" s="50">
+        <f t="shared" si="73"/>
+        <v>29160.470352381883</v>
+      </c>
+      <c r="R40" s="50">
+        <f t="shared" si="73"/>
+        <v>36180.398234920998</v>
+      </c>
+      <c r="S40" s="50">
+        <f t="shared" si="73"/>
+        <v>44138.973785022215</v>
+      </c>
+      <c r="T40" s="50">
+        <f t="shared" si="73"/>
+        <v>53142.46080847214</v>
+      </c>
+      <c r="U40" s="50">
+        <f t="shared" si="73"/>
+        <v>63308.379636898702</v>
       </c>
       <c r="V40" s="38"/>
       <c r="W40" s="38"/>
@@ -6820,29 +6765,29 @@
     </row>
     <row r="41" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B41" s="44"/>
       <c r="C41" s="44"/>
       <c r="D41" s="44"/>
-      <c r="E41" s="52">
-        <f>Reports!Q34</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="52">
-        <f>Reports!U34</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52"/>
+      <c r="E41" s="51">
+        <f>Reports!E31</f>
+        <v>2888</v>
+      </c>
+      <c r="F41" s="51">
+        <f>Reports!I31</f>
+        <v>3074</v>
+      </c>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
       <c r="Q41" s="23"/>
       <c r="R41" s="38"/>
       <c r="S41" s="38"/>
@@ -6947,29 +6892,29 @@
     </row>
     <row r="42" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B42" s="44"/>
       <c r="C42" s="44"/>
       <c r="D42" s="44"/>
-      <c r="E42" s="52">
-        <f>Reports!Q35</f>
+      <c r="E42" s="51">
+        <f>Reports!E32</f>
         <v>0</v>
       </c>
-      <c r="F42" s="52">
-        <f>Reports!U35</f>
+      <c r="F42" s="51">
+        <f>Reports!I32</f>
         <v>0</v>
       </c>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52"/>
-      <c r="P42" s="52"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="51"/>
       <c r="Q42" s="23"/>
       <c r="R42" s="38"/>
       <c r="S42" s="38"/>
@@ -7076,19 +7021,19 @@
       <c r="B43" s="44"/>
       <c r="C43" s="44"/>
       <c r="D43" s="44"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="54"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="53"/>
       <c r="R43" s="38"/>
       <c r="S43" s="38"/>
       <c r="T43" s="38"/>
@@ -7192,29 +7137,29 @@
     </row>
     <row r="44" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B44" s="44"/>
       <c r="C44" s="44"/>
       <c r="D44" s="44"/>
-      <c r="E44" s="52">
-        <f>Reports!Q37</f>
+      <c r="E44" s="51">
+        <f>Reports!E34</f>
         <v>0</v>
       </c>
-      <c r="F44" s="52">
-        <f>Reports!U37</f>
+      <c r="F44" s="51">
+        <f>Reports!I34</f>
         <v>0</v>
       </c>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="55"/>
-      <c r="O44" s="55"/>
-      <c r="P44" s="55"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
       <c r="Q44" s="37"/>
       <c r="R44" s="37"/>
       <c r="S44" s="37"/>
@@ -7319,29 +7264,29 @@
     </row>
     <row r="45" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B45" s="44"/>
       <c r="C45" s="44"/>
       <c r="D45" s="44"/>
-      <c r="E45" s="52">
-        <f>Reports!Q38</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="52">
-        <f>Reports!U38</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="55"/>
-      <c r="M45" s="55"/>
-      <c r="N45" s="55"/>
-      <c r="O45" s="55"/>
-      <c r="P45" s="55"/>
+      <c r="E45" s="51">
+        <f>Reports!E35</f>
+        <v>6613</v>
+      </c>
+      <c r="F45" s="51">
+        <f>Reports!I35</f>
+        <v>8310</v>
+      </c>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
       <c r="Q45" s="37"/>
       <c r="R45" s="37"/>
       <c r="S45" s="37"/>
@@ -7446,29 +7391,29 @@
     </row>
     <row r="46" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B46" s="44"/>
       <c r="C46" s="44"/>
       <c r="D46" s="44"/>
-      <c r="E46" s="52">
-        <f>Reports!Q39</f>
-        <v>0</v>
-      </c>
-      <c r="F46" s="52">
-        <f>Reports!U39</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="55"/>
-      <c r="L46" s="55"/>
-      <c r="M46" s="55"/>
-      <c r="N46" s="55"/>
-      <c r="O46" s="55"/>
-      <c r="P46" s="55"/>
+      <c r="E46" s="51">
+        <f>Reports!E36</f>
+        <v>7390</v>
+      </c>
+      <c r="F46" s="51">
+        <f>Reports!I36</f>
+        <v>9736</v>
+      </c>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
       <c r="Q46" s="37"/>
       <c r="R46" s="37"/>
       <c r="S46" s="37"/>
@@ -7691,18 +7636,18 @@
     </row>
     <row r="48" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B48" s="44"/>
       <c r="C48" s="44"/>
       <c r="D48" s="44"/>
-      <c r="E48" s="56">
+      <c r="E48" s="55">
         <f>E45-E44-E41</f>
-        <v>0</v>
-      </c>
-      <c r="F48" s="56">
+        <v>3725</v>
+      </c>
+      <c r="F48" s="55">
         <f>F45-F44-F41</f>
-        <v>0</v>
+        <v>5236</v>
       </c>
       <c r="G48" s="37"/>
       <c r="H48" s="37"/>
@@ -7818,18 +7763,18 @@
     </row>
     <row r="49" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B49" s="44"/>
       <c r="C49" s="44"/>
       <c r="D49" s="44"/>
-      <c r="E49" s="56">
+      <c r="E49" s="55">
         <f>E45-E46</f>
-        <v>0</v>
-      </c>
-      <c r="F49" s="56">
+        <v>-777</v>
+      </c>
+      <c r="F49" s="55">
         <f>F45-F46</f>
-        <v>0</v>
+        <v>-1426</v>
       </c>
       <c r="G49" s="37"/>
       <c r="H49" s="37"/>
@@ -8063,18 +8008,18 @@
     </row>
     <row r="51" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A51" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57" t="e">
+        <v>50</v>
+      </c>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56">
         <f>E26/E49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F51" s="57" t="e">
+        <v>2.1898326898326735E-2</v>
+      </c>
+      <c r="F51" s="56">
         <f>F26/F49</f>
-        <v>#DIV/0!</v>
+        <v>0.47318443197755988</v>
       </c>
       <c r="G51" s="38"/>
       <c r="H51" s="38"/>
@@ -8190,18 +8135,18 @@
     </row>
     <row r="52" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A52" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" s="57"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57" t="e">
+        <v>51</v>
+      </c>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56">
         <f>E26/E45</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F52" s="57" t="e">
+        <v>-2.5729623468924651E-3</v>
+      </c>
+      <c r="F52" s="56">
         <f>F26/F45</f>
-        <v>#DIV/0!</v>
+        <v>-8.1198676293622193E-2</v>
       </c>
       <c r="G52" s="38"/>
       <c r="H52" s="38"/>
@@ -8317,18 +8262,18 @@
     </row>
     <row r="53" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A53" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57" t="e">
+        <v>52</v>
+      </c>
+      <c r="B53" s="56"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56">
         <f>E26/(E49-E44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F53" s="57" t="e">
+        <v>2.1898326898326735E-2</v>
+      </c>
+      <c r="F53" s="56">
         <f>F26/(F49-F44)</f>
-        <v>#DIV/0!</v>
+        <v>0.47318443197755988</v>
       </c>
       <c r="G53" s="38"/>
       <c r="H53" s="38"/>
@@ -8444,18 +8389,18 @@
     </row>
     <row r="54" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A54" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57" t="e">
+        <v>53</v>
+      </c>
+      <c r="B54" s="56"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56">
         <f>E26/E48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F54" s="57" t="e">
+        <v>-4.5677852348992949E-3</v>
+      </c>
+      <c r="F54" s="56">
         <f>F26/F48</f>
-        <v>#DIV/0!</v>
+        <v>-0.12886955691367463</v>
       </c>
       <c r="G54" s="38"/>
       <c r="H54" s="38"/>
@@ -8689,30 +8634,45 @@
     </row>
     <row r="56" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B56" s="57"/>
-      <c r="C56" s="57">
+        <v>70</v>
+      </c>
+      <c r="B56" s="56"/>
+      <c r="C56" s="56">
         <f>C10/B10-1</f>
         <v>0.8014972796517954</v>
       </c>
-      <c r="D56" s="57">
+      <c r="D56" s="56">
         <f>D10/C10-1</f>
         <v>0.54732914707630465</v>
       </c>
-      <c r="E56" s="57">
+      <c r="E56" s="56">
         <f>E10/D10-1</f>
         <v>0.42559825991979605</v>
       </c>
-      <c r="F56" s="57">
+      <c r="F56" s="56">
         <f>F10/E10-1</f>
         <v>0.31578826309527552</v>
       </c>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
-      <c r="J56" s="57"/>
-      <c r="K56" s="57"/>
+      <c r="G56" s="56">
+        <f t="shared" ref="G56:K56" si="74">G10/F10-1</f>
+        <v>-0.26849603110271925</v>
+      </c>
+      <c r="H56" s="56">
+        <f t="shared" si="74"/>
+        <v>0.5</v>
+      </c>
+      <c r="I56" s="56">
+        <f t="shared" si="74"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="J56" s="56">
+        <f t="shared" si="74"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="K56" s="56">
+        <f t="shared" si="74"/>
+        <v>0.35000000000000009</v>
+      </c>
       <c r="L56" s="38"/>
       <c r="M56" s="38"/>
       <c r="N56" s="38"/>
@@ -8822,7 +8782,7 @@
     </row>
     <row r="58" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C58" s="19">
         <f t="shared" ref="C58:F59" si="75">C12/B12-1</f>
@@ -8840,30 +8800,15 @@
         <f t="shared" si="75"/>
         <v>0.30603276068717533</v>
       </c>
-      <c r="G58" s="19">
-        <f t="shared" ref="G58:K58" si="76">G12/F12-1</f>
-        <v>0.25</v>
-      </c>
-      <c r="H58" s="19">
-        <f t="shared" si="76"/>
-        <v>0.25</v>
-      </c>
-      <c r="I58" s="19">
-        <f t="shared" si="76"/>
-        <v>0.25</v>
-      </c>
-      <c r="J58" s="19">
-        <f t="shared" si="76"/>
-        <v>0.25</v>
-      </c>
-      <c r="K58" s="19">
-        <f t="shared" si="76"/>
-        <v>0.25</v>
-      </c>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
     </row>
     <row r="59" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C59" s="19">
         <f t="shared" si="75"/>
@@ -8881,30 +8826,15 @@
         <f t="shared" si="75"/>
         <v>7.4695694486004438E-3</v>
       </c>
-      <c r="G59" s="19">
-        <f t="shared" ref="G59:K59" si="77">G13/F13-1</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="H59" s="19">
-        <f t="shared" si="77"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="I59" s="19">
-        <f t="shared" si="77"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="J59" s="19">
-        <f t="shared" si="77"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="K59" s="19">
-        <f t="shared" si="77"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
     </row>
     <row r="61" spans="1:117" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="16" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B61" s="16">
         <v>8057.7</v>
@@ -8924,7 +8854,7 @@
     </row>
     <row r="62" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C62" s="19">
         <f>C61/B61-1</f>
@@ -8941,6 +8871,31 @@
       <c r="F62" s="19">
         <f>F61/E61-1</f>
         <v>0.28945982941981674</v>
+      </c>
+    </row>
+    <row r="64" spans="1:117" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="19">
+        <f>B15/B61</f>
+        <v>0.11405239708601711</v>
+      </c>
+      <c r="C64" s="19">
+        <f>C15/C61</f>
+        <v>0.11889405951970586</v>
+      </c>
+      <c r="D64" s="19">
+        <f>D15/D61</f>
+        <v>0.12213036285535844</v>
+      </c>
+      <c r="E64" s="19">
+        <f>E15/E61</f>
+        <v>0.12404545408227385</v>
+      </c>
+      <c r="F64" s="19">
+        <f>F15/F61</f>
+        <v>0.12657823752851491</v>
       </c>
     </row>
   </sheetData>
@@ -8958,3085 +8913,1616 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y52"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X33" sqref="X33"/>
+      <selection pane="bottomRight" activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="10.83203125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="21" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="20"/>
+    <col min="1" max="1" width="17.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="21"/>
+    <col min="3" max="5" width="10.83203125" style="20"/>
+    <col min="6" max="6" width="10.83203125" style="21"/>
+    <col min="7" max="9" width="10.83203125" style="20"/>
     <col min="10" max="10" width="10.83203125" style="21"/>
     <col min="11" max="13" width="10.83203125" style="20"/>
-    <col min="14" max="14" width="10.83203125" style="21"/>
-    <col min="15" max="17" width="10.83203125" style="20"/>
-    <col min="18" max="18" width="10.83203125" style="21"/>
-    <col min="19" max="21" width="10.83203125" style="20"/>
-    <col min="22" max="22" width="10.83203125" style="21"/>
-    <col min="23" max="25" width="10.83203125" style="20"/>
-    <col min="26" max="16384" width="10.83203125" style="6"/>
+    <col min="14" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="20" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="G1" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>25</v>
+      <c r="H1" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="J1" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="60">
+        <v>43190</v>
+      </c>
+      <c r="C2" s="59">
+        <v>43281</v>
+      </c>
+      <c r="D2" s="59">
+        <v>43373</v>
+      </c>
+      <c r="E2" s="59">
+        <v>43465</v>
+      </c>
+      <c r="F2" s="60">
+        <v>43555</v>
+      </c>
+      <c r="G2" s="59">
+        <v>43646</v>
+      </c>
+      <c r="H2" s="59">
+        <v>43738</v>
+      </c>
+      <c r="I2" s="59">
+        <v>43830</v>
+      </c>
+      <c r="J2" s="60">
+        <v>43921</v>
+      </c>
+      <c r="K2" s="59">
+        <v>44012</v>
+      </c>
+      <c r="L2" s="59">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="22">
+        <v>642.84</v>
+      </c>
+      <c r="C3" s="23">
+        <v>903.43100000000004</v>
+      </c>
+      <c r="D3" s="23">
+        <v>1265.127</v>
+      </c>
+      <c r="E3" s="23">
+        <v>840.58699999999999</v>
+      </c>
+      <c r="F3" s="22">
+        <v>839.00400000000002</v>
+      </c>
+      <c r="G3" s="23">
+        <v>1213.6780000000001</v>
+      </c>
+      <c r="H3" s="23">
+        <v>1645.761</v>
+      </c>
+      <c r="I3" s="23">
+        <v>1106.796</v>
+      </c>
+      <c r="J3" s="22">
+        <v>841.83</v>
+      </c>
+      <c r="K3" s="23">
+        <v>334.774</v>
+      </c>
+      <c r="L3" s="23">
+        <v>1342.3309999999999</v>
+      </c>
+      <c r="M3" s="23">
+        <f>I3*0.9</f>
+        <v>996.11640000000011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="J4" s="40"/>
+    </row>
+    <row r="5" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="B5" s="25">
+        <f>SUM(B3:B3)</f>
+        <v>642.84</v>
+      </c>
+      <c r="C5" s="24">
+        <f>SUM(C3:C3)</f>
+        <v>903.43100000000004</v>
+      </c>
+      <c r="D5" s="24">
+        <f>SUM(D3:D3)</f>
+        <v>1265.127</v>
+      </c>
+      <c r="E5" s="24">
+        <f>SUM(E3:E3)</f>
+        <v>840.58699999999999</v>
+      </c>
+      <c r="F5" s="25">
+        <f>SUM(F3:F3)</f>
+        <v>839.00400000000002</v>
+      </c>
+      <c r="G5" s="24">
+        <f>SUM(G3:G3)</f>
+        <v>1213.6780000000001</v>
+      </c>
+      <c r="H5" s="24">
+        <f>SUM(H3:H3)</f>
+        <v>1645.761</v>
+      </c>
+      <c r="I5" s="24">
+        <f>SUM(I3:I3)</f>
+        <v>1106.796</v>
+      </c>
+      <c r="J5" s="25">
+        <f>SUM(J3:J3)</f>
+        <v>841.83</v>
+      </c>
+      <c r="K5" s="24">
+        <f>SUM(K3:K3)</f>
+        <v>334.774</v>
+      </c>
+      <c r="L5" s="24">
+        <f>SUM(L3:L3)</f>
+        <v>1342.3309999999999</v>
+      </c>
+      <c r="M5" s="24">
+        <f>SUM(M3:M3)</f>
+        <v>996.11640000000011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="U1" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="V1" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="W1" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="X1" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y1" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="F2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="V2" s="61">
-        <v>43921</v>
-      </c>
-      <c r="W2" s="60">
-        <v>44012</v>
-      </c>
-      <c r="X2" s="60">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="22">
-        <v>841.83</v>
-      </c>
-      <c r="W3" s="23">
-        <v>334.774</v>
-      </c>
-      <c r="X3" s="23">
-        <v>1342.3309999999999</v>
-      </c>
-      <c r="Y3" s="23"/>
-    </row>
-    <row r="4" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-    </row>
-    <row r="5" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-    </row>
-    <row r="6" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="V6" s="40"/>
-    </row>
-    <row r="7" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="24">
-        <f t="shared" ref="B7:X7" si="0">SUM(B3:B5)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="25">
-        <f t="shared" si="0"/>
-        <v>841.83</v>
-      </c>
-      <c r="W7" s="24">
-        <f t="shared" si="0"/>
-        <v>334.774</v>
-      </c>
-      <c r="X7" s="24">
-        <f t="shared" si="0"/>
-        <v>1342.3309999999999</v>
-      </c>
-      <c r="Y7" s="51"/>
-    </row>
-    <row r="8" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="23">
-        <v>166.798</v>
-      </c>
-      <c r="C8" s="23">
-        <v>185.173</v>
-      </c>
-      <c r="D8" s="23">
-        <v>190.98500000000001</v>
-      </c>
-      <c r="E8" s="23">
-        <v>201.36099999999999</v>
-      </c>
-      <c r="F8" s="22">
-        <v>198.572</v>
-      </c>
-      <c r="G8" s="23">
-        <v>202.07900000000001</v>
-      </c>
-      <c r="H8" s="23">
-        <v>202.70099999999999</v>
-      </c>
-      <c r="I8" s="23">
-        <v>216.55600000000001</v>
-      </c>
-      <c r="J8" s="22">
-        <v>237.33699999999999</v>
-      </c>
-      <c r="K8" s="23">
-        <v>239.36</v>
-      </c>
-      <c r="L8" s="23">
-        <v>262.92200000000003</v>
-      </c>
-      <c r="M8" s="23">
-        <v>270.87200000000001</v>
-      </c>
-      <c r="N8" s="22">
-        <v>258.90199999999999</v>
-      </c>
-      <c r="O8" s="23">
-        <v>281.34399999999999</v>
-      </c>
-      <c r="P8" s="23">
-        <v>295.49200000000002</v>
-      </c>
-      <c r="Q8" s="23">
-        <v>359.26100000000002</v>
-      </c>
-      <c r="R8" s="22">
-        <v>397.286</v>
-      </c>
-      <c r="S8" s="23">
-        <v>407.488</v>
-      </c>
-      <c r="T8" s="52">
-        <v>415.96300000000002</v>
-      </c>
-      <c r="U8" s="52">
-        <v>451.983</v>
-      </c>
-      <c r="V8" s="22">
+      <c r="B6" s="22">
+        <f>203+128</f>
+        <v>331</v>
+      </c>
+      <c r="C6" s="23">
+        <f>218+154</f>
+        <v>372</v>
+      </c>
+      <c r="D6" s="23">
+        <f>227+170</f>
+        <v>397</v>
+      </c>
+      <c r="E6" s="23">
+        <f>216+157</f>
+        <v>373</v>
+      </c>
+      <c r="F6" s="22">
+        <f>281+167</f>
+        <v>448</v>
+      </c>
+      <c r="G6" s="23">
+        <f>313+211</f>
+        <v>524</v>
+      </c>
+      <c r="H6" s="51">
+        <f>309+223</f>
+        <v>532</v>
+      </c>
+      <c r="I6" s="51">
+        <f>294+214</f>
+        <v>508</v>
+      </c>
+      <c r="J6" s="22">
         <f>278+222</f>
         <v>500</v>
       </c>
-      <c r="W8" s="52">
+      <c r="K6" s="51">
         <f>161+160</f>
         <v>321</v>
       </c>
-      <c r="X8" s="52">
+      <c r="L6" s="51">
         <f>227+166</f>
         <v>393</v>
       </c>
-      <c r="Y8" s="52"/>
-    </row>
-    <row r="9" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M6" s="51">
+        <f>M5-M7</f>
+        <v>457.20000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="27">
+        <f>B5-B6</f>
+        <v>311.84000000000003</v>
+      </c>
+      <c r="C7" s="26">
+        <f>C5-C6</f>
+        <v>531.43100000000004</v>
+      </c>
+      <c r="D7" s="26">
+        <f t="shared" ref="D7:F7" si="0">D5-D6</f>
+        <v>868.12699999999995</v>
+      </c>
+      <c r="E7" s="26">
+        <f t="shared" si="0"/>
+        <v>467.58699999999999</v>
+      </c>
+      <c r="F7" s="27">
+        <f t="shared" si="0"/>
+        <v>391.00400000000002</v>
+      </c>
+      <c r="G7" s="26">
+        <f t="shared" ref="G7:L7" si="1">G5-G6</f>
+        <v>689.67800000000011</v>
+      </c>
+      <c r="H7" s="26">
+        <f t="shared" si="1"/>
+        <v>1113.761</v>
+      </c>
+      <c r="I7" s="26">
+        <f t="shared" si="1"/>
+        <v>598.79600000000005</v>
+      </c>
+      <c r="J7" s="27">
+        <f t="shared" ref="J7" si="2">J5-J6</f>
+        <v>341.83000000000004</v>
+      </c>
+      <c r="K7" s="26">
+        <f t="shared" si="1"/>
+        <v>13.774000000000001</v>
+      </c>
+      <c r="L7" s="26">
+        <f t="shared" si="1"/>
+        <v>949.3309999999999</v>
+      </c>
+      <c r="M7" s="51">
+        <f>M5*I20</f>
+        <v>538.91640000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="22">
+        <v>123</v>
+      </c>
+      <c r="C8" s="23">
+        <v>154</v>
+      </c>
+      <c r="D8" s="23">
+        <v>142</v>
+      </c>
+      <c r="E8" s="23">
+        <v>160</v>
+      </c>
+      <c r="F8" s="22">
+        <v>185</v>
+      </c>
+      <c r="G8" s="23">
+        <v>232</v>
+      </c>
+      <c r="H8" s="51">
+        <v>276</v>
+      </c>
+      <c r="I8" s="51">
+        <v>283</v>
+      </c>
+      <c r="J8" s="22">
+        <v>259</v>
+      </c>
+      <c r="K8" s="51">
+        <v>218</v>
+      </c>
+      <c r="L8" s="51">
+        <v>214</v>
+      </c>
+      <c r="M8" s="51">
+        <f>I8*0.8</f>
+        <v>226.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="26">
-        <f>B7-B8</f>
-        <v>-166.798</v>
-      </c>
-      <c r="C9" s="26">
-        <f>C7-C8</f>
-        <v>-185.173</v>
-      </c>
-      <c r="D9" s="26">
-        <f>D7-D8</f>
-        <v>-190.98500000000001</v>
-      </c>
-      <c r="E9" s="26">
-        <f>E7-E8</f>
-        <v>-201.36099999999999</v>
-      </c>
-      <c r="F9" s="27">
-        <f>F7-F8</f>
-        <v>-198.572</v>
-      </c>
-      <c r="G9" s="26">
-        <f t="shared" ref="G9:L9" si="1">G7-G8</f>
-        <v>-202.07900000000001</v>
-      </c>
-      <c r="H9" s="26">
-        <f t="shared" si="1"/>
-        <v>-202.70099999999999</v>
-      </c>
-      <c r="I9" s="26">
-        <f t="shared" si="1"/>
-        <v>-216.55600000000001</v>
-      </c>
-      <c r="J9" s="27">
-        <f t="shared" si="1"/>
-        <v>-237.33699999999999</v>
-      </c>
-      <c r="K9" s="26">
-        <f t="shared" si="1"/>
-        <v>-239.36</v>
-      </c>
-      <c r="L9" s="26">
-        <f t="shared" si="1"/>
-        <v>-262.92200000000003</v>
-      </c>
-      <c r="M9" s="26">
-        <f t="shared" ref="M9" si="2">M7-M8</f>
-        <v>-270.87200000000001</v>
-      </c>
-      <c r="N9" s="27">
-        <f>N7-N8</f>
-        <v>-258.90199999999999</v>
-      </c>
-      <c r="O9" s="26">
-        <f>O7-O8</f>
-        <v>-281.34399999999999</v>
-      </c>
-      <c r="P9" s="26">
-        <f t="shared" ref="P9:R9" si="3">P7-P8</f>
-        <v>-295.49200000000002</v>
-      </c>
-      <c r="Q9" s="26">
-        <f t="shared" si="3"/>
-        <v>-359.26100000000002</v>
-      </c>
-      <c r="R9" s="27">
-        <f t="shared" si="3"/>
-        <v>-397.286</v>
-      </c>
-      <c r="S9" s="26">
-        <f t="shared" ref="S9:X9" si="4">S7-S8</f>
-        <v>-407.488</v>
-      </c>
-      <c r="T9" s="26">
-        <f t="shared" si="4"/>
-        <v>-415.96300000000002</v>
-      </c>
-      <c r="U9" s="26">
-        <f t="shared" si="4"/>
-        <v>-451.983</v>
-      </c>
-      <c r="V9" s="27">
-        <f t="shared" ref="V9" si="5">V7-V8</f>
-        <v>341.83000000000004</v>
-      </c>
-      <c r="W9" s="26">
-        <f t="shared" si="4"/>
-        <v>13.774000000000001</v>
-      </c>
-      <c r="X9" s="26">
-        <f t="shared" si="4"/>
-        <v>949.3309999999999</v>
-      </c>
-      <c r="Y9" s="52"/>
-    </row>
-    <row r="10" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="B9" s="22">
+        <v>232</v>
+      </c>
+      <c r="C9" s="23">
+        <v>264</v>
+      </c>
+      <c r="D9" s="23">
+        <v>306</v>
+      </c>
+      <c r="E9" s="23">
+        <v>299</v>
+      </c>
+      <c r="F9" s="22">
+        <v>367</v>
+      </c>
+      <c r="G9" s="23">
+        <v>388</v>
+      </c>
+      <c r="H9" s="51">
+        <v>430</v>
+      </c>
+      <c r="I9" s="51">
+        <v>437</v>
+      </c>
+      <c r="J9" s="22">
+        <v>317</v>
+      </c>
+      <c r="K9" s="51">
+        <v>115</v>
+      </c>
+      <c r="L9" s="51">
+        <v>113</v>
+      </c>
+      <c r="M9" s="51">
+        <f>I9*0.5</f>
+        <v>218.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23">
-        <v>215.50899999999999</v>
+        <v>5</v>
+      </c>
+      <c r="B10" s="22">
+        <v>93</v>
       </c>
       <c r="C10" s="23">
-        <v>208.047</v>
+        <v>102</v>
       </c>
       <c r="D10" s="23">
-        <v>218.66</v>
+        <v>98</v>
       </c>
       <c r="E10" s="23">
-        <v>220.51400000000001</v>
+        <v>187</v>
       </c>
       <c r="F10" s="22">
-        <v>237.20400000000001</v>
+        <v>146</v>
       </c>
       <c r="G10" s="23">
-        <v>232.48400000000001</v>
-      </c>
-      <c r="H10" s="23">
-        <v>248.45</v>
-      </c>
-      <c r="I10" s="23">
-        <v>257.84899999999999</v>
+        <v>169</v>
+      </c>
+      <c r="H10" s="51">
+        <v>175</v>
+      </c>
+      <c r="I10" s="51">
+        <v>207</v>
       </c>
       <c r="J10" s="22">
-        <v>285.077</v>
-      </c>
-      <c r="K10" s="23">
-        <v>299.40100000000001</v>
-      </c>
-      <c r="L10" s="23">
-        <v>315.55500000000001</v>
-      </c>
-      <c r="M10" s="23">
-        <v>324.02600000000001</v>
-      </c>
-      <c r="N10" s="22">
-        <v>348.76900000000001</v>
-      </c>
-      <c r="O10" s="23">
-        <v>374.12799999999999</v>
-      </c>
-      <c r="P10" s="23">
-        <v>398.95699999999999</v>
-      </c>
-      <c r="Q10" s="23">
-        <v>415.95800000000003</v>
-      </c>
-      <c r="R10" s="22">
-        <v>464.637</v>
-      </c>
-      <c r="S10" s="23">
-        <v>475.95800000000003</v>
-      </c>
-      <c r="T10" s="52">
-        <v>489.827</v>
-      </c>
-      <c r="U10" s="52">
-        <v>499.80599999999998</v>
-      </c>
-      <c r="V10" s="22">
-        <v>259</v>
-      </c>
-      <c r="W10" s="52">
-        <v>218</v>
-      </c>
-      <c r="X10" s="52">
-        <v>214</v>
-      </c>
-      <c r="Y10" s="52"/>
-    </row>
-    <row r="11" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="23">
-        <v>392.74099999999999</v>
-      </c>
-      <c r="C11" s="23">
-        <v>426.99799999999999</v>
-      </c>
-      <c r="D11" s="23">
-        <v>422.03100000000001</v>
-      </c>
-      <c r="E11" s="23">
-        <v>441.47199999999998</v>
-      </c>
-      <c r="F11" s="22">
-        <v>474.89100000000002</v>
-      </c>
-      <c r="G11" s="23">
-        <v>462.78899999999999</v>
-      </c>
-      <c r="H11" s="23">
-        <v>477.47500000000002</v>
-      </c>
-      <c r="I11" s="23">
-        <v>495.04199999999997</v>
-      </c>
-      <c r="J11" s="22">
-        <v>520.29700000000003</v>
-      </c>
-      <c r="K11" s="23">
-        <v>553.09799999999996</v>
-      </c>
-      <c r="L11" s="23">
-        <v>550.09299999999996</v>
-      </c>
-      <c r="M11" s="23">
-        <v>574.10400000000004</v>
-      </c>
-      <c r="N11" s="22">
-        <v>580.95699999999999</v>
-      </c>
-      <c r="O11" s="23">
-        <v>646.21500000000003</v>
-      </c>
-      <c r="P11" s="23">
-        <v>670.08399999999995</v>
-      </c>
-      <c r="Q11" s="23">
-        <v>723.57299999999998</v>
-      </c>
-      <c r="R11" s="22">
-        <v>781.51800000000003</v>
-      </c>
-      <c r="S11" s="23">
-        <v>848.92700000000002</v>
-      </c>
-      <c r="T11" s="52">
-        <v>812.31399999999996</v>
-      </c>
-      <c r="U11" s="52">
-        <v>801.58799999999997</v>
-      </c>
-      <c r="V11" s="22">
-        <v>317</v>
-      </c>
-      <c r="W11" s="52">
-        <v>115</v>
-      </c>
-      <c r="X11" s="52">
-        <v>113</v>
-      </c>
-      <c r="Y11" s="52"/>
-    </row>
-    <row r="12" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="23">
-        <f>145.081+1.755+14.272</f>
-        <v>161.10799999999998</v>
-      </c>
-      <c r="C12" s="23">
-        <f>130.208+0.034+18.081</f>
-        <v>148.32299999999998</v>
-      </c>
-      <c r="D12" s="23">
-        <f>122.578-0.751+18.246</f>
-        <v>140.07300000000001</v>
-      </c>
-      <c r="E12" s="23">
-        <f>134.052+0.521+18.05</f>
-        <v>152.62299999999999</v>
-      </c>
-      <c r="F12" s="22">
-        <f>146.935-0.419+18.394</f>
-        <v>164.91</v>
-      </c>
-      <c r="G12" s="23">
-        <f>138.596-0.466+18.988</f>
-        <v>157.11799999999999</v>
-      </c>
-      <c r="H12" s="23">
-        <f>143.702-0.338+22.652</f>
-        <v>166.01600000000002</v>
-      </c>
-      <c r="I12" s="23">
-        <f>148.477-0.285+18.5</f>
-        <v>166.69200000000001</v>
-      </c>
-      <c r="J12" s="22">
-        <f>150.808+19.128</f>
-        <v>169.93599999999998</v>
-      </c>
-      <c r="K12" s="23">
-        <f>156.929+19.32</f>
-        <v>176.249</v>
-      </c>
-      <c r="L12" s="23">
-        <f>147.402+19.428</f>
-        <v>166.82999999999998</v>
-      </c>
-      <c r="M12" s="23">
-        <f>169.567+18.686</f>
-        <v>188.25300000000001</v>
-      </c>
-      <c r="N12" s="22">
-        <f>170.44+17.146</f>
-        <v>187.58600000000001</v>
-      </c>
-      <c r="O12" s="23">
-        <f>178.04+17.149</f>
-        <v>195.18899999999999</v>
-      </c>
-      <c r="P12" s="23">
-        <f>184.063+23.874</f>
-        <v>207.93699999999998</v>
-      </c>
-      <c r="Q12" s="23">
-        <f>212.355+32.932</f>
-        <v>245.28699999999998</v>
-      </c>
-      <c r="R12" s="22">
-        <f>216.109+46.566</f>
-        <v>262.67500000000001</v>
-      </c>
-      <c r="S12" s="23">
-        <f>219.334+43.026</f>
-        <v>262.36</v>
-      </c>
-      <c r="T12" s="52">
-        <f>219.256+42.954</f>
-        <v>262.20999999999998</v>
-      </c>
-      <c r="U12" s="52">
-        <f>225.938+42.698</f>
-        <v>268.63599999999997</v>
-      </c>
-      <c r="V12" s="22">
         <v>92</v>
       </c>
-      <c r="W12" s="52">
+      <c r="K10" s="51">
         <f>150+114</f>
         <v>264</v>
       </c>
-      <c r="X12" s="52">
+      <c r="L10" s="51">
         <f>180+23</f>
         <v>203</v>
       </c>
-      <c r="Y12" s="52"/>
-    </row>
-    <row r="13" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M10" s="51">
+        <f>I10*1.1</f>
+        <v>227.70000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="27">
+        <f t="shared" ref="B11" si="3">SUM(B8:B10)</f>
+        <v>448</v>
+      </c>
+      <c r="C11" s="26">
+        <f t="shared" ref="C11:D11" si="4">SUM(C8:C10)</f>
+        <v>520</v>
+      </c>
+      <c r="D11" s="26">
+        <f t="shared" si="4"/>
+        <v>546</v>
+      </c>
+      <c r="E11" s="26">
+        <f t="shared" ref="E11:G11" si="5">SUM(E8:E10)</f>
+        <v>646</v>
+      </c>
+      <c r="F11" s="27">
+        <f t="shared" si="5"/>
+        <v>698</v>
+      </c>
+      <c r="G11" s="26">
+        <f t="shared" si="5"/>
+        <v>789</v>
+      </c>
+      <c r="H11" s="26">
+        <f t="shared" ref="H11:I11" si="6">SUM(H8:H10)</f>
+        <v>881</v>
+      </c>
+      <c r="I11" s="26">
+        <f t="shared" si="6"/>
+        <v>927</v>
+      </c>
+      <c r="J11" s="27">
+        <f t="shared" ref="J11:L11" si="7">SUM(J8:J10)</f>
+        <v>668</v>
+      </c>
+      <c r="K11" s="26">
+        <f t="shared" si="7"/>
+        <v>597</v>
+      </c>
+      <c r="L11" s="26">
+        <f t="shared" si="7"/>
+        <v>530</v>
+      </c>
+      <c r="M11" s="26">
+        <f t="shared" ref="M11" si="8">SUM(M8:M10)</f>
+        <v>672.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="27">
+        <f t="shared" ref="B12:D12" si="9">B7-B11</f>
+        <v>-136.15999999999997</v>
+      </c>
+      <c r="C12" s="26">
+        <f t="shared" si="9"/>
+        <v>11.43100000000004</v>
+      </c>
+      <c r="D12" s="26">
+        <f t="shared" si="9"/>
+        <v>322.12699999999995</v>
+      </c>
+      <c r="E12" s="26">
+        <f t="shared" ref="E12:G12" si="10">E7-E11</f>
+        <v>-178.41300000000001</v>
+      </c>
+      <c r="F12" s="27">
+        <f t="shared" si="10"/>
+        <v>-306.99599999999998</v>
+      </c>
+      <c r="G12" s="26">
+        <f t="shared" si="10"/>
+        <v>-99.321999999999889</v>
+      </c>
+      <c r="H12" s="26">
+        <f t="shared" ref="H12:I12" si="11">H7-H11</f>
+        <v>232.76099999999997</v>
+      </c>
+      <c r="I12" s="26">
+        <f t="shared" si="11"/>
+        <v>-328.20399999999995</v>
+      </c>
+      <c r="J12" s="27">
+        <f t="shared" ref="J12:L12" si="12">J7-J11</f>
+        <v>-326.16999999999996</v>
+      </c>
+      <c r="K12" s="26">
+        <f t="shared" si="12"/>
+        <v>-583.226</v>
+      </c>
+      <c r="L12" s="26">
+        <f t="shared" si="12"/>
+        <v>419.3309999999999</v>
+      </c>
+      <c r="M12" s="26">
+        <f t="shared" ref="M12" si="13">M7-M11</f>
+        <v>-133.68359999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="22">
+        <f>10-5-2</f>
+        <v>3</v>
+      </c>
+      <c r="C13" s="23">
+        <f>16-6+0</f>
         <v>10</v>
       </c>
-      <c r="B13" s="26">
-        <f>SUM(B10:B12)</f>
-        <v>769.35799999999995</v>
-      </c>
-      <c r="C13" s="26">
-        <f>SUM(C10:C12)</f>
-        <v>783.36799999999994</v>
-      </c>
-      <c r="D13" s="26">
-        <f>SUM(D10:D12)</f>
-        <v>780.76400000000001</v>
-      </c>
-      <c r="E13" s="26">
-        <f>SUM(E10:E12)</f>
-        <v>814.60899999999992</v>
-      </c>
-      <c r="F13" s="27">
-        <f>SUM(F10:F12)</f>
-        <v>877.005</v>
-      </c>
-      <c r="G13" s="26">
-        <f t="shared" ref="G13:L13" si="6">SUM(G10:G12)</f>
-        <v>852.39100000000008</v>
-      </c>
-      <c r="H13" s="26">
-        <f t="shared" si="6"/>
-        <v>891.94100000000003</v>
-      </c>
-      <c r="I13" s="26">
-        <f t="shared" si="6"/>
-        <v>919.58299999999997</v>
-      </c>
-      <c r="J13" s="27">
-        <f t="shared" si="6"/>
-        <v>975.31</v>
-      </c>
-      <c r="K13" s="26">
-        <f t="shared" si="6"/>
-        <v>1028.748</v>
-      </c>
-      <c r="L13" s="26">
-        <f t="shared" si="6"/>
-        <v>1032.4779999999998</v>
-      </c>
-      <c r="M13" s="26">
-        <f t="shared" ref="M13:N13" si="7">SUM(M10:M12)</f>
-        <v>1086.383</v>
-      </c>
-      <c r="N13" s="27">
-        <f t="shared" si="7"/>
-        <v>1117.3119999999999</v>
-      </c>
-      <c r="O13" s="26">
-        <f t="shared" ref="O13:P13" si="8">SUM(O10:O12)</f>
-        <v>1215.5320000000002</v>
-      </c>
-      <c r="P13" s="26">
-        <f t="shared" si="8"/>
-        <v>1276.9779999999998</v>
-      </c>
-      <c r="Q13" s="26">
-        <f t="shared" ref="Q13:S13" si="9">SUM(Q10:Q12)</f>
-        <v>1384.818</v>
-      </c>
-      <c r="R13" s="27">
-        <f t="shared" si="9"/>
-        <v>1508.83</v>
-      </c>
-      <c r="S13" s="26">
-        <f t="shared" si="9"/>
-        <v>1587.2449999999999</v>
-      </c>
-      <c r="T13" s="26">
-        <f t="shared" ref="T13:U13" si="10">SUM(T10:T12)</f>
-        <v>1564.3510000000001</v>
-      </c>
-      <c r="U13" s="26">
-        <f t="shared" si="10"/>
-        <v>1570.03</v>
-      </c>
-      <c r="V13" s="27">
-        <f t="shared" ref="V13:X13" si="11">SUM(V10:V12)</f>
-        <v>668</v>
-      </c>
-      <c r="W13" s="26">
-        <f t="shared" si="11"/>
-        <v>597</v>
-      </c>
-      <c r="X13" s="26">
-        <f t="shared" si="11"/>
-        <v>530</v>
-      </c>
-      <c r="Y13" s="52"/>
-    </row>
-    <row r="14" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="26">
-        <f>B9-B13</f>
-        <v>-936.15599999999995</v>
-      </c>
-      <c r="C14" s="26">
-        <f>C9-C13</f>
-        <v>-968.54099999999994</v>
-      </c>
-      <c r="D14" s="26">
-        <f>D9-D13</f>
-        <v>-971.74900000000002</v>
-      </c>
-      <c r="E14" s="26">
-        <f>E9-E13</f>
-        <v>-1015.9699999999999</v>
-      </c>
-      <c r="F14" s="27">
-        <f>F9-F13</f>
-        <v>-1075.577</v>
-      </c>
-      <c r="G14" s="26">
-        <f t="shared" ref="G14:H14" si="12">G9-G13</f>
-        <v>-1054.47</v>
-      </c>
-      <c r="H14" s="26">
-        <f t="shared" si="12"/>
-        <v>-1094.6420000000001</v>
-      </c>
-      <c r="I14" s="26">
-        <f t="shared" ref="I14:P14" si="13">I9-I13</f>
-        <v>-1136.1389999999999</v>
-      </c>
-      <c r="J14" s="27">
-        <f t="shared" si="13"/>
-        <v>-1212.6469999999999</v>
-      </c>
-      <c r="K14" s="26">
-        <f t="shared" si="13"/>
-        <v>-1268.1080000000002</v>
-      </c>
-      <c r="L14" s="26">
-        <f t="shared" si="13"/>
-        <v>-1295.3999999999999</v>
-      </c>
-      <c r="M14" s="26">
-        <f t="shared" si="13"/>
-        <v>-1357.2550000000001</v>
-      </c>
-      <c r="N14" s="27">
-        <f t="shared" si="13"/>
-        <v>-1376.2139999999999</v>
-      </c>
-      <c r="O14" s="26">
-        <f t="shared" si="13"/>
-        <v>-1496.8760000000002</v>
-      </c>
-      <c r="P14" s="26">
-        <f t="shared" si="13"/>
-        <v>-1572.4699999999998</v>
-      </c>
-      <c r="Q14" s="26">
-        <f t="shared" ref="Q14:S14" si="14">Q9-Q13</f>
-        <v>-1744.079</v>
-      </c>
-      <c r="R14" s="27">
-        <f t="shared" si="14"/>
-        <v>-1906.116</v>
-      </c>
-      <c r="S14" s="26">
-        <f t="shared" si="14"/>
-        <v>-1994.7329999999999</v>
-      </c>
-      <c r="T14" s="26">
-        <f t="shared" ref="T14:U14" si="15">T9-T13</f>
-        <v>-1980.3140000000001</v>
-      </c>
-      <c r="U14" s="26">
-        <f t="shared" si="15"/>
-        <v>-2022.0129999999999</v>
-      </c>
-      <c r="V14" s="27">
-        <f t="shared" ref="V14:X14" si="16">V9-V13</f>
-        <v>-326.16999999999996</v>
-      </c>
-      <c r="W14" s="26">
-        <f t="shared" si="16"/>
-        <v>-583.226</v>
-      </c>
-      <c r="X14" s="26">
-        <f t="shared" si="16"/>
-        <v>419.3309999999999</v>
-      </c>
-      <c r="Y14" s="52"/>
-    </row>
-    <row r="15" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="23">
-        <v>-9.7769999999999992</v>
-      </c>
-      <c r="C15" s="23">
-        <v>-12.643000000000001</v>
-      </c>
-      <c r="D15" s="23">
-        <v>-13.4</v>
-      </c>
-      <c r="E15" s="23">
-        <v>6.5060000000000002</v>
-      </c>
-      <c r="F15" s="22">
-        <v>-15.451000000000001</v>
-      </c>
-      <c r="G15" s="23">
-        <v>-14.409000000000001</v>
-      </c>
-      <c r="H15" s="23">
-        <v>-13.023999999999999</v>
-      </c>
-      <c r="I15" s="23">
-        <v>-15.58</v>
-      </c>
-      <c r="J15" s="22">
-        <v>-8.3670000000000009</v>
-      </c>
-      <c r="K15" s="23">
-        <v>-11.464</v>
-      </c>
-      <c r="L15" s="23">
-        <v>-4.2949999999999999</v>
-      </c>
-      <c r="M15" s="23">
-        <v>-6.3280000000000003</v>
-      </c>
-      <c r="N15" s="22">
-        <v>-0.23100000000000001</v>
-      </c>
-      <c r="O15" s="23">
-        <v>-7.6849999999999996</v>
-      </c>
-      <c r="P15" s="23">
-        <v>-17.248000000000001</v>
-      </c>
-      <c r="Q15" s="23">
-        <v>-21.329000000000001</v>
-      </c>
-      <c r="R15" s="22">
-        <v>7.5039999999999996</v>
-      </c>
-      <c r="S15" s="23">
-        <v>-38.774999999999999</v>
-      </c>
-      <c r="T15" s="52">
-        <v>-19.324000000000002</v>
-      </c>
-      <c r="U15" s="52">
-        <v>-12.784000000000001</v>
-      </c>
-      <c r="V15" s="22">
+      <c r="D13" s="23">
+        <f>20-5-6</f>
+        <v>9</v>
+      </c>
+      <c r="E13" s="23">
+        <f>21-10-5</f>
+        <v>6</v>
+      </c>
+      <c r="F13" s="22">
+        <f>22-2+7</f>
+        <v>27</v>
+      </c>
+      <c r="G13" s="23">
+        <f>24-2+6</f>
+        <v>28</v>
+      </c>
+      <c r="H13" s="51">
+        <f>22-3+29</f>
+        <v>48</v>
+      </c>
+      <c r="I13" s="51">
+        <f>17-3-28</f>
+        <v>-14</v>
+      </c>
+      <c r="J13" s="22">
         <f>17+2-47</f>
         <v>-28</v>
       </c>
-      <c r="W15" s="52">
+      <c r="K13" s="51">
         <f>6-49-13</f>
         <v>-56</v>
       </c>
-      <c r="X15" s="52">
+      <c r="L13" s="51">
         <f>4-60-56</f>
         <v>-112</v>
       </c>
-      <c r="Y15" s="52"/>
-    </row>
-    <row r="16" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+      <c r="M13" s="51">
+        <f>L13</f>
+        <v>-112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="27">
+        <f t="shared" ref="B14" si="14">B12+B13</f>
+        <v>-133.15999999999997</v>
+      </c>
+      <c r="C14" s="26">
+        <f t="shared" ref="C14" si="15">C12+C13</f>
+        <v>21.43100000000004</v>
+      </c>
+      <c r="D14" s="26">
+        <f t="shared" ref="D14:H14" si="16">D12+D13</f>
+        <v>331.12699999999995</v>
+      </c>
+      <c r="E14" s="26">
+        <f t="shared" si="16"/>
+        <v>-172.41300000000001</v>
+      </c>
+      <c r="F14" s="27">
+        <f t="shared" si="16"/>
+        <v>-279.99599999999998</v>
+      </c>
+      <c r="G14" s="26">
+        <f t="shared" si="16"/>
+        <v>-71.321999999999889</v>
+      </c>
+      <c r="H14" s="26">
+        <f t="shared" si="16"/>
+        <v>280.76099999999997</v>
+      </c>
+      <c r="I14" s="26">
+        <f t="shared" ref="I14" si="17">I12+I13</f>
+        <v>-342.20399999999995</v>
+      </c>
+      <c r="J14" s="27">
+        <f t="shared" ref="J14:M14" si="18">J12+J13</f>
+        <v>-354.16999999999996</v>
+      </c>
+      <c r="K14" s="26">
+        <f t="shared" si="18"/>
+        <v>-639.226</v>
+      </c>
+      <c r="L14" s="26">
+        <f t="shared" si="18"/>
+        <v>307.3309999999999</v>
+      </c>
+      <c r="M14" s="26">
+        <f t="shared" si="18"/>
+        <v>-245.68359999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="22">
+        <v>14</v>
+      </c>
+      <c r="C15" s="23">
+        <v>12</v>
+      </c>
+      <c r="D15" s="23">
+        <v>-8</v>
+      </c>
+      <c r="E15" s="23">
+        <v>46</v>
+      </c>
+      <c r="F15" s="22">
         <v>13</v>
       </c>
-      <c r="B16" s="26">
-        <f>B14+B15</f>
-        <v>-945.93299999999999</v>
-      </c>
-      <c r="C16" s="26">
-        <f>C14+C15</f>
-        <v>-981.18399999999997</v>
-      </c>
-      <c r="D16" s="26">
-        <f>D14+D15</f>
-        <v>-985.149</v>
-      </c>
-      <c r="E16" s="26">
-        <f>E14+E15</f>
-        <v>-1009.4639999999999</v>
-      </c>
-      <c r="F16" s="27">
-        <f>F14+F15</f>
-        <v>-1091.028</v>
-      </c>
-      <c r="G16" s="26">
-        <f t="shared" ref="G16:I16" si="17">G14+G15</f>
-        <v>-1068.8790000000001</v>
-      </c>
-      <c r="H16" s="26">
-        <f t="shared" si="17"/>
-        <v>-1107.6659999999999</v>
-      </c>
-      <c r="I16" s="26">
-        <f t="shared" si="17"/>
-        <v>-1151.7189999999998</v>
-      </c>
-      <c r="J16" s="27">
-        <f t="shared" ref="J16:K16" si="18">J14+J15</f>
-        <v>-1221.0139999999999</v>
-      </c>
-      <c r="K16" s="26">
-        <f t="shared" si="18"/>
-        <v>-1279.5720000000001</v>
-      </c>
-      <c r="L16" s="26">
-        <f t="shared" ref="L16:N16" si="19">L14+L15</f>
-        <v>-1299.6949999999999</v>
-      </c>
-      <c r="M16" s="26">
-        <f>M14+M15</f>
-        <v>-1363.5830000000001</v>
-      </c>
-      <c r="N16" s="27">
+      <c r="G15" s="23">
+        <v>225</v>
+      </c>
+      <c r="H15" s="23">
+        <v>15</v>
+      </c>
+      <c r="I15" s="23">
+        <v>10</v>
+      </c>
+      <c r="J15" s="22">
+        <v>-16</v>
+      </c>
+      <c r="K15" s="23">
+        <v>-64</v>
+      </c>
+      <c r="L15" s="23">
+        <v>88</v>
+      </c>
+      <c r="M15" s="23">
+        <f>M14*I22</f>
+        <v>7.1794485160898169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="25">
+        <f>B14-B15</f>
+        <v>-147.15999999999997</v>
+      </c>
+      <c r="C16" s="24">
+        <f>C14-C15</f>
+        <v>9.43100000000004</v>
+      </c>
+      <c r="D16" s="24">
+        <f>D14-D15</f>
+        <v>339.12699999999995</v>
+      </c>
+      <c r="E16" s="24">
+        <f>E14-E15</f>
+        <v>-218.41300000000001</v>
+      </c>
+      <c r="F16" s="25">
+        <f>F14-F15</f>
+        <v>-292.99599999999998</v>
+      </c>
+      <c r="G16" s="24">
+        <f>G14-G15</f>
+        <v>-296.32199999999989</v>
+      </c>
+      <c r="H16" s="24">
+        <f>H14-H15</f>
+        <v>265.76099999999997</v>
+      </c>
+      <c r="I16" s="24">
+        <f>I14-I15</f>
+        <v>-352.20399999999995</v>
+      </c>
+      <c r="J16" s="25">
+        <f>J14-J15</f>
+        <v>-338.16999999999996</v>
+      </c>
+      <c r="K16" s="24">
+        <f>K14-K15</f>
+        <v>-575.226</v>
+      </c>
+      <c r="L16" s="24">
+        <f>L14-L15</f>
+        <v>219.3309999999999</v>
+      </c>
+      <c r="M16" s="24">
+        <f>M14-M15</f>
+        <v>-252.86304851608978</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="62">
+        <f t="shared" ref="B17:G17" si="19">IFERROR(B16/B18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="61">
         <f t="shared" si="19"/>
-        <v>-1376.4449999999999</v>
-      </c>
-      <c r="O16" s="26">
-        <f t="shared" ref="O16" si="20">O14+O15</f>
-        <v>-1504.5610000000001</v>
-      </c>
-      <c r="P16" s="26">
-        <f t="shared" ref="P16:T16" si="21">P14+P15</f>
-        <v>-1589.7179999999998</v>
-      </c>
-      <c r="Q16" s="26">
+        <v>0</v>
+      </c>
+      <c r="D17" s="61">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="61">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="62">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="61">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="61">
+        <f t="shared" ref="H17:I17" si="20">IFERROR(H16/H18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="61">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="62">
+        <f t="shared" ref="J17:L17" si="21">IFERROR(J16/J18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="61">
         <f t="shared" si="21"/>
-        <v>-1765.4079999999999</v>
-      </c>
-      <c r="R16" s="27">
+        <v>0</v>
+      </c>
+      <c r="L17" s="61">
         <f t="shared" si="21"/>
-        <v>-1898.6120000000001</v>
-      </c>
-      <c r="S16" s="26">
-        <f t="shared" si="21"/>
-        <v>-2033.508</v>
-      </c>
-      <c r="T16" s="26">
-        <f t="shared" si="21"/>
-        <v>-1999.6380000000001</v>
-      </c>
-      <c r="U16" s="26">
-        <f t="shared" ref="U16" si="22">U14+U15</f>
-        <v>-2034.797</v>
-      </c>
-      <c r="V16" s="27">
-        <f t="shared" ref="V16:X16" si="23">V14+V15</f>
-        <v>-354.16999999999996</v>
-      </c>
-      <c r="W16" s="26">
-        <f t="shared" si="23"/>
-        <v>-639.226</v>
-      </c>
-      <c r="X16" s="26">
-        <f t="shared" si="23"/>
-        <v>307.3309999999999</v>
-      </c>
-      <c r="Y16" s="52"/>
-    </row>
-    <row r="17" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+        <v>0.41309551836819236</v>
+      </c>
+      <c r="M17" s="61">
+        <f t="shared" ref="M17" si="22">IFERROR(M16/M18,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51">
+        <v>530.94500000000005</v>
+      </c>
+      <c r="M18" s="51"/>
+    </row>
+    <row r="19" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="57"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="57"/>
+      <c r="J19" s="57"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="34">
+        <f>IFERROR(B7/B5,0)</f>
+        <v>0.48509738037458777</v>
+      </c>
+      <c r="C20" s="33">
+        <f>IFERROR(C7/C5,0)</f>
+        <v>0.58823640100904218</v>
+      </c>
+      <c r="D20" s="33">
+        <f>IFERROR(D7/D5,0)</f>
+        <v>0.68619751218652358</v>
+      </c>
+      <c r="E20" s="33">
+        <f>IFERROR(E7/E5,0)</f>
+        <v>0.55626246896513987</v>
+      </c>
+      <c r="F20" s="34">
+        <f>IFERROR(F7/F5,0)</f>
+        <v>0.46603353500102501</v>
+      </c>
+      <c r="G20" s="33">
+        <f>IFERROR(G7/G5,0)</f>
+        <v>0.56825451231710555</v>
+      </c>
+      <c r="H20" s="33">
+        <f>IFERROR(H7/H5,0)</f>
+        <v>0.6767452868308339</v>
+      </c>
+      <c r="I20" s="33">
+        <f>IFERROR(I7/I5,0)</f>
+        <v>0.54101749554570133</v>
+      </c>
+      <c r="J20" s="34">
+        <f>IFERROR(J7/J5,0)</f>
+        <v>0.40605585450744214</v>
+      </c>
+      <c r="K20" s="33">
+        <f>IFERROR(K7/K5,0)</f>
+        <v>4.114417487618513E-2</v>
+      </c>
+      <c r="L20" s="33">
+        <f>IFERROR(L7/L5,0)</f>
+        <v>0.70722571407499335</v>
+      </c>
+      <c r="M20" s="33">
+        <f>IFERROR(M7/M5,0)</f>
+        <v>0.54101749554570133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="36">
+        <f>IFERROR(B12/B5,0)</f>
+        <v>-0.21181009271358342</v>
+      </c>
+      <c r="C21" s="35">
+        <f>IFERROR(C12/C5,0)</f>
+        <v>1.2652875537810901E-2</v>
+      </c>
+      <c r="D21" s="35">
+        <f>IFERROR(D12/D5,0)</f>
+        <v>0.25462028713322848</v>
+      </c>
+      <c r="E21" s="35">
+        <f>IFERROR(E12/E5,0)</f>
+        <v>-0.21224810757244642</v>
+      </c>
+      <c r="F21" s="36">
+        <f>IFERROR(F12/F5,0)</f>
+        <v>-0.3659052876982708</v>
+      </c>
+      <c r="G21" s="35">
+        <f>IFERROR(G12/G5,0)</f>
+        <v>-8.1835544518397696E-2</v>
+      </c>
+      <c r="H21" s="35">
+        <f>IFERROR(H12/H5,0)</f>
+        <v>0.1414306208495644</v>
+      </c>
+      <c r="I21" s="35">
+        <f>IFERROR(I12/I5,0)</f>
+        <v>-0.29653522419669021</v>
+      </c>
+      <c r="J21" s="36">
+        <f>IFERROR(J12/J5,0)</f>
+        <v>-0.38745352387061516</v>
+      </c>
+      <c r="K21" s="35">
+        <f>IFERROR(K12/K5,0)</f>
+        <v>-1.742148434466237</v>
+      </c>
+      <c r="L21" s="35">
+        <f>IFERROR(L12/L5,0)</f>
+        <v>0.31239016308198198</v>
+      </c>
+      <c r="M21" s="35">
+        <f>IFERROR(M12/M5,0)</f>
+        <v>-0.13420479775255176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="36">
+        <f>IFERROR(B15/B14,0)</f>
+        <v>-0.10513667768098531</v>
+      </c>
+      <c r="C22" s="35">
+        <f>IFERROR(C15/C14,0)</f>
+        <v>0.55993654052540609</v>
+      </c>
+      <c r="D22" s="35">
+        <f>IFERROR(D15/D14,0)</f>
+        <v>-2.4159914473902765E-2</v>
+      </c>
+      <c r="E22" s="35">
+        <f>IFERROR(E15/E14,0)</f>
+        <v>-0.26680122728564548</v>
+      </c>
+      <c r="F22" s="36">
+        <f>IFERROR(F15/F14,0)</f>
+        <v>-4.642923470335291E-2</v>
+      </c>
+      <c r="G22" s="35">
+        <f>IFERROR(G15/G14,0)</f>
+        <v>-3.1547068225792931</v>
+      </c>
+      <c r="H22" s="35">
+        <f>IFERROR(H15/H14,0)</f>
+        <v>5.3426223727654487E-2</v>
+      </c>
+      <c r="I22" s="35">
+        <f>IFERROR(I15/I14,0)</f>
+        <v>-2.9222335215251725E-2</v>
+      </c>
+      <c r="J22" s="36">
+        <f>IFERROR(J15/J14,0)</f>
+        <v>4.5176045401925637E-2</v>
+      </c>
+      <c r="K22" s="35">
+        <f>IFERROR(K15/K14,0)</f>
+        <v>0.10012108393588497</v>
+      </c>
+      <c r="L22" s="35">
+        <f>IFERROR(L15/L14,0)</f>
+        <v>0.28633623031845151</v>
+      </c>
+      <c r="M22" s="35">
+        <f>IFERROR(M15/M14,0)</f>
+        <v>-2.9222335215251725E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="57"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="57"/>
+      <c r="J23" s="57"/>
+    </row>
+    <row r="24" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="23">
-        <v>78.36</v>
-      </c>
-      <c r="C17" s="23">
-        <v>33.481000000000002</v>
-      </c>
-      <c r="D17" s="23">
-        <v>58.154000000000003</v>
-      </c>
-      <c r="E17" s="23">
-        <v>74.234999999999999</v>
-      </c>
-      <c r="F17" s="22">
-        <v>38</v>
-      </c>
-      <c r="G17" s="23">
-        <v>85.756</v>
-      </c>
-      <c r="H17" s="23">
-        <v>85.513000000000005</v>
-      </c>
-      <c r="I17" s="23">
-        <v>57.087000000000003</v>
-      </c>
-      <c r="J17" s="22">
-        <v>62.186</v>
-      </c>
-      <c r="K17" s="23">
-        <v>118.22799999999999</v>
-      </c>
-      <c r="L17" s="23">
-        <v>121.81</v>
-      </c>
-      <c r="M17" s="23">
-        <v>141.46299999999999</v>
-      </c>
-      <c r="N17" s="22">
-        <v>119.426</v>
-      </c>
-      <c r="O17" s="23">
-        <v>27.632000000000001</v>
-      </c>
-      <c r="P17" s="23">
-        <v>35.067</v>
-      </c>
-      <c r="Q17" s="23">
-        <v>20.977</v>
-      </c>
-      <c r="R17" s="22">
-        <v>28.093</v>
-      </c>
-      <c r="S17" s="23">
-        <v>78.179000000000002</v>
-      </c>
-      <c r="T17" s="23">
-        <v>41.725000000000001</v>
-      </c>
-      <c r="U17" s="23">
-        <v>105.286</v>
-      </c>
-      <c r="V17" s="22">
-        <v>-16</v>
-      </c>
-      <c r="W17" s="23">
-        <v>-64</v>
-      </c>
-      <c r="X17" s="23">
-        <v>88</v>
-      </c>
-      <c r="Y17" s="23"/>
-    </row>
-    <row r="18" spans="1:25" s="47" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
-    </row>
-    <row r="19" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="24">
-        <f>B16-B17</f>
-        <v>-1024.2929999999999</v>
-      </c>
-      <c r="C19" s="24">
-        <f>C16-C17</f>
-        <v>-1014.665</v>
-      </c>
-      <c r="D19" s="24">
-        <f>D16-D17</f>
-        <v>-1043.3030000000001</v>
-      </c>
-      <c r="E19" s="24">
-        <f>E16-E17</f>
-        <v>-1083.6989999999998</v>
-      </c>
-      <c r="F19" s="25">
-        <f>F16-F17</f>
-        <v>-1129.028</v>
-      </c>
-      <c r="G19" s="24">
-        <f t="shared" ref="G19:H19" si="24">G16-G17</f>
-        <v>-1154.6350000000002</v>
-      </c>
-      <c r="H19" s="24">
-        <f t="shared" si="24"/>
-        <v>-1193.1789999999999</v>
-      </c>
-      <c r="I19" s="24">
-        <f t="shared" ref="I19:O19" si="25">I16-I17</f>
-        <v>-1208.8059999999998</v>
-      </c>
-      <c r="J19" s="25">
-        <f t="shared" si="25"/>
-        <v>-1283.1999999999998</v>
-      </c>
-      <c r="K19" s="24">
-        <f t="shared" si="25"/>
-        <v>-1397.8000000000002</v>
-      </c>
-      <c r="L19" s="24">
-        <f t="shared" si="25"/>
-        <v>-1421.5049999999999</v>
-      </c>
-      <c r="M19" s="24">
-        <f t="shared" si="25"/>
-        <v>-1505.046</v>
-      </c>
-      <c r="N19" s="25">
-        <f t="shared" si="25"/>
-        <v>-1495.8709999999999</v>
-      </c>
-      <c r="O19" s="24">
-        <f t="shared" si="25"/>
-        <v>-1532.1930000000002</v>
-      </c>
-      <c r="P19" s="24">
-        <f t="shared" ref="P19:S19" si="26">P16-P17</f>
-        <v>-1624.7849999999999</v>
-      </c>
-      <c r="Q19" s="24">
-        <f t="shared" si="26"/>
-        <v>-1786.385</v>
-      </c>
-      <c r="R19" s="25">
-        <f t="shared" si="26"/>
-        <v>-1926.7050000000002</v>
-      </c>
-      <c r="S19" s="24">
-        <f t="shared" si="26"/>
-        <v>-2111.6869999999999</v>
-      </c>
-      <c r="T19" s="24">
-        <f t="shared" ref="T19:U19" si="27">T16-T17</f>
-        <v>-2041.3630000000001</v>
-      </c>
-      <c r="U19" s="24">
-        <f t="shared" si="27"/>
-        <v>-2140.0830000000001</v>
-      </c>
-      <c r="V19" s="25">
-        <f t="shared" ref="V19:X19" si="28">V16-V17</f>
-        <v>-338.16999999999996</v>
-      </c>
-      <c r="W19" s="24">
-        <f t="shared" si="28"/>
-        <v>-575.226</v>
-      </c>
-      <c r="X19" s="24">
-        <f t="shared" si="28"/>
-        <v>219.3309999999999</v>
-      </c>
-      <c r="Y19" s="51"/>
-    </row>
-    <row r="20" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="62">
-        <f t="shared" ref="B20:H20" si="29">IFERROR(B19/B21,0)</f>
-        <v>-2.0182079341748005</v>
-      </c>
-      <c r="C20" s="62">
-        <f t="shared" si="29"/>
-        <v>-2.0069246927303581</v>
-      </c>
-      <c r="D20" s="62">
-        <f t="shared" si="29"/>
-        <v>-2.062642222657169</v>
-      </c>
-      <c r="E20" s="62">
-        <f>IFERROR(E19/E21,0)</f>
-        <v>-2.141646838414899</v>
-      </c>
-      <c r="F20" s="63">
-        <f t="shared" si="29"/>
-        <v>-2.2327102729811186</v>
-      </c>
-      <c r="G20" s="62">
-        <f t="shared" si="29"/>
-        <v>-2.2876516915151819</v>
-      </c>
-      <c r="H20" s="62">
-        <f t="shared" si="29"/>
-        <v>-2.3689744653730922</v>
-      </c>
-      <c r="I20" s="62">
-        <f t="shared" ref="I20:L20" si="30">IFERROR(I19/I21,0)</f>
-        <v>-2.4119391191916608</v>
-      </c>
-      <c r="J20" s="63">
-        <f t="shared" si="30"/>
-        <v>-2.5619882562227843</v>
-      </c>
-      <c r="K20" s="62">
-        <f t="shared" si="30"/>
-        <v>-2.7936388655164079</v>
-      </c>
-      <c r="L20" s="62">
-        <f t="shared" si="30"/>
-        <v>-2.8407487639838687</v>
-      </c>
-      <c r="M20" s="62">
-        <f t="shared" ref="M20" si="31">IFERROR(M19/M21,0)</f>
-        <v>-3.0097308323001242</v>
-      </c>
-      <c r="N20" s="63">
-        <f t="shared" ref="N20:S20" si="32">IFERROR(N19/N21,0)</f>
-        <v>-2.9951384870443079</v>
-      </c>
-      <c r="O20" s="62">
-        <f t="shared" si="32"/>
-        <v>-3.0751366778256788</v>
-      </c>
-      <c r="P20" s="62">
-        <f t="shared" si="32"/>
-        <v>-3.2700667785680646</v>
-      </c>
-      <c r="Q20" s="62">
-        <f t="shared" si="32"/>
-        <v>-3.6074884690259053</v>
-      </c>
-      <c r="R20" s="63">
-        <f t="shared" si="32"/>
-        <v>-3.8987288238484146</v>
-      </c>
-      <c r="S20" s="62">
-        <f t="shared" si="32"/>
-        <v>-4.2901981260107434</v>
-      </c>
-      <c r="T20" s="62">
-        <f t="shared" ref="T20:U20" si="33">IFERROR(T19/T21,0)</f>
-        <v>-4.157206511866602</v>
-      </c>
-      <c r="U20" s="62">
-        <f t="shared" si="33"/>
-        <v>-4.3777817780878019</v>
-      </c>
-      <c r="V20" s="63">
-        <f t="shared" ref="V20:X20" si="34">IFERROR(V19/V21,0)</f>
+      <c r="B24" s="30"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30">
+        <f>IFERROR((F5/B5)-1,0)</f>
+        <v>0.30515213739033031</v>
+      </c>
+      <c r="G24" s="29">
+        <f>IFERROR((G5/C5)-1,0)</f>
+        <v>0.3434097346670637</v>
+      </c>
+      <c r="H24" s="29">
+        <f>IFERROR((H5/D5)-1,0)</f>
+        <v>0.30086623714457117</v>
+      </c>
+      <c r="I24" s="29">
+        <f>IFERROR((I5/E5)-1,0)</f>
+        <v>0.31669416729023903</v>
+      </c>
+      <c r="J24" s="30">
+        <f>IFERROR((J5/F5)-1,0)</f>
+        <v>3.3682795314444736E-3</v>
+      </c>
+      <c r="K24" s="29">
+        <f>IFERROR((K5/G5)-1,0)</f>
+        <v>-0.7241657177603944</v>
+      </c>
+      <c r="L24" s="29">
+        <f>IFERROR((L5/H5)-1,0)</f>
+        <v>-0.18437063461827086</v>
+      </c>
+      <c r="M24" s="29">
+        <f>IFERROR((M5/I5)-1,0)</f>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32">
+        <f>F8/B8-1</f>
+        <v>0.50406504065040658</v>
+      </c>
+      <c r="G25" s="31">
+        <f>G8/C8-1</f>
+        <v>0.50649350649350655</v>
+      </c>
+      <c r="H25" s="31">
+        <f>H8/D8-1</f>
+        <v>0.94366197183098599</v>
+      </c>
+      <c r="I25" s="31">
+        <f>I8/E8-1</f>
+        <v>0.76875000000000004</v>
+      </c>
+      <c r="J25" s="32">
+        <f>J8/F8-1</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="K25" s="31">
+        <f>K8/G8-1</f>
+        <v>-6.0344827586206851E-2</v>
+      </c>
+      <c r="L25" s="31">
+        <f>L8/H8-1</f>
+        <v>-0.22463768115942029</v>
+      </c>
+      <c r="M25" s="31">
+        <f>M8/I8-1</f>
+        <v>-0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="32">
+        <f>F9/B9-1</f>
+        <v>0.5818965517241379</v>
+      </c>
+      <c r="G26" s="31">
+        <f>G9/C9-1</f>
+        <v>0.46969696969696972</v>
+      </c>
+      <c r="H26" s="31">
+        <f>H9/D9-1</f>
+        <v>0.40522875816993453</v>
+      </c>
+      <c r="I26" s="31">
+        <f>I9/E9-1</f>
+        <v>0.46153846153846145</v>
+      </c>
+      <c r="J26" s="32">
+        <f>J9/F9-1</f>
+        <v>-0.13623978201634879</v>
+      </c>
+      <c r="K26" s="31">
+        <f>K9/G9-1</f>
+        <v>-0.70360824742268036</v>
+      </c>
+      <c r="L26" s="31">
+        <f>L9/H9-1</f>
+        <v>-0.73720930232558146</v>
+      </c>
+      <c r="M26" s="31">
+        <f>M9/I9-1</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="32">
+        <f>F10/B10-1</f>
+        <v>0.56989247311827951</v>
+      </c>
+      <c r="G27" s="31">
+        <f>G10/C10-1</f>
+        <v>0.65686274509803932</v>
+      </c>
+      <c r="H27" s="31">
+        <f>H10/D10-1</f>
+        <v>0.78571428571428581</v>
+      </c>
+      <c r="I27" s="31">
+        <f>I10/E10-1</f>
+        <v>0.10695187165775399</v>
+      </c>
+      <c r="J27" s="32">
+        <f>J10/F10-1</f>
+        <v>-0.36986301369863017</v>
+      </c>
+      <c r="K27" s="31">
+        <f>K10/G10-1</f>
+        <v>0.56213017751479288</v>
+      </c>
+      <c r="L27" s="31">
+        <f>L10/H10-1</f>
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="M27" s="31">
+        <f>M10/I10-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="34"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34">
+        <f>F11/B11-1</f>
+        <v>0.55803571428571419</v>
+      </c>
+      <c r="G28" s="33">
+        <f>G11/C11-1</f>
+        <v>0.51730769230769225</v>
+      </c>
+      <c r="H28" s="33">
+        <f>H11/D11-1</f>
+        <v>0.61355311355311359</v>
+      </c>
+      <c r="I28" s="33">
+        <f>I11/E11-1</f>
+        <v>0.43498452012383892</v>
+      </c>
+      <c r="J28" s="34">
+        <f>J11/F11-1</f>
+        <v>-4.2979942693409767E-2</v>
+      </c>
+      <c r="K28" s="33">
+        <f>K11/G11-1</f>
+        <v>-0.24334600760456271</v>
+      </c>
+      <c r="L28" s="33">
+        <f>L11/H11-1</f>
+        <v>-0.398410896708286</v>
+      </c>
+      <c r="M28" s="33">
+        <f>M11/I11-1</f>
+        <v>-0.27443365695792876</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B29" s="45"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="G29" s="44"/>
+    </row>
+    <row r="30" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="45"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="24">
+        <f t="shared" ref="E30" si="23">E31-E32</f>
+        <v>2888</v>
+      </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="24">
+        <f t="shared" ref="I30" si="24">I31-I32</f>
+        <v>3074</v>
+      </c>
+      <c r="J30" s="21"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="24">
+        <f t="shared" ref="J30:L30" si="25">L31-L32</f>
+        <v>4551</v>
+      </c>
+      <c r="M30" s="46"/>
+    </row>
+    <row r="31" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23">
+        <v>2888</v>
+      </c>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23">
+        <v>3074</v>
+      </c>
+      <c r="J31" s="22"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23">
+        <f>4495+56</f>
+        <v>4551</v>
+      </c>
+      <c r="M31" s="23"/>
+    </row>
+    <row r="32" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23">
         <v>0</v>
       </c>
-      <c r="W20" s="62">
-        <f t="shared" si="34"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23">
         <v>0</v>
       </c>
-      <c r="X20" s="62">
-        <f t="shared" si="34"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23">
         <v>0</v>
       </c>
-      <c r="Y20" s="64"/>
-    </row>
-    <row r="21" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="23">
-        <v>507.52600000000001</v>
-      </c>
-      <c r="C21" s="23">
-        <v>505.58199999999999</v>
-      </c>
-      <c r="D21" s="23">
-        <v>505.80900000000003</v>
-      </c>
-      <c r="E21" s="23">
-        <v>506.012</v>
-      </c>
-      <c r="F21" s="22">
-        <v>505.67599999999999</v>
-      </c>
-      <c r="G21" s="23">
-        <v>504.72500000000002</v>
-      </c>
-      <c r="H21" s="23">
-        <v>503.66899999999998</v>
-      </c>
-      <c r="I21" s="23">
-        <v>501.17599999999999</v>
-      </c>
-      <c r="J21" s="22">
-        <v>500.86099999999999</v>
-      </c>
-      <c r="K21" s="23">
-        <v>500.351</v>
-      </c>
-      <c r="L21" s="23">
-        <v>500.39800000000002</v>
-      </c>
-      <c r="M21" s="23">
-        <v>500.06</v>
-      </c>
-      <c r="N21" s="22">
-        <v>499.43299999999999</v>
-      </c>
-      <c r="O21" s="23">
-        <v>498.25200000000001</v>
-      </c>
-      <c r="P21" s="23">
-        <v>496.86599999999999</v>
-      </c>
-      <c r="Q21" s="23">
-        <v>495.18799999999999</v>
-      </c>
-      <c r="R21" s="22">
-        <v>494.18799999999999</v>
-      </c>
-      <c r="S21" s="23">
-        <v>492.21199999999999</v>
-      </c>
-      <c r="T21" s="52">
-        <v>491.04199999999997</v>
-      </c>
-      <c r="U21" s="52">
-        <v>488.851</v>
-      </c>
-      <c r="V21" s="22"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-    </row>
-    <row r="22" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="58"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="58"/>
-      <c r="V22" s="58"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="33">
-        <f t="shared" ref="B23:Q23" si="35">IFERROR(B9/B7,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="33">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="33">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="33">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="34">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="33">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="33">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="33">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="34">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="33">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="33">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="33">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="34">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="33">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="33">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="33">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="34">
-        <f t="shared" ref="R23:S23" si="36">IFERROR(R9/R7,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="33">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="33">
-        <f t="shared" ref="T23:V23" si="37">IFERROR(T9/T7,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="33">
-        <f t="shared" ref="U23" si="38">IFERROR(U9/U7,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V23" s="34">
-        <f t="shared" si="37"/>
-        <v>0.40605585450744214</v>
-      </c>
-      <c r="W23" s="33">
-        <f t="shared" ref="W23:X23" si="39">IFERROR(W9/W7,0)</f>
-        <v>4.114417487618513E-2</v>
-      </c>
-      <c r="X23" s="33">
-        <f t="shared" si="39"/>
-        <v>0.70722571407499335</v>
-      </c>
-      <c r="Y23" s="33"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="35">
-        <f t="shared" ref="B24:Q24" si="40">IFERROR(B14/B7,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="35">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="35">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="35">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="36">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="35">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="35">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="35">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="36">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="35">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="35">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="35">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="36">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="35">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="35">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="35">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="36">
-        <f t="shared" ref="R24:S24" si="41">IFERROR(R14/R7,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="35">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="35">
-        <f t="shared" ref="T24:V24" si="42">IFERROR(T14/T7,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U24" s="35">
-        <f t="shared" ref="U24" si="43">IFERROR(U14/U7,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V24" s="36">
-        <f t="shared" si="42"/>
-        <v>-0.38745352387061516</v>
-      </c>
-      <c r="W24" s="35">
-        <f t="shared" ref="W24:X24" si="44">IFERROR(W14/W7,0)</f>
-        <v>-1.742148434466237</v>
-      </c>
-      <c r="X24" s="35">
-        <f t="shared" si="44"/>
-        <v>0.31239016308198198</v>
-      </c>
-      <c r="Y24" s="35"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="35">
-        <f t="shared" ref="B25:Q25" si="45">IFERROR(B17/B16,0)</f>
-        <v>-8.2838847994519696E-2</v>
-      </c>
-      <c r="C25" s="35">
-        <f t="shared" si="45"/>
-        <v>-3.4123059487313291E-2</v>
-      </c>
-      <c r="D25" s="35">
-        <f t="shared" si="45"/>
-        <v>-5.9030664396959247E-2</v>
-      </c>
-      <c r="E25" s="35">
-        <f t="shared" si="45"/>
-        <v>-7.3539026651767675E-2</v>
-      </c>
-      <c r="F25" s="36">
-        <f t="shared" si="45"/>
-        <v>-3.482953691380973E-2</v>
-      </c>
-      <c r="G25" s="35">
-        <f t="shared" si="45"/>
-        <v>-8.0229848280301122E-2</v>
-      </c>
-      <c r="H25" s="35">
-        <f t="shared" si="45"/>
-        <v>-7.7201069636514991E-2</v>
-      </c>
-      <c r="I25" s="35">
-        <f t="shared" si="45"/>
-        <v>-4.9566778007482735E-2</v>
-      </c>
-      <c r="J25" s="36">
-        <f t="shared" si="45"/>
-        <v>-5.0929800968703066E-2</v>
-      </c>
-      <c r="K25" s="35">
-        <f t="shared" si="45"/>
-        <v>-9.239652008640388E-2</v>
-      </c>
-      <c r="L25" s="35">
-        <f t="shared" si="45"/>
-        <v>-9.3721988620407107E-2</v>
-      </c>
-      <c r="M25" s="35">
-        <f t="shared" si="45"/>
-        <v>-0.10374359316594588</v>
-      </c>
-      <c r="N25" s="36">
-        <f t="shared" si="45"/>
-        <v>-8.6764091554693432E-2</v>
-      </c>
-      <c r="O25" s="35">
-        <f t="shared" si="45"/>
-        <v>-1.836549000007311E-2</v>
-      </c>
-      <c r="P25" s="35">
-        <f t="shared" si="45"/>
-        <v>-2.205862926632271E-2</v>
-      </c>
-      <c r="Q25" s="35">
-        <f t="shared" si="45"/>
-        <v>-1.1882239119795537E-2</v>
-      </c>
-      <c r="R25" s="36">
-        <f t="shared" ref="R25:S25" si="46">IFERROR(R17/R16,0)</f>
-        <v>-1.4796598778476064E-2</v>
-      </c>
-      <c r="S25" s="35">
-        <f t="shared" si="46"/>
-        <v>-3.8445386002907291E-2</v>
-      </c>
-      <c r="T25" s="35">
-        <f t="shared" ref="T25:V25" si="47">IFERROR(T17/T16,0)</f>
-        <v>-2.0866276796100092E-2</v>
-      </c>
-      <c r="U25" s="35">
-        <f t="shared" ref="U25" si="48">IFERROR(U17/U16,0)</f>
-        <v>-5.1742753699754819E-2</v>
-      </c>
-      <c r="V25" s="36">
-        <f t="shared" si="47"/>
-        <v>4.5176045401925637E-2</v>
-      </c>
-      <c r="W25" s="35">
-        <f t="shared" ref="W25:X25" si="49">IFERROR(W17/W16,0)</f>
-        <v>0.10012108393588497</v>
-      </c>
-      <c r="X25" s="35">
-        <f t="shared" si="49"/>
-        <v>0.28633623031845151</v>
-      </c>
-      <c r="Y25" s="35"/>
-    </row>
-    <row r="26" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="58"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="58"/>
-      <c r="V26" s="58"/>
-    </row>
-    <row r="27" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="30">
-        <f t="shared" ref="F27:X27" si="50">IFERROR((F7/B7)-1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="29">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="29">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="29">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="30">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="29">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="29">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="29">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="30">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="29">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="29">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="29">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="30">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="29">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="29">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="29">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="30">
-        <f t="shared" ref="V27" si="51">IFERROR((V7/R7)-1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="29">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="X27" s="29">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="29"/>
-    </row>
-    <row r="28" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32">
-        <f t="shared" ref="F28:X31" si="52">F10/B10-1</f>
-        <v>0.10066864956915955</v>
-      </c>
-      <c r="G28" s="31">
-        <f t="shared" si="52"/>
-        <v>0.11745903569866423</v>
-      </c>
-      <c r="H28" s="31">
-        <f t="shared" si="52"/>
-        <v>0.13623890972285735</v>
-      </c>
-      <c r="I28" s="31">
-        <f t="shared" si="52"/>
-        <v>0.16930897811476808</v>
-      </c>
-      <c r="J28" s="32">
-        <f t="shared" si="52"/>
-        <v>0.20182206033625061</v>
-      </c>
-      <c r="K28" s="31">
-        <f t="shared" si="52"/>
-        <v>0.28783486175392725</v>
-      </c>
-      <c r="L28" s="31">
-        <f t="shared" si="52"/>
-        <v>0.27009458643590278</v>
-      </c>
-      <c r="M28" s="31">
-        <f t="shared" si="52"/>
-        <v>0.25665021000663191</v>
-      </c>
-      <c r="N28" s="32">
-        <f t="shared" si="52"/>
-        <v>0.22342033906628744</v>
-      </c>
-      <c r="O28" s="31">
-        <f t="shared" si="52"/>
-        <v>0.24958834472830738</v>
-      </c>
-      <c r="P28" s="31">
-        <f t="shared" si="52"/>
-        <v>0.26430257799749635</v>
-      </c>
-      <c r="Q28" s="31">
-        <f t="shared" si="52"/>
-        <v>0.28371797324906023</v>
-      </c>
-      <c r="R28" s="32">
-        <f t="shared" si="52"/>
-        <v>0.33221989339648883</v>
-      </c>
-      <c r="S28" s="31">
-        <f t="shared" si="52"/>
-        <v>0.27217957490484546</v>
-      </c>
-      <c r="T28" s="31">
-        <f t="shared" si="52"/>
-        <v>0.22776890742611355</v>
-      </c>
-      <c r="U28" s="31">
-        <f t="shared" si="52"/>
-        <v>0.20157804393712819</v>
-      </c>
-      <c r="V28" s="32">
-        <f t="shared" ref="V28:V30" si="53">V10/R10-1</f>
-        <v>-0.44257560202911095</v>
-      </c>
-      <c r="W28" s="31">
-        <f t="shared" si="52"/>
-        <v>-0.54197639287500166</v>
-      </c>
-      <c r="X28" s="31">
-        <f t="shared" si="52"/>
-        <v>-0.56311105757747115</v>
-      </c>
-      <c r="Y28" s="31"/>
-    </row>
-    <row r="29" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32">
-        <f t="shared" si="52"/>
-        <v>0.20917092944204962</v>
-      </c>
-      <c r="G29" s="31">
-        <f t="shared" si="52"/>
-        <v>8.3820064730982358E-2</v>
-      </c>
-      <c r="H29" s="31">
-        <f t="shared" si="52"/>
-        <v>0.13137423554193894</v>
-      </c>
-      <c r="I29" s="31">
-        <f t="shared" si="52"/>
-        <v>0.12134404899970996</v>
-      </c>
-      <c r="J29" s="32">
-        <f t="shared" si="52"/>
-        <v>9.5613519734002228E-2</v>
-      </c>
-      <c r="K29" s="31">
-        <f t="shared" si="52"/>
-        <v>0.19514076609426745</v>
-      </c>
-      <c r="L29" s="31">
-        <f t="shared" si="52"/>
-        <v>0.15208754385046319</v>
-      </c>
-      <c r="M29" s="31">
-        <f t="shared" si="52"/>
-        <v>0.15970766116814339</v>
-      </c>
-      <c r="N29" s="32">
-        <f t="shared" si="52"/>
-        <v>0.11658725689365879</v>
-      </c>
-      <c r="O29" s="31">
-        <f t="shared" si="52"/>
-        <v>0.16835533666728164</v>
-      </c>
-      <c r="P29" s="31">
-        <f t="shared" si="52"/>
-        <v>0.21812857098708771</v>
-      </c>
-      <c r="Q29" s="31">
-        <f t="shared" si="52"/>
-        <v>0.2603517829522175</v>
-      </c>
-      <c r="R29" s="32">
-        <f t="shared" si="52"/>
-        <v>0.34522520599631301</v>
-      </c>
-      <c r="S29" s="31">
-        <f t="shared" si="52"/>
-        <v>0.31369126374349099</v>
-      </c>
-      <c r="T29" s="31">
-        <f t="shared" si="52"/>
-        <v>0.21225697076784411</v>
-      </c>
-      <c r="U29" s="31">
-        <f t="shared" si="52"/>
-        <v>0.10781911431189384</v>
-      </c>
-      <c r="V29" s="32">
-        <f t="shared" si="53"/>
-        <v>-0.594379144178381</v>
-      </c>
-      <c r="W29" s="31">
-        <f t="shared" si="52"/>
-        <v>-0.86453487755719871</v>
-      </c>
-      <c r="X29" s="31">
-        <f t="shared" si="52"/>
-        <v>-0.86089123171581439</v>
-      </c>
-      <c r="Y29" s="31"/>
-    </row>
-    <row r="30" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="32">
-        <f t="shared" si="52"/>
-        <v>2.3599076395958152E-2</v>
-      </c>
-      <c r="G30" s="31">
-        <f t="shared" si="52"/>
-        <v>5.9296265582546415E-2</v>
-      </c>
-      <c r="H30" s="31">
-        <f t="shared" si="52"/>
-        <v>0.18521056877485309</v>
-      </c>
-      <c r="I30" s="31">
-        <f t="shared" si="52"/>
-        <v>9.218138812629828E-2</v>
-      </c>
-      <c r="J30" s="32">
-        <f t="shared" si="52"/>
-        <v>3.0477230004244626E-2</v>
-      </c>
-      <c r="K30" s="31">
-        <f t="shared" si="52"/>
-        <v>0.12176198780534375</v>
-      </c>
-      <c r="L30" s="31">
-        <f t="shared" si="52"/>
-        <v>4.9031418658440629E-3</v>
-      </c>
-      <c r="M30" s="31">
-        <f t="shared" si="52"/>
-        <v>0.12934633935641782</v>
-      </c>
-      <c r="N30" s="32">
-        <f t="shared" si="52"/>
-        <v>0.10386263063741663</v>
-      </c>
-      <c r="O30" s="31">
-        <f t="shared" si="52"/>
-        <v>0.10746160261902205</v>
-      </c>
-      <c r="P30" s="31">
-        <f t="shared" si="52"/>
-        <v>0.24640052748306651</v>
-      </c>
-      <c r="Q30" s="31">
-        <f t="shared" si="52"/>
-        <v>0.30296462738973595</v>
-      </c>
-      <c r="R30" s="32">
-        <f t="shared" si="52"/>
-        <v>0.40029106649749968</v>
-      </c>
-      <c r="S30" s="31">
-        <f t="shared" si="52"/>
-        <v>0.34413312225586501</v>
-      </c>
-      <c r="T30" s="31">
-        <f t="shared" si="52"/>
-        <v>0.26100693960189858</v>
-      </c>
-      <c r="U30" s="31">
-        <f t="shared" si="52"/>
-        <v>9.5190531907520581E-2</v>
-      </c>
-      <c r="V30" s="32">
-        <f t="shared" si="53"/>
-        <v>-0.64975730465404014</v>
-      </c>
-      <c r="W30" s="31">
-        <f t="shared" si="52"/>
-        <v>6.2509528891598887E-3</v>
-      </c>
-      <c r="X30" s="31">
-        <f t="shared" si="52"/>
-        <v>-0.22581137256397543</v>
-      </c>
-      <c r="Y30" s="31"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J31" s="34">
-        <f t="shared" ref="J31:P31" si="54">J13/F13-1</f>
-        <v>0.11209172125586497</v>
-      </c>
-      <c r="K31" s="33">
-        <f t="shared" si="54"/>
-        <v>0.20689683490323096</v>
-      </c>
-      <c r="L31" s="33">
-        <f t="shared" si="54"/>
-        <v>0.15756311235832832</v>
-      </c>
-      <c r="M31" s="33">
-        <f t="shared" si="54"/>
-        <v>0.18138656325747649</v>
-      </c>
-      <c r="N31" s="34">
-        <f t="shared" si="54"/>
-        <v>0.14559678461207204</v>
-      </c>
-      <c r="O31" s="33">
-        <f t="shared" si="54"/>
-        <v>0.18156438700245348</v>
-      </c>
-      <c r="P31" s="33">
-        <f t="shared" si="54"/>
-        <v>0.23680891989950403</v>
-      </c>
-      <c r="Q31" s="33">
-        <f>Q13/M13-1</f>
-        <v>0.27470514542293079</v>
-      </c>
-      <c r="R31" s="34">
-        <f>R13/N13-1</f>
-        <v>0.35041062836521952</v>
-      </c>
-      <c r="S31" s="33">
-        <f t="shared" si="52"/>
-        <v>0.30580272670731801</v>
-      </c>
-      <c r="T31" s="33">
-        <f t="shared" si="52"/>
-        <v>0.22504146508397183</v>
-      </c>
-      <c r="U31" s="33">
-        <f t="shared" si="52"/>
-        <v>0.13374465092163734</v>
-      </c>
-      <c r="V31" s="34">
-        <f>V13/R13-1</f>
-        <v>-0.55727285380062697</v>
-      </c>
-      <c r="W31" s="33">
-        <f t="shared" si="52"/>
-        <v>-0.62387659120047623</v>
-      </c>
-      <c r="X31" s="33">
-        <f t="shared" si="52"/>
-        <v>-0.66120135442749106</v>
-      </c>
-      <c r="Y31" s="33"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="J32" s="45"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="S32" s="44"/>
-    </row>
-    <row r="33" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="23"/>
+      <c r="M32" s="23"/>
+    </row>
+    <row r="33" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="22"/>
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
-      <c r="E33" s="24">
-        <f>E34-E35</f>
-        <v>2080.8530000000001</v>
-      </c>
+      <c r="E33" s="23"/>
       <c r="F33" s="22"/>
       <c r="G33" s="23"/>
       <c r="H33" s="23"/>
-      <c r="I33" s="24">
-        <f t="shared" ref="I33" si="55">I34-I35</f>
-        <v>2859.232</v>
-      </c>
+      <c r="I33" s="23"/>
       <c r="J33" s="22"/>
       <c r="K33" s="23"/>
       <c r="L33" s="23"/>
-      <c r="M33" s="24">
-        <f t="shared" ref="M33:P33" si="56">M34-M35</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="25">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="24">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="24">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="24">
-        <f t="shared" ref="Q33:S33" si="57">Q34-Q35</f>
-        <v>0</v>
-      </c>
-      <c r="R33" s="25">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="24">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="T33" s="24">
-        <f t="shared" ref="T33" si="58">T34-T35</f>
-        <v>0</v>
-      </c>
-      <c r="U33" s="24">
-        <f t="shared" ref="U33" si="59">U34-U35</f>
-        <v>0</v>
-      </c>
-      <c r="V33" s="25">
-        <f t="shared" ref="V33:X33" si="60">V34-V35</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="24">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="X33" s="24">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="46"/>
-    </row>
-    <row r="34" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="23"/>
+      <c r="M33" s="23"/>
+    </row>
+    <row r="34" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="22"/>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
       <c r="E34" s="23">
-        <f>876.56+3111.524</f>
-        <v>3988.0839999999998</v>
+        <v>0</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
       <c r="I34" s="23">
-        <f>1011.315+3749.985</f>
-        <v>4761.3</v>
+        <v>0</v>
       </c>
       <c r="J34" s="22"/>
       <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
+      <c r="L34" s="23">
+        <v>0</v>
+      </c>
       <c r="M34" s="23"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-    </row>
-    <row r="35" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="23"/>
+    </row>
+    <row r="35" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="22"/>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
       <c r="E35" s="23">
-        <v>1907.231</v>
+        <v>6613</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
       <c r="I35" s="23">
-        <v>1902.068</v>
+        <v>8310</v>
       </c>
       <c r="J35" s="22"/>
       <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
+      <c r="L35" s="23">
+        <v>8728</v>
+      </c>
       <c r="M35" s="23"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-    </row>
-    <row r="36" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="23"/>
+    </row>
+    <row r="36" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="22"/>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
+      <c r="E36" s="23">
+        <f>3899+3232+259</f>
+        <v>7390</v>
+      </c>
       <c r="F36" s="22"/>
       <c r="G36" s="23"/>
       <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
+      <c r="I36" s="23">
+        <f>5886+3232+618</f>
+        <v>9736</v>
+      </c>
       <c r="J36" s="22"/>
       <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
+      <c r="L36" s="23">
+        <f>6873+3232+744</f>
+        <v>10849</v>
+      </c>
       <c r="M36" s="23"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-    </row>
-    <row r="37" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="23"/>
+    </row>
+    <row r="37" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="22"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
-      <c r="E37" s="37">
-        <f>5366.881+510.007</f>
-        <v>5876.8879999999999</v>
-      </c>
+      <c r="E37" s="23"/>
       <c r="F37" s="22"/>
       <c r="G37" s="23"/>
       <c r="H37" s="23"/>
-      <c r="I37" s="37">
-        <f>5406.474+414.405</f>
-        <v>5820.8789999999999</v>
-      </c>
+      <c r="I37" s="23"/>
       <c r="J37" s="22"/>
       <c r="K37" s="23"/>
       <c r="L37" s="23"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
-      <c r="U37" s="23"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="23"/>
-      <c r="X37" s="23"/>
-      <c r="Y37" s="23"/>
-    </row>
-    <row r="38" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="37">
-        <v>11726.472</v>
-      </c>
-      <c r="F38" s="22"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="37">
-        <v>12707.114</v>
-      </c>
-      <c r="J38" s="22"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="23"/>
-      <c r="X38" s="23"/>
-      <c r="Y38" s="23"/>
-    </row>
-    <row r="39" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="37">
-        <v>4724.8919999999998</v>
-      </c>
-      <c r="F39" s="22"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="37">
-        <v>5282.2790000000005</v>
-      </c>
-      <c r="J39" s="22"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="23"/>
-      <c r="T39" s="23"/>
-      <c r="U39" s="23"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="23"/>
-      <c r="X39" s="23"/>
-      <c r="Y39" s="23"/>
-    </row>
-    <row r="40" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="23"/>
+      <c r="M37" s="23"/>
+    </row>
+    <row r="38" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="45"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="26">
+        <f t="shared" ref="E38" si="26">E35-E31-E34</f>
+        <v>3725</v>
+      </c>
+      <c r="F38" s="21"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="26">
+        <f t="shared" ref="F38:J38" si="27">I35-I31-I34</f>
+        <v>5236</v>
+      </c>
+      <c r="K38" s="20"/>
+      <c r="L38" s="26">
+        <f t="shared" ref="K38:L38" si="28">L35-L31-L34</f>
+        <v>4177</v>
+      </c>
+      <c r="M38" s="23"/>
+    </row>
+    <row r="39" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="45"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="26">
+        <f>E35-E36</f>
+        <v>-777</v>
+      </c>
+      <c r="F39" s="21"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="26">
+        <f>I35-I36</f>
+        <v>-1426</v>
+      </c>
+      <c r="J39" s="21"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="26">
+        <f>L35-L36</f>
+        <v>-2121</v>
+      </c>
+      <c r="M39" s="23"/>
+    </row>
+    <row r="40" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="45"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="20"/>
       <c r="L40" s="23"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="23"/>
-      <c r="X40" s="23"/>
-      <c r="Y40" s="23"/>
-    </row>
-    <row r="41" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="26">
-        <f>E38-E34-E37</f>
-        <v>1861.5</v>
-      </c>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="26">
-        <f t="shared" ref="I41:O41" si="61">I38-I34-I37</f>
-        <v>2124.9349999999995</v>
-      </c>
-      <c r="J41" s="22"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="26">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="27">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="26">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="26">
-        <f t="shared" ref="P41:V41" si="62">P38-P34-P37</f>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="26">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="R41" s="27">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="26">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="T41" s="26">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="U41" s="26">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="V41" s="27">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="W41" s="26">
-        <f t="shared" ref="W41:X41" si="63">W38-W34-W37</f>
-        <v>0</v>
-      </c>
-      <c r="X41" s="26">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="Y41" s="23"/>
-    </row>
-    <row r="42" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="26">
-        <f>E38-E39</f>
-        <v>7001.58</v>
-      </c>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="26">
-        <f>I38-I39</f>
-        <v>7424.8349999999991</v>
-      </c>
-      <c r="J42" s="22"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="26">
-        <f t="shared" ref="M42:P42" si="64">M38-M39</f>
-        <v>0</v>
-      </c>
-      <c r="N42" s="27">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="26">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="P42" s="26">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="26">
-        <f t="shared" ref="Q42:S42" si="65">Q38-Q39</f>
-        <v>0</v>
-      </c>
-      <c r="R42" s="27">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="S42" s="26">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="T42" s="26">
-        <f>T38-T39</f>
-        <v>0</v>
-      </c>
-      <c r="U42" s="26">
-        <f>U38-U39</f>
-        <v>0</v>
-      </c>
-      <c r="V42" s="27">
-        <f t="shared" ref="V42" si="66">V38-V39</f>
-        <v>0</v>
-      </c>
-      <c r="W42" s="26">
-        <f>W38-W39</f>
-        <v>0</v>
-      </c>
-      <c r="X42" s="26">
-        <f>X38-X39</f>
-        <v>0</v>
-      </c>
-      <c r="Y42" s="23"/>
-    </row>
-    <row r="43" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="23"/>
-      <c r="T43" s="23"/>
-      <c r="U43" s="23"/>
-      <c r="V43" s="22"/>
-      <c r="W43" s="23"/>
-      <c r="X43" s="23"/>
-      <c r="Y43" s="23"/>
-    </row>
-    <row r="44" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="24">
-        <f>SUM(B19:E19)</f>
-        <v>-4165.96</v>
-      </c>
-      <c r="F44" s="22"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="24">
-        <f>SUM(F19:I19)</f>
-        <v>-4685.6480000000001</v>
-      </c>
-      <c r="J44" s="22"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="24">
-        <f t="shared" ref="M44:U44" si="67">SUM(J19:M19)</f>
-        <v>-5607.5510000000004</v>
-      </c>
-      <c r="N44" s="25">
-        <f t="shared" si="67"/>
-        <v>-5820.2220000000007</v>
-      </c>
-      <c r="O44" s="24">
-        <f t="shared" si="67"/>
-        <v>-5954.6149999999998</v>
-      </c>
-      <c r="P44" s="24">
-        <f t="shared" si="67"/>
-        <v>-6157.8950000000004</v>
-      </c>
-      <c r="Q44" s="24">
-        <f t="shared" si="67"/>
-        <v>-6439.2340000000004</v>
-      </c>
-      <c r="R44" s="25">
-        <f t="shared" si="67"/>
-        <v>-6870.0680000000002</v>
-      </c>
-      <c r="S44" s="24">
-        <f t="shared" si="67"/>
-        <v>-7449.5619999999999</v>
-      </c>
-      <c r="T44" s="24">
-        <f t="shared" si="67"/>
-        <v>-7866.14</v>
-      </c>
-      <c r="U44" s="24">
-        <f t="shared" si="67"/>
-        <v>-8219.8379999999997</v>
-      </c>
-      <c r="V44" s="25">
-        <f t="shared" ref="V44" si="68">SUM(S19:V19)</f>
-        <v>-6631.3029999999999</v>
-      </c>
-      <c r="W44" s="24">
-        <f>SUM(T19:W19)</f>
-        <v>-5094.8419999999996</v>
-      </c>
-      <c r="X44" s="24">
-        <f>SUM(U19:X19)</f>
-        <v>-2834.1480000000001</v>
-      </c>
-      <c r="Y44" s="46"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="M40" s="23"/>
+    </row>
+    <row r="41" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="45"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="24">
+        <f t="shared" ref="E41:I41" si="29">SUM(B16:E16)</f>
+        <v>-17.014999999999986</v>
+      </c>
+      <c r="F41" s="21"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="24">
+        <f t="shared" si="29"/>
+        <v>-675.76099999999985</v>
+      </c>
+      <c r="J41" s="21"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="24">
+        <f>SUM(I16:L16)</f>
+        <v>-1046.269</v>
+      </c>
+      <c r="M41" s="46"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A42" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="45"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="33">
+        <f t="shared" ref="E42" si="30">E41/E39</f>
+        <v>2.1898326898326881E-2</v>
+      </c>
+      <c r="G42" s="44"/>
+      <c r="I42" s="33">
+        <f t="shared" ref="F42:J42" si="31">I41/I39</f>
+        <v>0.47388569424964927</v>
+      </c>
+      <c r="L42" s="33">
+        <f t="shared" ref="K42:L42" si="32">L41/L39</f>
+        <v>0.49329042904290427</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A43" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="45"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="33">
+        <f t="shared" ref="E43" si="33">E41/E35</f>
+        <v>-2.5729623468924824E-3</v>
+      </c>
+      <c r="G43" s="44"/>
+      <c r="I43" s="33">
+        <f t="shared" ref="F43:J43" si="34">I41/I35</f>
+        <v>-8.1319013237063767E-2</v>
+      </c>
+      <c r="L43" s="33">
+        <f t="shared" ref="K43:L43" si="35">L41/L35</f>
+        <v>-0.119875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A44" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="45"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="33">
+        <f t="shared" ref="E44" si="36">E41/(E39-E34)</f>
+        <v>2.1898326898326881E-2</v>
+      </c>
+      <c r="G44" s="44"/>
+      <c r="I44" s="33">
+        <f t="shared" ref="F44:J44" si="37">I41/(I39-I34)</f>
+        <v>0.47388569424964927</v>
+      </c>
+      <c r="L44" s="33">
+        <f t="shared" ref="K44:L44" si="38">L41/(L39-L34)</f>
+        <v>0.49329042904290427</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="18" t="s">
-        <v>62</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B45" s="45"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
       <c r="E45" s="33">
-        <f>E19/E42</f>
-        <v>-0.15477920697899614</v>
-      </c>
+        <f t="shared" ref="E45" si="39">E41/E38</f>
+        <v>-4.5677852348993252E-3</v>
+      </c>
+      <c r="G45" s="44"/>
       <c r="I45" s="33">
-        <f t="shared" ref="I45:O45" si="69">I44/I42</f>
-        <v>-0.63107772765320724</v>
-      </c>
-      <c r="J45" s="22"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="33" t="e">
-        <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N45" s="34" t="e">
-        <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O45" s="33" t="e">
-        <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P45" s="33" t="e">
-        <f t="shared" ref="P45:V45" si="70">P44/P42</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q45" s="33" t="e">
-        <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R45" s="34" t="e">
-        <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S45" s="33" t="e">
-        <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T45" s="33" t="e">
-        <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U45" s="33" t="e">
-        <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V45" s="34" t="e">
-        <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W45" s="33" t="e">
-        <f t="shared" ref="W45:X45" si="71">W44/W42</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X45" s="33" t="e">
-        <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A46" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" s="33">
-        <f>E19/E38</f>
-        <v>-9.2414751853754473E-2</v>
-      </c>
-      <c r="I46" s="33">
-        <f t="shared" ref="I46:O46" si="72">I44/I38</f>
-        <v>-0.36874210776734989</v>
-      </c>
-      <c r="J46" s="22"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="33" t="e">
-        <f t="shared" si="72"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N46" s="34" t="e">
-        <f t="shared" si="72"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O46" s="33" t="e">
-        <f t="shared" si="72"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P46" s="33" t="e">
-        <f t="shared" ref="P46:V46" si="73">P44/P38</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q46" s="33" t="e">
-        <f t="shared" si="73"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R46" s="34" t="e">
-        <f t="shared" si="73"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S46" s="33" t="e">
-        <f t="shared" si="73"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T46" s="33" t="e">
-        <f t="shared" si="73"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U46" s="33" t="e">
-        <f t="shared" si="73"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V46" s="34" t="e">
-        <f t="shared" si="73"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W46" s="33" t="e">
-        <f t="shared" ref="W46:X46" si="74">W44/W38</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X46" s="33" t="e">
-        <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A47" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E47" s="33">
-        <f>E19/(E42-E37)</f>
-        <v>-0.96355179907032307</v>
+        <f t="shared" ref="F45:J45" si="40">I41/I38</f>
+        <v>-0.12906054239877768</v>
+      </c>
+      <c r="L45" s="33">
+        <f t="shared" ref="K45:L45" si="41">L41/L38</f>
+        <v>-0.25048336126406512</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="34"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="34">
+        <f>F3/B3-1</f>
+        <v>0.30515213739033031</v>
+      </c>
+      <c r="G47" s="33">
+        <f>G3/C3-1</f>
+        <v>0.3434097346670637</v>
+      </c>
+      <c r="H47" s="33">
+        <f>H3/D3-1</f>
+        <v>0.30086623714457117</v>
       </c>
       <c r="I47" s="33">
-        <f t="shared" ref="I47:O47" si="75">I44/(I42-I37)</f>
-        <v>-2.9213070682736948</v>
-      </c>
-      <c r="J47" s="22"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="33" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N47" s="34" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O47" s="33" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P47" s="33" t="e">
-        <f t="shared" ref="P47:V47" si="76">P44/(P42-P37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q47" s="33" t="e">
-        <f t="shared" si="76"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R47" s="34" t="e">
-        <f t="shared" si="76"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S47" s="33" t="e">
-        <f t="shared" si="76"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T47" s="33" t="e">
-        <f t="shared" si="76"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U47" s="33" t="e">
-        <f t="shared" si="76"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V47" s="34" t="e">
-        <f t="shared" si="76"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W47" s="33" t="e">
-        <f t="shared" ref="W47:X47" si="77">W44/(W42-W37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X47" s="33" t="e">
-        <f t="shared" si="77"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A48" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E48" s="33">
-        <f>E19/E41</f>
-        <v>-0.58216438356164379</v>
-      </c>
-      <c r="I48" s="33">
-        <f t="shared" ref="I48:O48" si="78">I44/I41</f>
-        <v>-2.2050782729824685</v>
-      </c>
-      <c r="J48" s="22"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="33" t="e">
-        <f t="shared" si="78"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N48" s="34" t="e">
-        <f t="shared" si="78"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O48" s="33" t="e">
-        <f t="shared" si="78"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P48" s="33" t="e">
-        <f t="shared" ref="P48:V48" si="79">P44/P41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q48" s="33" t="e">
-        <f t="shared" si="79"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R48" s="34" t="e">
-        <f t="shared" si="79"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S48" s="33" t="e">
-        <f t="shared" si="79"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T48" s="33" t="e">
-        <f t="shared" si="79"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U48" s="33" t="e">
-        <f t="shared" si="79"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V48" s="34" t="e">
-        <f t="shared" si="79"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W48" s="33" t="e">
-        <f t="shared" ref="W48:X48" si="80">W44/W41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X48" s="33" t="e">
-        <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="6:25" x14ac:dyDescent="0.15">
-      <c r="F50" s="34"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="33"/>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="33"/>
-      <c r="R50" s="34"/>
-      <c r="S50" s="33"/>
-      <c r="T50" s="33"/>
-      <c r="U50" s="33"/>
-      <c r="V50" s="34"/>
-      <c r="W50" s="33"/>
-      <c r="X50" s="33"/>
-      <c r="Y50" s="33"/>
-    </row>
-    <row r="51" spans="6:25" x14ac:dyDescent="0.15">
-      <c r="F51" s="34"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="34"/>
-      <c r="S51" s="33"/>
-      <c r="T51" s="33"/>
-      <c r="U51" s="33"/>
-      <c r="V51" s="34"/>
-      <c r="W51" s="33"/>
-      <c r="X51" s="33"/>
-      <c r="Y51" s="33"/>
-    </row>
-    <row r="52" spans="6:25" x14ac:dyDescent="0.15">
-      <c r="F52" s="34"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="33"/>
-      <c r="U52" s="33"/>
-      <c r="V52" s="34"/>
-      <c r="W52" s="33"/>
-      <c r="X52" s="33"/>
-      <c r="Y52" s="33"/>
+        <f>I3/E3-1</f>
+        <v>0.31669416729023903</v>
+      </c>
+      <c r="J47" s="34">
+        <f>J3/F3-1</f>
+        <v>3.3682795314444736E-3</v>
+      </c>
+      <c r="K47" s="33">
+        <f>K3/G3-1</f>
+        <v>-0.7241657177603944</v>
+      </c>
+      <c r="L47" s="33">
+        <f>L3/H3-1</f>
+        <v>-0.18437063461827086</v>
+      </c>
+      <c r="M47" s="33">
+        <f>M3/I3-1</f>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B48" s="34"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B49" s="34"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12064,7 +10550,7 @@
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
